--- a/u_s_lohi_512_16/Multcomp_results.xlsx
+++ b/u_s_lohi_512_16/Multcomp_results.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="360" yWindow="345" windowWidth="28455" windowHeight="12495"/>
+    <workbookView xWindow="360" yWindow="348" windowWidth="23256" windowHeight="12492"/>
   </bookViews>
   <sheets>
     <sheet name="multcomp_results v5" sheetId="1" r:id="rId1"/>
@@ -28,11 +28,11 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="0.000000000000000"/>
+    <numFmt numFmtId="166" formatCode="#,##0.00000"/>
   </numFmts>
-  <fonts count="18">
+  <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -553,19 +553,19 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="16" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="16" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="16" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="16" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -615,6 +615,11 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -693,6 +698,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -727,6 +733,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -902,7050 +909,7054 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:F353"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="G3" sqref="G3"/>
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="2" width="7.42578125" style="2" customWidth="1"/>
-    <col min="3" max="6" width="22.140625" style="3" customWidth="1"/>
+    <col min="1" max="1" width="6.21875" style="2" customWidth="1"/>
+    <col min="2" max="2" width="5.21875" style="2" customWidth="1"/>
+    <col min="3" max="3" width="12.33203125" style="7" customWidth="1"/>
+    <col min="4" max="4" width="13.33203125" style="7" customWidth="1"/>
+    <col min="5" max="5" width="12.44140625" style="7" customWidth="1"/>
+    <col min="6" max="6" width="12.21875" style="7" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:6" s="1" customFormat="1">
-      <c r="A2" s="4" t="s">
+    <row r="2" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="5" t="s">
+      <c r="B2" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="6"/>
-      <c r="D2" s="6"/>
-      <c r="E2" s="6"/>
-      <c r="F2" s="7" t="s">
+      <c r="C2" s="5"/>
+      <c r="D2" s="5"/>
+      <c r="E2" s="5"/>
+      <c r="F2" s="6" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:6">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3" s="2">
         <v>1</v>
       </c>
       <c r="B3" s="2">
         <v>2</v>
       </c>
-      <c r="C3" s="3">
+      <c r="C3" s="7">
         <v>-509.69359042045704</v>
       </c>
-      <c r="D3" s="3">
+      <c r="D3" s="7">
         <v>-221.48000000000002</v>
       </c>
-      <c r="E3" s="3">
+      <c r="E3" s="7">
         <v>66.733590420456991</v>
       </c>
-      <c r="F3" s="3">
+      <c r="F3" s="7">
         <v>0.46062481414899997</v>
       </c>
     </row>
-    <row r="4" spans="1:6">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" s="2">
         <v>1</v>
       </c>
       <c r="B4" s="2">
         <v>3</v>
       </c>
-      <c r="C4" s="3">
+      <c r="C4" s="7">
         <v>-799.61359042045694</v>
       </c>
-      <c r="D4" s="3">
+      <c r="D4" s="7">
         <v>-511.4</v>
       </c>
-      <c r="E4" s="3">
+      <c r="E4" s="7">
         <v>-223.18640957954301</v>
       </c>
-      <c r="F4" s="3">
+      <c r="F4" s="7">
         <v>1.8791349999999998E-6</v>
       </c>
     </row>
-    <row r="5" spans="1:6">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5" s="2">
         <v>1</v>
       </c>
       <c r="B5" s="2">
         <v>4</v>
       </c>
-      <c r="C5" s="3">
+      <c r="C5" s="7">
         <v>-83.333590420457</v>
       </c>
-      <c r="D5" s="3">
+      <c r="D5" s="7">
         <v>204.88</v>
       </c>
-      <c r="E5" s="3">
+      <c r="E5" s="7">
         <v>493.09359042045696</v>
       </c>
-      <c r="F5" s="3">
+      <c r="F5" s="7">
         <v>0.634373374017</v>
       </c>
     </row>
-    <row r="6" spans="1:6">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6" s="2">
         <v>1</v>
       </c>
       <c r="B6" s="2">
         <v>5</v>
       </c>
-      <c r="C6" s="3">
+      <c r="C6" s="7">
         <v>-380.93359042045699</v>
       </c>
-      <c r="D6" s="3">
+      <c r="D6" s="7">
         <v>-92.72</v>
       </c>
-      <c r="E6" s="3">
+      <c r="E6" s="7">
         <v>195.493590420457</v>
       </c>
-      <c r="F6" s="3">
+      <c r="F6" s="7">
         <v>0.99999302979900007</v>
       </c>
     </row>
-    <row r="7" spans="1:6">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7" s="2">
         <v>1</v>
       </c>
       <c r="B7" s="2">
         <v>6</v>
       </c>
-      <c r="C7" s="3">
+      <c r="C7" s="7">
         <v>-970.20359042045698</v>
       </c>
-      <c r="D7" s="3">
+      <c r="D7" s="7">
         <v>-681.99</v>
       </c>
-      <c r="E7" s="3">
+      <c r="E7" s="7">
         <v>-393.77640957954304</v>
       </c>
-      <c r="F7" s="3">
-        <v>1.8645879999999998E-6</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6">
+      <c r="F7" s="7">
+        <v>1.8645879999999998E-6</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A8" s="2">
         <v>1</v>
       </c>
       <c r="B8" s="2">
         <v>7</v>
       </c>
-      <c r="C8" s="3">
+      <c r="C8" s="7">
         <v>-110.65359042045699</v>
       </c>
-      <c r="D8" s="3">
+      <c r="D8" s="7">
         <v>177.56</v>
       </c>
-      <c r="E8" s="3">
+      <c r="E8" s="7">
         <v>465.77359042045703</v>
       </c>
-      <c r="F8" s="3">
+      <c r="F8" s="7">
         <v>0.87224666531700001</v>
       </c>
     </row>
-    <row r="9" spans="1:6">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A9" s="2">
         <v>1</v>
       </c>
       <c r="B9" s="2">
         <v>8</v>
       </c>
-      <c r="C9" s="3">
+      <c r="C9" s="7">
         <v>-508.86359042045706</v>
       </c>
-      <c r="D9" s="3">
+      <c r="D9" s="7">
         <v>-220.65</v>
       </c>
-      <c r="E9" s="3">
+      <c r="E9" s="7">
         <v>67.56359042045699</v>
       </c>
-      <c r="F9" s="3">
+      <c r="F9" s="7">
         <v>0.46915752201499999</v>
       </c>
     </row>
-    <row r="10" spans="1:6">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A10" s="2">
         <v>1</v>
       </c>
       <c r="B10" s="2">
         <v>9</v>
       </c>
-      <c r="C10" s="3">
+      <c r="C10" s="7">
         <v>-1087.9535904204499</v>
       </c>
-      <c r="D10" s="3">
+      <c r="D10" s="7">
         <v>-799.74</v>
       </c>
-      <c r="E10" s="3">
+      <c r="E10" s="7">
         <v>-511.52640957954299</v>
       </c>
-      <c r="F10" s="3">
-        <v>1.8645879999999998E-6</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6">
+      <c r="F10" s="7">
+        <v>1.8645879999999998E-6</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A11" s="2">
         <v>1</v>
       </c>
       <c r="B11" s="2">
         <v>10</v>
       </c>
-      <c r="C11" s="3">
+      <c r="C11" s="7">
         <v>-517.73359042045695</v>
       </c>
-      <c r="D11" s="3">
+      <c r="D11" s="7">
         <v>-229.52</v>
       </c>
-      <c r="E11" s="3">
+      <c r="E11" s="7">
         <v>58.693590420456999</v>
       </c>
-      <c r="F11" s="3">
+      <c r="F11" s="7">
         <v>0.38073412852599997</v>
       </c>
     </row>
-    <row r="12" spans="1:6">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A12" s="2">
         <v>1</v>
       </c>
       <c r="B12" s="2">
         <v>11</v>
       </c>
-      <c r="C12" s="3">
+      <c r="C12" s="7">
         <v>-786.97359042045696</v>
       </c>
-      <c r="D12" s="3">
+      <c r="D12" s="7">
         <v>-498.76</v>
       </c>
-      <c r="E12" s="3">
+      <c r="E12" s="7">
         <v>-210.546409579543</v>
       </c>
-      <c r="F12" s="3">
+      <c r="F12" s="7">
         <v>1.909666E-6</v>
       </c>
     </row>
-    <row r="13" spans="1:6">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A13" s="2">
         <v>1</v>
       </c>
       <c r="B13" s="2">
         <v>12</v>
       </c>
-      <c r="C13" s="3">
+      <c r="C13" s="7">
         <v>-1026.4735904204501</v>
       </c>
-      <c r="D13" s="3">
+      <c r="D13" s="7">
         <v>-738.26</v>
       </c>
-      <c r="E13" s="3">
+      <c r="E13" s="7">
         <v>-450.04640957954302</v>
       </c>
-      <c r="F13" s="3">
-        <v>1.8645879999999998E-6</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6">
+      <c r="F13" s="7">
+        <v>1.8645879999999998E-6</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A14" s="2">
         <v>1</v>
       </c>
       <c r="B14" s="2">
         <v>13</v>
       </c>
-      <c r="C14" s="3">
+      <c r="C14" s="7">
         <v>-156.75359042045699</v>
       </c>
-      <c r="D14" s="3">
+      <c r="D14" s="7">
         <v>131.45999999999998</v>
       </c>
-      <c r="E14" s="3">
+      <c r="E14" s="7">
         <v>419.673590420457</v>
       </c>
-      <c r="F14" s="3">
+      <c r="F14" s="7">
         <v>0.9966205060929999</v>
       </c>
     </row>
-    <row r="15" spans="1:6">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A15" s="2">
         <v>1</v>
       </c>
       <c r="B15" s="2">
         <v>14</v>
       </c>
-      <c r="C15" s="3">
+      <c r="C15" s="7">
         <v>-578.673590420457</v>
       </c>
-      <c r="D15" s="3">
+      <c r="D15" s="7">
         <v>-290.45999999999998</v>
       </c>
-      <c r="E15" s="3">
+      <c r="E15" s="7">
         <v>-2.2464095795430001</v>
       </c>
-      <c r="F15" s="3">
+      <c r="F15" s="7">
         <v>4.5346580150000003E-2</v>
       </c>
     </row>
-    <row r="16" spans="1:6">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A16" s="2">
         <v>1</v>
       </c>
       <c r="B16" s="2">
         <v>15</v>
       </c>
-      <c r="C16" s="3">
+      <c r="C16" s="7">
         <v>-1028.32359042045</v>
       </c>
-      <c r="D16" s="3">
+      <c r="D16" s="7">
         <v>-740.11</v>
       </c>
-      <c r="E16" s="3">
+      <c r="E16" s="7">
         <v>-451.89640957954305</v>
       </c>
-      <c r="F16" s="3">
-        <v>1.8645879999999998E-6</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6">
+      <c r="F16" s="7">
+        <v>1.8645879999999998E-6</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A17" s="2">
         <v>1</v>
       </c>
       <c r="B17" s="2">
         <v>16</v>
       </c>
-      <c r="C17" s="3">
+      <c r="C17" s="7">
         <v>-232.273590420457</v>
       </c>
-      <c r="D17" s="3">
+      <c r="D17" s="7">
         <v>55.94</v>
       </c>
-      <c r="E17" s="3">
+      <c r="E17" s="7">
         <v>344.15359042045702</v>
       </c>
-      <c r="F17" s="3">
+      <c r="F17" s="7">
         <v>0.99999999990200006</v>
       </c>
     </row>
-    <row r="18" spans="1:6">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A18" s="2">
         <v>1</v>
       </c>
       <c r="B18" s="2">
         <v>17</v>
       </c>
-      <c r="C18" s="3">
+      <c r="C18" s="7">
         <v>-633.38359042045704</v>
       </c>
-      <c r="D18" s="3">
+      <c r="D18" s="7">
         <v>-345.16999999999996</v>
       </c>
-      <c r="E18" s="3">
+      <c r="E18" s="7">
         <v>-56.956409579543006</v>
       </c>
-      <c r="F18" s="3">
+      <c r="F18" s="7">
         <v>2.8827094460000002E-3</v>
       </c>
     </row>
-    <row r="19" spans="1:6">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A19" s="2">
         <v>1</v>
       </c>
       <c r="B19" s="2">
         <v>18</v>
       </c>
-      <c r="C19" s="3">
+      <c r="C19" s="7">
         <v>-1157.67359042045</v>
       </c>
-      <c r="D19" s="3">
+      <c r="D19" s="7">
         <v>-869.46</v>
       </c>
-      <c r="E19" s="3">
+      <c r="E19" s="7">
         <v>-581.24640957954296</v>
       </c>
-      <c r="F19" s="3">
-        <v>1.8645879999999998E-6</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6">
+      <c r="F19" s="7">
+        <v>1.8645879999999998E-6</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A20" s="2">
         <v>1</v>
       </c>
       <c r="B20" s="2">
         <v>19</v>
       </c>
-      <c r="C20" s="3">
+      <c r="C20" s="7">
         <v>-656.63359042045704</v>
       </c>
-      <c r="D20" s="3">
+      <c r="D20" s="7">
         <v>-368.42</v>
       </c>
-      <c r="E20" s="3">
+      <c r="E20" s="7">
         <v>-80.206409579543006</v>
       </c>
-      <c r="F20" s="3">
+      <c r="F20" s="7">
         <v>7.3417912599999999E-4</v>
       </c>
     </row>
-    <row r="21" spans="1:6">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A21" s="2">
         <v>1</v>
       </c>
       <c r="B21" s="2">
         <v>20</v>
       </c>
-      <c r="C21" s="3">
+      <c r="C21" s="7">
         <v>-976.96359042045697</v>
       </c>
-      <c r="D21" s="3">
+      <c r="D21" s="7">
         <v>-688.75</v>
       </c>
-      <c r="E21" s="3">
+      <c r="E21" s="7">
         <v>-400.53640957954303</v>
       </c>
-      <c r="F21" s="3">
-        <v>1.8645879999999998E-6</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6">
+      <c r="F21" s="7">
+        <v>1.8645879999999998E-6</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A22" s="2">
         <v>1</v>
       </c>
       <c r="B22" s="2">
         <v>21</v>
       </c>
-      <c r="C22" s="3">
+      <c r="C22" s="7">
         <v>-1172.4935904204501</v>
       </c>
-      <c r="D22" s="3">
+      <c r="D22" s="7">
         <v>-884.28</v>
       </c>
-      <c r="E22" s="3">
+      <c r="E22" s="7">
         <v>-596.06640957954301</v>
       </c>
-      <c r="F22" s="3">
-        <v>1.8645879999999998E-6</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6">
+      <c r="F22" s="7">
+        <v>1.8645879999999998E-6</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A23" s="2">
         <v>1</v>
       </c>
       <c r="B23" s="2">
         <v>22</v>
       </c>
-      <c r="C23" s="3">
+      <c r="C23" s="7">
         <v>-284.37359042045699</v>
       </c>
-      <c r="D23" s="3">
+      <c r="D23" s="7">
         <v>3.8400000000000003</v>
       </c>
-      <c r="E23" s="3">
+      <c r="E23" s="7">
         <v>292.053590420457</v>
       </c>
-      <c r="F23" s="3">
+      <c r="F23" s="7">
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="1:6">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A24" s="2">
         <v>1</v>
       </c>
       <c r="B24" s="2">
         <v>23</v>
       </c>
-      <c r="C24" s="3">
+      <c r="C24" s="7">
         <v>-670.46359042045697</v>
       </c>
-      <c r="D24" s="3">
+      <c r="D24" s="7">
         <v>-382.25</v>
       </c>
-      <c r="E24" s="3">
+      <c r="E24" s="7">
         <v>-94.036409579543005</v>
       </c>
-      <c r="F24" s="3">
+      <c r="F24" s="7">
         <v>3.0971472900000001E-4</v>
       </c>
     </row>
-    <row r="25" spans="1:6">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A25" s="2">
         <v>1</v>
       </c>
       <c r="B25" s="2">
         <v>24</v>
       </c>
-      <c r="C25" s="3">
+      <c r="C25" s="7">
         <v>-1133.57359042045</v>
       </c>
-      <c r="D25" s="3">
+      <c r="D25" s="7">
         <v>-845.36</v>
       </c>
-      <c r="E25" s="3">
+      <c r="E25" s="7">
         <v>-557.14640957954293</v>
       </c>
-      <c r="F25" s="3">
-        <v>1.8645879999999998E-6</v>
-      </c>
-    </row>
-    <row r="26" spans="1:6">
+      <c r="F25" s="7">
+        <v>1.8645879999999998E-6</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A26" s="2">
         <v>1</v>
       </c>
       <c r="B26" s="2">
         <v>25</v>
       </c>
-      <c r="C26" s="3">
+      <c r="C26" s="7">
         <v>-336.47359042045701</v>
       </c>
-      <c r="D26" s="3">
+      <c r="D26" s="7">
         <v>-48.26</v>
       </c>
-      <c r="E26" s="3">
+      <c r="E26" s="7">
         <v>239.953590420457</v>
       </c>
-      <c r="F26" s="3">
+      <c r="F26" s="7">
         <v>0.99999999999700007</v>
       </c>
     </row>
-    <row r="27" spans="1:6">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A27" s="2">
         <v>1</v>
       </c>
       <c r="B27" s="2">
         <v>26</v>
       </c>
-      <c r="C27" s="3">
+      <c r="C27" s="7">
         <v>-737.73359042045706</v>
       </c>
-      <c r="D27" s="3">
+      <c r="D27" s="7">
         <v>-449.52</v>
       </c>
-      <c r="E27" s="3">
+      <c r="E27" s="7">
         <v>-161.30640957954301</v>
       </c>
-      <c r="F27" s="3">
+      <c r="F27" s="7">
         <v>4.5055360000000005E-6</v>
       </c>
     </row>
-    <row r="28" spans="1:6">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A28" s="2">
         <v>1</v>
       </c>
       <c r="B28" s="2">
         <v>27</v>
       </c>
-      <c r="C28" s="3">
+      <c r="C28" s="7">
         <v>-1181.85359042045</v>
       </c>
-      <c r="D28" s="3">
+      <c r="D28" s="7">
         <v>-893.64</v>
       </c>
-      <c r="E28" s="3">
+      <c r="E28" s="7">
         <v>-605.42640957954302</v>
       </c>
-      <c r="F28" s="3">
-        <v>1.8645879999999998E-6</v>
-      </c>
-    </row>
-    <row r="29" spans="1:6">
+      <c r="F28" s="7">
+        <v>1.8645879999999998E-6</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A29" s="2">
         <v>2</v>
       </c>
       <c r="B29" s="2">
         <v>3</v>
       </c>
-      <c r="C29" s="3">
+      <c r="C29" s="7">
         <v>-578.13359042045693</v>
       </c>
-      <c r="D29" s="3">
+      <c r="D29" s="7">
         <v>-289.92</v>
       </c>
-      <c r="E29" s="3">
+      <c r="E29" s="7">
         <v>-1.7064095795430001</v>
       </c>
-      <c r="F29" s="3">
+      <c r="F29" s="7">
         <v>4.6429656776E-2</v>
       </c>
     </row>
-    <row r="30" spans="1:6">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A30" s="2">
         <v>2</v>
       </c>
       <c r="B30" s="2">
         <v>4</v>
       </c>
-      <c r="C30" s="3">
+      <c r="C30" s="7">
         <v>138.14640957954299</v>
       </c>
-      <c r="D30" s="3">
+      <c r="D30" s="7">
         <v>426.36</v>
       </c>
-      <c r="E30" s="3">
+      <c r="E30" s="7">
         <v>714.57359042045698</v>
       </c>
-      <c r="F30" s="3">
+      <c r="F30" s="7">
         <v>1.6914429000000001E-5</v>
       </c>
     </row>
-    <row r="31" spans="1:6">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A31" s="2">
         <v>2</v>
       </c>
       <c r="B31" s="2">
         <v>5</v>
       </c>
-      <c r="C31" s="3">
+      <c r="C31" s="7">
         <v>-159.453590420457</v>
       </c>
-      <c r="D31" s="3">
+      <c r="D31" s="7">
         <v>128.76000000000002</v>
       </c>
-      <c r="E31" s="3">
+      <c r="E31" s="7">
         <v>416.97359042045701</v>
       </c>
-      <c r="F31" s="3">
+      <c r="F31" s="7">
         <v>0.99753517531800007</v>
       </c>
     </row>
-    <row r="32" spans="1:6">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A32" s="2">
         <v>2</v>
       </c>
       <c r="B32" s="2">
         <v>6</v>
       </c>
-      <c r="C32" s="3">
+      <c r="C32" s="7">
         <v>-748.72359042045696</v>
       </c>
-      <c r="D32" s="3">
+      <c r="D32" s="7">
         <v>-460.51</v>
       </c>
-      <c r="E32" s="3">
+      <c r="E32" s="7">
         <v>-172.296409579543</v>
       </c>
-      <c r="F32" s="3">
+      <c r="F32" s="7">
         <v>2.977729E-6</v>
       </c>
     </row>
-    <row r="33" spans="1:6">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A33" s="2">
         <v>2</v>
       </c>
       <c r="B33" s="2">
         <v>7</v>
       </c>
-      <c r="C33" s="3">
+      <c r="C33" s="7">
         <v>110.826409579543</v>
       </c>
-      <c r="D33" s="3">
+      <c r="D33" s="7">
         <v>399.04</v>
       </c>
-      <c r="E33" s="3">
+      <c r="E33" s="7">
         <v>687.25359042045693</v>
       </c>
-      <c r="F33" s="3">
+      <c r="F33" s="7">
         <v>1.04002159E-4</v>
       </c>
     </row>
-    <row r="34" spans="1:6">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A34" s="2">
         <v>2</v>
       </c>
       <c r="B34" s="2">
         <v>8</v>
       </c>
-      <c r="C34" s="3">
+      <c r="C34" s="7">
         <v>-287.38359042045704</v>
       </c>
-      <c r="D34" s="3">
+      <c r="D34" s="7">
         <v>0.83</v>
       </c>
-      <c r="E34" s="3">
+      <c r="E34" s="7">
         <v>289.04359042045701</v>
       </c>
-      <c r="F34" s="3">
+      <c r="F34" s="7">
         <v>1</v>
       </c>
     </row>
-    <row r="35" spans="1:6">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A35" s="2">
         <v>2</v>
       </c>
       <c r="B35" s="2">
         <v>9</v>
       </c>
-      <c r="C35" s="3">
+      <c r="C35" s="7">
         <v>-866.47359042045707</v>
       </c>
-      <c r="D35" s="3">
+      <c r="D35" s="7">
         <v>-578.26</v>
       </c>
-      <c r="E35" s="3">
+      <c r="E35" s="7">
         <v>-290.04640957954297</v>
       </c>
-      <c r="F35" s="3">
+      <c r="F35" s="7">
         <v>1.8646070000000001E-6</v>
       </c>
     </row>
-    <row r="36" spans="1:6">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A36" s="2">
         <v>2</v>
       </c>
       <c r="B36" s="2">
         <v>10</v>
       </c>
-      <c r="C36" s="3">
+      <c r="C36" s="7">
         <v>-296.25359042045699</v>
       </c>
-      <c r="D36" s="3">
+      <c r="D36" s="7">
         <v>-8.0400000000000009</v>
       </c>
-      <c r="E36" s="3">
+      <c r="E36" s="7">
         <v>280.173590420457</v>
       </c>
-      <c r="F36" s="3">
+      <c r="F36" s="7">
         <v>1</v>
       </c>
     </row>
-    <row r="37" spans="1:6">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A37" s="2">
         <v>2</v>
       </c>
       <c r="B37" s="2">
         <v>11</v>
       </c>
-      <c r="C37" s="3">
+      <c r="C37" s="7">
         <v>-565.49359042045694</v>
       </c>
-      <c r="D37" s="3">
+      <c r="D37" s="7">
         <v>-277.28000000000003</v>
       </c>
-      <c r="E37" s="3">
+      <c r="E37" s="7">
         <v>10.933590420457001</v>
       </c>
-      <c r="F37" s="3">
+      <c r="F37" s="7">
         <v>7.8897865609000001E-2</v>
       </c>
     </row>
-    <row r="38" spans="1:6">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A38" s="2">
         <v>2</v>
       </c>
       <c r="B38" s="2">
         <v>12</v>
       </c>
-      <c r="C38" s="3">
+      <c r="C38" s="7">
         <v>-804.99359042045705</v>
       </c>
-      <c r="D38" s="3">
+      <c r="D38" s="7">
         <v>-516.78</v>
       </c>
-      <c r="E38" s="3">
+      <c r="E38" s="7">
         <v>-228.56640957954301</v>
       </c>
-      <c r="F38" s="3">
+      <c r="F38" s="7">
         <v>1.8734769999999999E-6</v>
       </c>
     </row>
-    <row r="39" spans="1:6">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A39" s="2">
         <v>2</v>
       </c>
       <c r="B39" s="2">
         <v>13</v>
       </c>
-      <c r="C39" s="3">
+      <c r="C39" s="7">
         <v>64.726409579543002</v>
       </c>
-      <c r="D39" s="3">
+      <c r="D39" s="7">
         <v>352.94</v>
       </c>
-      <c r="E39" s="3">
+      <c r="E39" s="7">
         <v>641.15359042045702</v>
       </c>
-      <c r="F39" s="3">
+      <c r="F39" s="7">
         <v>1.8473016740000001E-3</v>
       </c>
     </row>
-    <row r="40" spans="1:6">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A40" s="2">
         <v>2</v>
       </c>
       <c r="B40" s="2">
         <v>14</v>
       </c>
-      <c r="C40" s="3">
+      <c r="C40" s="7">
         <v>-357.19359042045699</v>
       </c>
-      <c r="D40" s="3">
+      <c r="D40" s="7">
         <v>-68.98</v>
       </c>
-      <c r="E40" s="3">
+      <c r="E40" s="7">
         <v>219.23359042045701</v>
       </c>
-      <c r="F40" s="3">
+      <c r="F40" s="7">
         <v>0.99999998747300001</v>
       </c>
     </row>
-    <row r="41" spans="1:6">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A41" s="2">
         <v>2</v>
       </c>
       <c r="B41" s="2">
         <v>15</v>
       </c>
-      <c r="C41" s="3">
+      <c r="C41" s="7">
         <v>-806.84359042045696</v>
       </c>
-      <c r="D41" s="3">
+      <c r="D41" s="7">
         <v>-518.63</v>
       </c>
-      <c r="E41" s="3">
+      <c r="E41" s="7">
         <v>-230.416409579543</v>
       </c>
-      <c r="F41" s="3">
+      <c r="F41" s="7">
         <v>1.8720799999999999E-6</v>
       </c>
     </row>
-    <row r="42" spans="1:6">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A42" s="2">
         <v>2</v>
       </c>
       <c r="B42" s="2">
         <v>16</v>
       </c>
-      <c r="C42" s="3">
+      <c r="C42" s="7">
         <v>-10.793590420456999</v>
       </c>
-      <c r="D42" s="3">
+      <c r="D42" s="7">
         <v>277.42</v>
       </c>
-      <c r="E42" s="3">
+      <c r="E42" s="7">
         <v>565.63359042045704</v>
       </c>
-      <c r="F42" s="3">
+      <c r="F42" s="7">
         <v>7.8454661157999997E-2</v>
       </c>
     </row>
-    <row r="43" spans="1:6">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A43" s="2">
         <v>2</v>
       </c>
       <c r="B43" s="2">
         <v>17</v>
       </c>
-      <c r="C43" s="3">
+      <c r="C43" s="7">
         <v>-411.90359042045696</v>
       </c>
-      <c r="D43" s="3">
+      <c r="D43" s="7">
         <v>-123.69</v>
       </c>
-      <c r="E43" s="3">
+      <c r="E43" s="7">
         <v>164.523590420457</v>
       </c>
-      <c r="F43" s="3">
+      <c r="F43" s="7">
         <v>0.99868987650899999</v>
       </c>
     </row>
-    <row r="44" spans="1:6">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A44" s="2">
         <v>2</v>
       </c>
       <c r="B44" s="2">
         <v>18</v>
       </c>
-      <c r="C44" s="3">
+      <c r="C44" s="7">
         <v>-936.19359042045699</v>
       </c>
-      <c r="D44" s="3">
+      <c r="D44" s="7">
         <v>-647.98</v>
       </c>
-      <c r="E44" s="3">
+      <c r="E44" s="7">
         <v>-359.76640957954299</v>
       </c>
-      <c r="F44" s="3">
-        <v>1.8645879999999998E-6</v>
-      </c>
-    </row>
-    <row r="45" spans="1:6">
+      <c r="F44" s="7">
+        <v>1.8645879999999998E-6</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A45" s="2">
         <v>2</v>
       </c>
       <c r="B45" s="2">
         <v>19</v>
       </c>
-      <c r="C45" s="3">
+      <c r="C45" s="7">
         <v>-435.15359042045696</v>
       </c>
-      <c r="D45" s="3">
+      <c r="D45" s="7">
         <v>-146.94</v>
       </c>
-      <c r="E45" s="3">
+      <c r="E45" s="7">
         <v>141.273590420457</v>
       </c>
-      <c r="F45" s="3">
+      <c r="F45" s="7">
         <v>0.98394885525199993</v>
       </c>
     </row>
-    <row r="46" spans="1:6">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A46" s="2">
         <v>2</v>
       </c>
       <c r="B46" s="2">
         <v>20</v>
       </c>
-      <c r="C46" s="3">
+      <c r="C46" s="7">
         <v>-755.48359042045695</v>
       </c>
-      <c r="D46" s="3">
+      <c r="D46" s="7">
         <v>-467.27000000000004</v>
       </c>
-      <c r="E46" s="3">
+      <c r="E46" s="7">
         <v>-179.05640957954299</v>
       </c>
-      <c r="F46" s="3">
+      <c r="F46" s="7">
         <v>2.5107629999999998E-6</v>
       </c>
     </row>
-    <row r="47" spans="1:6">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A47" s="2">
         <v>2</v>
       </c>
       <c r="B47" s="2">
         <v>21</v>
       </c>
-      <c r="C47" s="3">
+      <c r="C47" s="7">
         <v>-951.01359042045692</v>
       </c>
-      <c r="D47" s="3">
+      <c r="D47" s="7">
         <v>-662.8</v>
       </c>
-      <c r="E47" s="3">
+      <c r="E47" s="7">
         <v>-374.58640957954299</v>
       </c>
-      <c r="F47" s="3">
-        <v>1.8645879999999998E-6</v>
-      </c>
-    </row>
-    <row r="48" spans="1:6">
+      <c r="F47" s="7">
+        <v>1.8645879999999998E-6</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A48" s="2">
         <v>2</v>
       </c>
       <c r="B48" s="2">
         <v>22</v>
       </c>
-      <c r="C48" s="3">
+      <c r="C48" s="7">
         <v>-62.893590420457002</v>
       </c>
-      <c r="D48" s="3">
+      <c r="D48" s="7">
         <v>225.32</v>
       </c>
-      <c r="E48" s="3">
+      <c r="E48" s="7">
         <v>513.53359042045702</v>
       </c>
-      <c r="F48" s="3">
+      <c r="F48" s="7">
         <v>0.42177238508299997</v>
       </c>
     </row>
-    <row r="49" spans="1:6">
+    <row r="49" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A49" s="2">
         <v>2</v>
       </c>
       <c r="B49" s="2">
         <v>23</v>
       </c>
-      <c r="C49" s="3">
+      <c r="C49" s="7">
         <v>-448.98359042045701</v>
       </c>
-      <c r="D49" s="3">
+      <c r="D49" s="7">
         <v>-160.77000000000001</v>
       </c>
-      <c r="E49" s="3">
+      <c r="E49" s="7">
         <v>127.443590420457</v>
       </c>
-      <c r="F49" s="3">
+      <c r="F49" s="7">
         <v>0.95271185475300002</v>
       </c>
     </row>
-    <row r="50" spans="1:6">
+    <row r="50" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A50" s="2">
         <v>2</v>
       </c>
       <c r="B50" s="2">
         <v>24</v>
       </c>
-      <c r="C50" s="3">
+      <c r="C50" s="7">
         <v>-912.09359042045696</v>
       </c>
-      <c r="D50" s="3">
+      <c r="D50" s="7">
         <v>-623.88</v>
       </c>
-      <c r="E50" s="3">
+      <c r="E50" s="7">
         <v>-335.66640957954303</v>
       </c>
-      <c r="F50" s="3">
-        <v>1.8645879999999998E-6</v>
-      </c>
-    </row>
-    <row r="51" spans="1:6">
+      <c r="F50" s="7">
+        <v>1.8645879999999998E-6</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A51" s="2">
         <v>2</v>
       </c>
       <c r="B51" s="2">
         <v>25</v>
       </c>
-      <c r="C51" s="3">
+      <c r="C51" s="7">
         <v>-114.993590420457</v>
       </c>
-      <c r="D51" s="3">
+      <c r="D51" s="7">
         <v>173.22</v>
       </c>
-      <c r="E51" s="3">
+      <c r="E51" s="7">
         <v>461.43359042045699</v>
       </c>
-      <c r="F51" s="3">
+      <c r="F51" s="7">
         <v>0.898239840904</v>
       </c>
     </row>
-    <row r="52" spans="1:6">
+    <row r="52" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A52" s="2">
         <v>2</v>
       </c>
       <c r="B52" s="2">
         <v>26</v>
       </c>
-      <c r="C52" s="3">
+      <c r="C52" s="7">
         <v>-516.25359042045704</v>
       </c>
-      <c r="D52" s="3">
+      <c r="D52" s="7">
         <v>-228.04</v>
       </c>
-      <c r="E52" s="3">
+      <c r="E52" s="7">
         <v>60.173590420457003</v>
       </c>
-      <c r="F52" s="3">
+      <c r="F52" s="7">
         <v>0.39499857112600001</v>
       </c>
     </row>
-    <row r="53" spans="1:6">
+    <row r="53" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A53" s="2">
         <v>2</v>
       </c>
       <c r="B53" s="2">
         <v>27</v>
       </c>
-      <c r="C53" s="3">
+      <c r="C53" s="7">
         <v>-960.37359042045705</v>
       </c>
-      <c r="D53" s="3">
+      <c r="D53" s="7">
         <v>-672.16</v>
       </c>
-      <c r="E53" s="3">
+      <c r="E53" s="7">
         <v>-383.946409579543</v>
       </c>
-      <c r="F53" s="3">
-        <v>1.8645879999999998E-6</v>
-      </c>
-    </row>
-    <row r="54" spans="1:6">
+      <c r="F53" s="7">
+        <v>1.8645879999999998E-6</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A54" s="2">
         <v>3</v>
       </c>
       <c r="B54" s="2">
         <v>4</v>
       </c>
-      <c r="C54" s="3">
+      <c r="C54" s="7">
         <v>428.06640957954301</v>
       </c>
-      <c r="D54" s="3">
+      <c r="D54" s="7">
         <v>716.28</v>
       </c>
-      <c r="E54" s="3">
+      <c r="E54" s="7">
         <v>1004.4935904204499</v>
       </c>
-      <c r="F54" s="3">
-        <v>1.8645879999999998E-6</v>
-      </c>
-    </row>
-    <row r="55" spans="1:6">
+      <c r="F54" s="7">
+        <v>1.8645879999999998E-6</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A55" s="2">
         <v>3</v>
       </c>
       <c r="B55" s="2">
         <v>5</v>
       </c>
-      <c r="C55" s="3">
+      <c r="C55" s="7">
         <v>130.46640957954301</v>
       </c>
-      <c r="D55" s="3">
+      <c r="D55" s="7">
         <v>418.68</v>
       </c>
-      <c r="E55" s="3">
+      <c r="E55" s="7">
         <v>706.89359042045692</v>
       </c>
-      <c r="F55" s="3">
+      <c r="F55" s="7">
         <v>2.8036505999999998E-5</v>
       </c>
     </row>
-    <row r="56" spans="1:6">
+    <row r="56" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A56" s="2">
         <v>3</v>
       </c>
       <c r="B56" s="2">
         <v>6</v>
       </c>
-      <c r="C56" s="3">
+      <c r="C56" s="7">
         <v>-458.803590420457</v>
       </c>
-      <c r="D56" s="3">
+      <c r="D56" s="7">
         <v>-170.59</v>
       </c>
-      <c r="E56" s="3">
+      <c r="E56" s="7">
         <v>117.62359042045701</v>
       </c>
-      <c r="F56" s="3">
+      <c r="F56" s="7">
         <v>0.912182810372</v>
       </c>
     </row>
-    <row r="57" spans="1:6">
+    <row r="57" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A57" s="2">
         <v>3</v>
       </c>
       <c r="B57" s="2">
         <v>7</v>
       </c>
-      <c r="C57" s="3">
+      <c r="C57" s="7">
         <v>400.74640957954301</v>
       </c>
-      <c r="D57" s="3">
+      <c r="D57" s="7">
         <v>688.96</v>
       </c>
-      <c r="E57" s="3">
+      <c r="E57" s="7">
         <v>977.173590420457</v>
       </c>
-      <c r="F57" s="3">
-        <v>1.8645879999999998E-6</v>
-      </c>
-    </row>
-    <row r="58" spans="1:6">
+      <c r="F57" s="7">
+        <v>1.8645879999999998E-6</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A58" s="2">
         <v>3</v>
       </c>
       <c r="B58" s="2">
         <v>8</v>
       </c>
-      <c r="C58" s="3">
+      <c r="C58" s="7">
         <v>2.5364095795429997</v>
       </c>
-      <c r="D58" s="3">
+      <c r="D58" s="7">
         <v>290.75</v>
       </c>
-      <c r="E58" s="3">
+      <c r="E58" s="7">
         <v>578.96359042045697</v>
       </c>
-      <c r="F58" s="3">
+      <c r="F58" s="7">
         <v>4.477398422E-2</v>
       </c>
     </row>
-    <row r="59" spans="1:6">
+    <row r="59" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A59" s="2">
         <v>3</v>
       </c>
       <c r="B59" s="2">
         <v>9</v>
       </c>
-      <c r="C59" s="3">
+      <c r="C59" s="7">
         <v>-576.553590420457</v>
       </c>
-      <c r="D59" s="3">
+      <c r="D59" s="7">
         <v>-288.33999999999997</v>
       </c>
-      <c r="E59" s="3">
+      <c r="E59" s="7">
         <v>-0.126409579543</v>
       </c>
-      <c r="F59" s="3">
+      <c r="F59" s="7">
         <v>4.9727655555999999E-2</v>
       </c>
     </row>
-    <row r="60" spans="1:6">
+    <row r="60" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A60" s="2">
         <v>3</v>
       </c>
       <c r="B60" s="2">
         <v>10</v>
       </c>
-      <c r="C60" s="3">
+      <c r="C60" s="7">
         <v>-6.3335904204569999</v>
       </c>
-      <c r="D60" s="3">
+      <c r="D60" s="7">
         <v>281.88</v>
       </c>
-      <c r="E60" s="3">
+      <c r="E60" s="7">
         <v>570.09359042045708</v>
       </c>
-      <c r="F60" s="3">
+      <c r="F60" s="7">
         <v>6.5379950271999998E-2</v>
       </c>
     </row>
-    <row r="61" spans="1:6">
+    <row r="61" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A61" s="2">
         <v>3</v>
       </c>
       <c r="B61" s="2">
         <v>11</v>
       </c>
-      <c r="C61" s="3">
+      <c r="C61" s="7">
         <v>-275.57359042045698</v>
       </c>
-      <c r="D61" s="3">
+      <c r="D61" s="7">
         <v>12.64</v>
       </c>
-      <c r="E61" s="3">
+      <c r="E61" s="7">
         <v>300.85359042045701</v>
       </c>
-      <c r="F61" s="3">
+      <c r="F61" s="7">
         <v>1</v>
       </c>
     </row>
-    <row r="62" spans="1:6">
+    <row r="62" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A62" s="2">
         <v>3</v>
       </c>
       <c r="B62" s="2">
         <v>12</v>
       </c>
-      <c r="C62" s="3">
+      <c r="C62" s="7">
         <v>-515.07359042045698</v>
       </c>
-      <c r="D62" s="3">
+      <c r="D62" s="7">
         <v>-226.86</v>
       </c>
-      <c r="E62" s="3">
+      <c r="E62" s="7">
         <v>61.353590420457003</v>
       </c>
-      <c r="F62" s="3">
+      <c r="F62" s="7">
         <v>0.40652887601400001</v>
       </c>
     </row>
-    <row r="63" spans="1:6">
+    <row r="63" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A63" s="2">
         <v>3</v>
       </c>
       <c r="B63" s="2">
         <v>13</v>
       </c>
-      <c r="C63" s="3">
+      <c r="C63" s="7">
         <v>354.64640957954305</v>
       </c>
-      <c r="D63" s="3">
+      <c r="D63" s="7">
         <v>642.86</v>
       </c>
-      <c r="E63" s="3">
+      <c r="E63" s="7">
         <v>931.07359042045698</v>
       </c>
-      <c r="F63" s="3">
-        <v>1.8645879999999998E-6</v>
-      </c>
-    </row>
-    <row r="64" spans="1:6">
+      <c r="F63" s="7">
+        <v>1.8645879999999998E-6</v>
+      </c>
+    </row>
+    <row r="64" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A64" s="2">
         <v>3</v>
       </c>
       <c r="B64" s="2">
         <v>14</v>
       </c>
-      <c r="C64" s="3">
+      <c r="C64" s="7">
         <v>-67.273590420456998</v>
       </c>
-      <c r="D64" s="3">
+      <c r="D64" s="7">
         <v>220.94</v>
       </c>
-      <c r="E64" s="3">
+      <c r="E64" s="7">
         <v>509.15359042045702</v>
       </c>
-      <c r="F64" s="3">
+      <c r="F64" s="7">
         <v>0.466171459136</v>
       </c>
     </row>
-    <row r="65" spans="1:6">
+    <row r="65" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A65" s="2">
         <v>3</v>
       </c>
       <c r="B65" s="2">
         <v>15</v>
       </c>
-      <c r="C65" s="3">
+      <c r="C65" s="7">
         <v>-516.923590420457</v>
       </c>
-      <c r="D65" s="3">
+      <c r="D65" s="7">
         <v>-228.71</v>
       </c>
-      <c r="E65" s="3">
+      <c r="E65" s="7">
         <v>59.503590420456995</v>
       </c>
-      <c r="F65" s="3">
+      <c r="F65" s="7">
         <v>0.38851303036900003</v>
       </c>
     </row>
-    <row r="66" spans="1:6">
+    <row r="66" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A66" s="2">
         <v>3</v>
       </c>
       <c r="B66" s="2">
         <v>16</v>
       </c>
-      <c r="C66" s="3">
+      <c r="C66" s="7">
         <v>279.12640957954301</v>
       </c>
-      <c r="D66" s="3">
+      <c r="D66" s="7">
         <v>567.33999999999992</v>
       </c>
-      <c r="E66" s="3">
+      <c r="E66" s="7">
         <v>855.553590420457</v>
       </c>
-      <c r="F66" s="3">
+      <c r="F66" s="7">
         <v>1.8646489999999998E-6</v>
       </c>
     </row>
-    <row r="67" spans="1:6">
+    <row r="67" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A67" s="2">
         <v>3</v>
       </c>
       <c r="B67" s="2">
         <v>17</v>
       </c>
-      <c r="C67" s="3">
+      <c r="C67" s="7">
         <v>-121.98359042045701</v>
       </c>
-      <c r="D67" s="3">
+      <c r="D67" s="7">
         <v>166.23</v>
       </c>
-      <c r="E67" s="3">
+      <c r="E67" s="7">
         <v>454.44359042045699</v>
       </c>
-      <c r="F67" s="3">
+      <c r="F67" s="7">
         <v>0.93235538621399994</v>
       </c>
     </row>
-    <row r="68" spans="1:6">
+    <row r="68" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A68" s="2">
         <v>3</v>
       </c>
       <c r="B68" s="2">
         <v>18</v>
       </c>
-      <c r="C68" s="3">
+      <c r="C68" s="7">
         <v>-646.27359042045691</v>
       </c>
-      <c r="D68" s="3">
+      <c r="D68" s="7">
         <v>-358.06</v>
       </c>
-      <c r="E68" s="3">
+      <c r="E68" s="7">
         <v>-69.846409579542993</v>
       </c>
-      <c r="F68" s="3">
+      <c r="F68" s="7">
         <v>1.3685928540000001E-3</v>
       </c>
     </row>
-    <row r="69" spans="1:6">
+    <row r="69" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A69" s="2">
         <v>3</v>
       </c>
       <c r="B69" s="2">
         <v>19</v>
       </c>
-      <c r="C69" s="3">
+      <c r="C69" s="7">
         <v>-145.23359042045701</v>
       </c>
-      <c r="D69" s="3">
+      <c r="D69" s="7">
         <v>142.97999999999999</v>
       </c>
-      <c r="E69" s="3">
+      <c r="E69" s="7">
         <v>431.19359042045704</v>
       </c>
-      <c r="F69" s="3">
+      <c r="F69" s="7">
         <v>0.98880742352499995</v>
       </c>
     </row>
-    <row r="70" spans="1:6">
+    <row r="70" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A70" s="2">
         <v>3</v>
       </c>
       <c r="B70" s="2">
         <v>20</v>
       </c>
-      <c r="C70" s="3">
+      <c r="C70" s="7">
         <v>-465.56359042045699</v>
       </c>
-      <c r="D70" s="3">
+      <c r="D70" s="7">
         <v>-177.35</v>
       </c>
-      <c r="E70" s="3">
+      <c r="E70" s="7">
         <v>110.863590420457</v>
       </c>
-      <c r="F70" s="3">
+      <c r="F70" s="7">
         <v>0.873590142811</v>
       </c>
     </row>
-    <row r="71" spans="1:6">
+    <row r="71" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A71" s="2">
         <v>3</v>
       </c>
       <c r="B71" s="2">
         <v>21</v>
       </c>
-      <c r="C71" s="3">
+      <c r="C71" s="7">
         <v>-661.09359042045696</v>
       </c>
-      <c r="D71" s="3">
+      <c r="D71" s="7">
         <v>-372.88</v>
       </c>
-      <c r="E71" s="3">
+      <c r="E71" s="7">
         <v>-84.666409579543</v>
       </c>
-      <c r="F71" s="3">
+      <c r="F71" s="7">
         <v>5.5795179300000008E-4</v>
       </c>
     </row>
-    <row r="72" spans="1:6">
+    <row r="72" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A72" s="2">
         <v>3</v>
       </c>
       <c r="B72" s="2">
         <v>22</v>
       </c>
-      <c r="C72" s="3">
+      <c r="C72" s="7">
         <v>227.02640957954301</v>
       </c>
-      <c r="D72" s="3">
+      <c r="D72" s="7">
         <v>515.24</v>
       </c>
-      <c r="E72" s="3">
+      <c r="E72" s="7">
         <v>803.45359042045709</v>
       </c>
-      <c r="F72" s="3">
+      <c r="F72" s="7">
         <v>1.8748299999999998E-6</v>
       </c>
     </row>
-    <row r="73" spans="1:6">
+    <row r="73" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A73" s="2">
         <v>3</v>
       </c>
       <c r="B73" s="2">
         <v>23</v>
       </c>
-      <c r="C73" s="3">
+      <c r="C73" s="7">
         <v>-159.06359042045702</v>
       </c>
-      <c r="D73" s="3">
+      <c r="D73" s="7">
         <v>129.14999999999998</v>
       </c>
-      <c r="E73" s="3">
+      <c r="E73" s="7">
         <v>417.363590420457</v>
       </c>
-      <c r="F73" s="3">
+      <c r="F73" s="7">
         <v>0.99741794892000013</v>
       </c>
     </row>
-    <row r="74" spans="1:6">
+    <row r="74" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A74" s="2">
         <v>3</v>
       </c>
       <c r="B74" s="2">
         <v>24</v>
       </c>
-      <c r="C74" s="3">
+      <c r="C74" s="7">
         <v>-622.17359042045689</v>
       </c>
-      <c r="D74" s="3">
+      <c r="D74" s="7">
         <v>-333.96</v>
       </c>
-      <c r="E74" s="3">
+      <c r="E74" s="7">
         <v>-45.746409579542998</v>
       </c>
-      <c r="F74" s="3">
+      <c r="F74" s="7">
         <v>5.3576394960000006E-3</v>
       </c>
     </row>
-    <row r="75" spans="1:6">
+    <row r="75" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A75" s="2">
         <v>3</v>
       </c>
       <c r="B75" s="2">
         <v>25</v>
       </c>
-      <c r="C75" s="3">
+      <c r="C75" s="7">
         <v>174.92640957954299</v>
       </c>
-      <c r="D75" s="3">
+      <c r="D75" s="7">
         <v>463.14</v>
       </c>
-      <c r="E75" s="3">
+      <c r="E75" s="7">
         <v>751.35359042045707</v>
       </c>
-      <c r="F75" s="3">
+      <c r="F75" s="7">
         <v>2.7664689999999999E-6</v>
       </c>
     </row>
-    <row r="76" spans="1:6">
+    <row r="76" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A76" s="2">
         <v>3</v>
       </c>
       <c r="B76" s="2">
         <v>26</v>
       </c>
-      <c r="C76" s="3">
+      <c r="C76" s="7">
         <v>-226.333590420457</v>
       </c>
-      <c r="D76" s="3">
+      <c r="D76" s="7">
         <v>61.879999999999995</v>
       </c>
-      <c r="E76" s="3">
+      <c r="E76" s="7">
         <v>350.09359042045702</v>
       </c>
-      <c r="F76" s="3">
+      <c r="F76" s="7">
         <v>0.99999999895500002</v>
       </c>
     </row>
-    <row r="77" spans="1:6">
+    <row r="77" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A77" s="2">
         <v>3</v>
       </c>
       <c r="B77" s="2">
         <v>27</v>
       </c>
-      <c r="C77" s="3">
+      <c r="C77" s="7">
         <v>-670.45359042045709</v>
       </c>
-      <c r="D77" s="3">
+      <c r="D77" s="7">
         <v>-382.24</v>
       </c>
-      <c r="E77" s="3">
+      <c r="E77" s="7">
         <v>-94.026409579542999</v>
       </c>
-      <c r="F77" s="3">
+      <c r="F77" s="7">
         <v>3.0991194099999999E-4</v>
       </c>
     </row>
-    <row r="78" spans="1:6">
+    <row r="78" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A78" s="2">
         <v>4</v>
       </c>
       <c r="B78" s="2">
         <v>5</v>
       </c>
-      <c r="C78" s="3">
+      <c r="C78" s="7">
         <v>-585.81359042045699</v>
       </c>
-      <c r="D78" s="3">
+      <c r="D78" s="7">
         <v>-297.59999999999997</v>
       </c>
-      <c r="E78" s="3">
+      <c r="E78" s="7">
         <v>-9.3864095795430007</v>
       </c>
-      <c r="F78" s="3">
+      <c r="F78" s="7">
         <v>3.2955326465999996E-2</v>
       </c>
     </row>
-    <row r="79" spans="1:6">
+    <row r="79" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A79" s="2">
         <v>4</v>
       </c>
       <c r="B79" s="2">
         <v>6</v>
       </c>
-      <c r="C79" s="3">
+      <c r="C79" s="7">
         <v>-1175.08359042045</v>
       </c>
-      <c r="D79" s="3">
+      <c r="D79" s="7">
         <v>-886.87</v>
       </c>
-      <c r="E79" s="3">
+      <c r="E79" s="7">
         <v>-598.65640957954304</v>
       </c>
-      <c r="F79" s="3">
-        <v>1.8645879999999998E-6</v>
-      </c>
-    </row>
-    <row r="80" spans="1:6">
+      <c r="F79" s="7">
+        <v>1.8645879999999998E-6</v>
+      </c>
+    </row>
+    <row r="80" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A80" s="2">
         <v>4</v>
       </c>
       <c r="B80" s="2">
         <v>7</v>
       </c>
-      <c r="C80" s="3">
+      <c r="C80" s="7">
         <v>-315.53359042045696</v>
       </c>
-      <c r="D80" s="3">
+      <c r="D80" s="7">
         <v>-27.32</v>
       </c>
-      <c r="E80" s="3">
+      <c r="E80" s="7">
         <v>260.89359042045703</v>
       </c>
-      <c r="F80" s="3">
+      <c r="F80" s="7">
         <v>1</v>
       </c>
     </row>
-    <row r="81" spans="1:6">
+    <row r="81" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A81" s="2">
         <v>4</v>
       </c>
       <c r="B81" s="2">
         <v>8</v>
       </c>
-      <c r="C81" s="3">
+      <c r="C81" s="7">
         <v>-713.74359042045694</v>
       </c>
-      <c r="D81" s="3">
+      <c r="D81" s="7">
         <v>-425.53000000000003</v>
       </c>
-      <c r="E81" s="3">
+      <c r="E81" s="7">
         <v>-137.31640957954301</v>
       </c>
-      <c r="F81" s="3">
+      <c r="F81" s="7">
         <v>1.7850906999999998E-5</v>
       </c>
     </row>
-    <row r="82" spans="1:6">
+    <row r="82" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A82" s="2">
         <v>4</v>
       </c>
       <c r="B82" s="2">
         <v>9</v>
       </c>
-      <c r="C82" s="3">
+      <c r="C82" s="7">
         <v>-1292.83359042045</v>
       </c>
-      <c r="D82" s="3">
+      <c r="D82" s="7">
         <v>-1004.6200000000001</v>
       </c>
-      <c r="E82" s="3">
+      <c r="E82" s="7">
         <v>-716.40640957954304</v>
       </c>
-      <c r="F82" s="3">
-        <v>1.8645879999999998E-6</v>
-      </c>
-    </row>
-    <row r="83" spans="1:6">
+      <c r="F82" s="7">
+        <v>1.8645879999999998E-6</v>
+      </c>
+    </row>
+    <row r="83" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A83" s="2">
         <v>4</v>
       </c>
       <c r="B83" s="2">
         <v>10</v>
       </c>
-      <c r="C83" s="3">
+      <c r="C83" s="7">
         <v>-722.61359042045706</v>
       </c>
-      <c r="D83" s="3">
+      <c r="D83" s="7">
         <v>-434.40000000000003</v>
       </c>
-      <c r="E83" s="3">
+      <c r="E83" s="7">
         <v>-146.18640957954298</v>
       </c>
-      <c r="F83" s="3">
+      <c r="F83" s="7">
         <v>1.0191442E-5</v>
       </c>
     </row>
-    <row r="84" spans="1:6">
+    <row r="84" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A84" s="2">
         <v>4</v>
       </c>
       <c r="B84" s="2">
         <v>11</v>
       </c>
-      <c r="C84" s="3">
+      <c r="C84" s="7">
         <v>-991.85359042045695</v>
       </c>
-      <c r="D84" s="3">
+      <c r="D84" s="7">
         <v>-703.6400000000001</v>
       </c>
-      <c r="E84" s="3">
+      <c r="E84" s="7">
         <v>-415.42640957954302</v>
       </c>
-      <c r="F84" s="3">
-        <v>1.8645879999999998E-6</v>
-      </c>
-    </row>
-    <row r="85" spans="1:6">
+      <c r="F84" s="7">
+        <v>1.8645879999999998E-6</v>
+      </c>
+    </row>
+    <row r="85" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A85" s="2">
         <v>4</v>
       </c>
       <c r="B85" s="2">
         <v>12</v>
       </c>
-      <c r="C85" s="3">
+      <c r="C85" s="7">
         <v>-1231.35359042045</v>
       </c>
-      <c r="D85" s="3">
+      <c r="D85" s="7">
         <v>-943.14</v>
       </c>
-      <c r="E85" s="3">
+      <c r="E85" s="7">
         <v>-654.92640957954291</v>
       </c>
-      <c r="F85" s="3">
-        <v>1.8645879999999998E-6</v>
-      </c>
-    </row>
-    <row r="86" spans="1:6">
+      <c r="F85" s="7">
+        <v>1.8645879999999998E-6</v>
+      </c>
+    </row>
+    <row r="86" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A86" s="2">
         <v>4</v>
       </c>
       <c r="B86" s="2">
         <v>13</v>
       </c>
-      <c r="C86" s="3">
+      <c r="C86" s="7">
         <v>-361.63359042045698</v>
       </c>
-      <c r="D86" s="3">
+      <c r="D86" s="7">
         <v>-73.42</v>
       </c>
-      <c r="E86" s="3">
+      <c r="E86" s="7">
         <v>214.79359042045701</v>
       </c>
-      <c r="F86" s="3">
+      <c r="F86" s="7">
         <v>0.99999994957400007</v>
       </c>
     </row>
-    <row r="87" spans="1:6">
+    <row r="87" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A87" s="2">
         <v>4</v>
       </c>
       <c r="B87" s="2">
         <v>14</v>
       </c>
-      <c r="C87" s="3">
+      <c r="C87" s="7">
         <v>-783.553590420457</v>
       </c>
-      <c r="D87" s="3">
+      <c r="D87" s="7">
         <v>-495.34</v>
       </c>
-      <c r="E87" s="3">
+      <c r="E87" s="7">
         <v>-207.12640957954301</v>
       </c>
-      <c r="F87" s="3">
+      <c r="F87" s="7">
         <v>1.9254210000000002E-6</v>
       </c>
     </row>
-    <row r="88" spans="1:6">
+    <row r="88" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A88" s="2">
         <v>4</v>
       </c>
       <c r="B88" s="2">
         <v>15</v>
       </c>
-      <c r="C88" s="3">
+      <c r="C88" s="7">
         <v>-1233.2035904204499</v>
       </c>
-      <c r="D88" s="3">
+      <c r="D88" s="7">
         <v>-944.99</v>
       </c>
-      <c r="E88" s="3">
+      <c r="E88" s="7">
         <v>-656.77640957954293</v>
       </c>
-      <c r="F88" s="3">
-        <v>1.8645879999999998E-6</v>
-      </c>
-    </row>
-    <row r="89" spans="1:6">
+      <c r="F88" s="7">
+        <v>1.8645879999999998E-6</v>
+      </c>
+    </row>
+    <row r="89" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A89" s="2">
         <v>4</v>
       </c>
       <c r="B89" s="2">
         <v>16</v>
       </c>
-      <c r="C89" s="3">
+      <c r="C89" s="7">
         <v>-437.15359042045696</v>
       </c>
-      <c r="D89" s="3">
+      <c r="D89" s="7">
         <v>-148.94</v>
       </c>
-      <c r="E89" s="3">
+      <c r="E89" s="7">
         <v>139.273590420457</v>
       </c>
-      <c r="F89" s="3">
+      <c r="F89" s="7">
         <v>0.98091836155699996</v>
       </c>
     </row>
-    <row r="90" spans="1:6">
+    <row r="90" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A90" s="2">
         <v>4</v>
       </c>
       <c r="B90" s="2">
         <v>17</v>
       </c>
-      <c r="C90" s="3">
+      <c r="C90" s="7">
         <v>-838.26359042045692</v>
       </c>
-      <c r="D90" s="3">
+      <c r="D90" s="7">
         <v>-550.05000000000007</v>
       </c>
-      <c r="E90" s="3">
+      <c r="E90" s="7">
         <v>-261.83640957954304</v>
       </c>
-      <c r="F90" s="3">
+      <c r="F90" s="7">
         <v>1.8649499999999998E-6</v>
       </c>
     </row>
-    <row r="91" spans="1:6">
+    <row r="91" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A91" s="2">
         <v>4</v>
       </c>
       <c r="B91" s="2">
         <v>18</v>
       </c>
-      <c r="C91" s="3">
+      <c r="C91" s="7">
         <v>-1362.5535904204501</v>
       </c>
-      <c r="D91" s="3">
+      <c r="D91" s="7">
         <v>-1074.3400000000001</v>
       </c>
-      <c r="E91" s="3">
+      <c r="E91" s="7">
         <v>-786.12640957954306</v>
       </c>
-      <c r="F91" s="3">
-        <v>1.8645879999999998E-6</v>
-      </c>
-    </row>
-    <row r="92" spans="1:6">
+      <c r="F91" s="7">
+        <v>1.8645879999999998E-6</v>
+      </c>
+    </row>
+    <row r="92" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A92" s="2">
         <v>4</v>
       </c>
       <c r="B92" s="2">
         <v>19</v>
       </c>
-      <c r="C92" s="3">
+      <c r="C92" s="7">
         <v>-861.51359042045704</v>
       </c>
-      <c r="D92" s="3">
+      <c r="D92" s="7">
         <v>-573.30000000000007</v>
       </c>
-      <c r="E92" s="3">
+      <c r="E92" s="7">
         <v>-285.08640957954299</v>
       </c>
-      <c r="F92" s="3">
+      <c r="F92" s="7">
         <v>1.8646210000000001E-6</v>
       </c>
     </row>
-    <row r="93" spans="1:6">
+    <row r="93" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A93" s="2">
         <v>4</v>
       </c>
       <c r="B93" s="2">
         <v>20</v>
       </c>
-      <c r="C93" s="3">
+      <c r="C93" s="7">
         <v>-1181.84359042045</v>
       </c>
-      <c r="D93" s="3">
+      <c r="D93" s="7">
         <v>-893.63</v>
       </c>
-      <c r="E93" s="3">
+      <c r="E93" s="7">
         <v>-605.41640957954303</v>
       </c>
-      <c r="F93" s="3">
-        <v>1.8645879999999998E-6</v>
-      </c>
-    </row>
-    <row r="94" spans="1:6">
+      <c r="F93" s="7">
+        <v>1.8645879999999998E-6</v>
+      </c>
+    </row>
+    <row r="94" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A94" s="2">
         <v>4</v>
       </c>
       <c r="B94" s="2">
         <v>21</v>
       </c>
-      <c r="C94" s="3">
+      <c r="C94" s="7">
         <v>-1377.37359042045</v>
       </c>
-      <c r="D94" s="3">
+      <c r="D94" s="7">
         <v>-1089.1599999999999</v>
       </c>
-      <c r="E94" s="3">
+      <c r="E94" s="7">
         <v>-800.946409579543</v>
       </c>
-      <c r="F94" s="3">
-        <v>1.8645879999999998E-6</v>
-      </c>
-    </row>
-    <row r="95" spans="1:6">
+      <c r="F94" s="7">
+        <v>1.8645879999999998E-6</v>
+      </c>
+    </row>
+    <row r="95" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A95" s="2">
         <v>4</v>
       </c>
       <c r="B95" s="2">
         <v>22</v>
       </c>
-      <c r="C95" s="3">
+      <c r="C95" s="7">
         <v>-489.25359042045704</v>
       </c>
-      <c r="D95" s="3">
+      <c r="D95" s="7">
         <v>-201.04</v>
       </c>
-      <c r="E95" s="3">
+      <c r="E95" s="7">
         <v>87.173590420457003</v>
       </c>
-      <c r="F95" s="3">
+      <c r="F95" s="7">
         <v>0.67358355306400008</v>
       </c>
     </row>
-    <row r="96" spans="1:6">
+    <row r="96" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A96" s="2">
         <v>4</v>
       </c>
       <c r="B96" s="2">
         <v>23</v>
       </c>
-      <c r="C96" s="3">
+      <c r="C96" s="7">
         <v>-875.34359042045696</v>
       </c>
-      <c r="D96" s="3">
+      <c r="D96" s="7">
         <v>-587.13</v>
       </c>
-      <c r="E96" s="3">
+      <c r="E96" s="7">
         <v>-298.91640957954303</v>
       </c>
-      <c r="F96" s="3">
+      <c r="F96" s="7">
         <v>1.864595E-6</v>
       </c>
     </row>
-    <row r="97" spans="1:6">
+    <row r="97" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A97" s="2">
         <v>4</v>
       </c>
       <c r="B97" s="2">
         <v>24</v>
       </c>
-      <c r="C97" s="3">
+      <c r="C97" s="7">
         <v>-1338.4535904204499</v>
       </c>
-      <c r="D97" s="3">
+      <c r="D97" s="7">
         <v>-1050.24</v>
       </c>
-      <c r="E97" s="3">
+      <c r="E97" s="7">
         <v>-762.02640957954304</v>
       </c>
-      <c r="F97" s="3">
-        <v>1.8645879999999998E-6</v>
-      </c>
-    </row>
-    <row r="98" spans="1:6">
+      <c r="F97" s="7">
+        <v>1.8645879999999998E-6</v>
+      </c>
+    </row>
+    <row r="98" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A98" s="2">
         <v>4</v>
       </c>
       <c r="B98" s="2">
         <v>25</v>
       </c>
-      <c r="C98" s="3">
+      <c r="C98" s="7">
         <v>-541.35359042045707</v>
       </c>
-      <c r="D98" s="3">
+      <c r="D98" s="7">
         <v>-253.14</v>
       </c>
-      <c r="E98" s="3">
+      <c r="E98" s="7">
         <v>35.073590420456995</v>
       </c>
-      <c r="F98" s="3">
+      <c r="F98" s="7">
         <v>0.191326675493</v>
       </c>
     </row>
-    <row r="99" spans="1:6">
+    <row r="99" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A99" s="2">
         <v>4</v>
       </c>
       <c r="B99" s="2">
         <v>26</v>
       </c>
-      <c r="C99" s="3">
+      <c r="C99" s="7">
         <v>-942.61359042045706</v>
       </c>
-      <c r="D99" s="3">
+      <c r="D99" s="7">
         <v>-654.4</v>
       </c>
-      <c r="E99" s="3">
+      <c r="E99" s="7">
         <v>-366.18640957954301</v>
       </c>
-      <c r="F99" s="3">
-        <v>1.8645879999999998E-6</v>
-      </c>
-    </row>
-    <row r="100" spans="1:6">
+      <c r="F99" s="7">
+        <v>1.8645879999999998E-6</v>
+      </c>
+    </row>
+    <row r="100" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A100" s="2">
         <v>4</v>
       </c>
       <c r="B100" s="2">
         <v>27</v>
       </c>
-      <c r="C100" s="3">
+      <c r="C100" s="7">
         <v>-1386.7335904204501</v>
       </c>
-      <c r="D100" s="3">
+      <c r="D100" s="7">
         <v>-1098.52</v>
       </c>
-      <c r="E100" s="3">
+      <c r="E100" s="7">
         <v>-810.30640957954301</v>
       </c>
-      <c r="F100" s="3">
-        <v>1.8645879999999998E-6</v>
-      </c>
-    </row>
-    <row r="101" spans="1:6">
+      <c r="F100" s="7">
+        <v>1.8645879999999998E-6</v>
+      </c>
+    </row>
+    <row r="101" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A101" s="2">
         <v>5</v>
       </c>
       <c r="B101" s="2">
         <v>6</v>
       </c>
-      <c r="C101" s="3">
+      <c r="C101" s="7">
         <v>-877.48359042045695</v>
       </c>
-      <c r="D101" s="3">
+      <c r="D101" s="7">
         <v>-589.27</v>
       </c>
-      <c r="E101" s="3">
+      <c r="E101" s="7">
         <v>-301.05640957954301</v>
       </c>
-      <c r="F101" s="3">
+      <c r="F101" s="7">
         <v>1.8645940000000002E-6</v>
       </c>
     </row>
-    <row r="102" spans="1:6">
+    <row r="102" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A102" s="2">
         <v>5</v>
       </c>
       <c r="B102" s="2">
         <v>7</v>
       </c>
-      <c r="C102" s="3">
+      <c r="C102" s="7">
         <v>-17.933590420456998</v>
       </c>
-      <c r="D102" s="3">
+      <c r="D102" s="7">
         <v>270.28000000000003</v>
       </c>
-      <c r="E102" s="3">
+      <c r="E102" s="7">
         <v>558.49359042045694</v>
       </c>
-      <c r="F102" s="3">
+      <c r="F102" s="7">
         <v>0.10382903032799999</v>
       </c>
     </row>
-    <row r="103" spans="1:6">
+    <row r="103" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A103" s="2">
         <v>5</v>
       </c>
       <c r="B103" s="2">
         <v>8</v>
       </c>
-      <c r="C103" s="3">
+      <c r="C103" s="7">
         <v>-416.14359042045703</v>
       </c>
-      <c r="D103" s="3">
+      <c r="D103" s="7">
         <v>-127.92999999999999</v>
       </c>
-      <c r="E103" s="3">
+      <c r="E103" s="7">
         <v>160.28359042045702</v>
       </c>
-      <c r="F103" s="3">
+      <c r="F103" s="7">
         <v>0.99776947891200007</v>
       </c>
     </row>
-    <row r="104" spans="1:6">
+    <row r="104" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A104" s="2">
         <v>5</v>
       </c>
       <c r="B104" s="2">
         <v>9</v>
       </c>
-      <c r="C104" s="3">
+      <c r="C104" s="7">
         <v>-995.23359042045695</v>
       </c>
-      <c r="D104" s="3">
+      <c r="D104" s="7">
         <v>-707.02</v>
       </c>
-      <c r="E104" s="3">
+      <c r="E104" s="7">
         <v>-418.80640957954301</v>
       </c>
-      <c r="F104" s="3">
-        <v>1.8645879999999998E-6</v>
-      </c>
-    </row>
-    <row r="105" spans="1:6">
+      <c r="F104" s="7">
+        <v>1.8645879999999998E-6</v>
+      </c>
+    </row>
+    <row r="105" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A105" s="2">
         <v>5</v>
       </c>
       <c r="B105" s="2">
         <v>10</v>
       </c>
-      <c r="C105" s="3">
+      <c r="C105" s="7">
         <v>-425.01359042045698</v>
       </c>
-      <c r="D105" s="3">
+      <c r="D105" s="7">
         <v>-136.80000000000001</v>
       </c>
-      <c r="E105" s="3">
+      <c r="E105" s="7">
         <v>151.41359042045698</v>
       </c>
-      <c r="F105" s="3">
+      <c r="F105" s="7">
         <v>0.99394006018600012</v>
       </c>
     </row>
-    <row r="106" spans="1:6">
+    <row r="106" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A106" s="2">
         <v>5</v>
       </c>
       <c r="B106" s="2">
         <v>11</v>
       </c>
-      <c r="C106" s="3">
+      <c r="C106" s="7">
         <v>-694.25359042045693</v>
       </c>
-      <c r="D106" s="3">
+      <c r="D106" s="7">
         <v>-406.04</v>
       </c>
-      <c r="E106" s="3">
+      <c r="E106" s="7">
         <v>-117.82640957954301</v>
       </c>
-      <c r="F106" s="3">
+      <c r="F106" s="7">
         <v>6.5286009999999999E-5</v>
       </c>
     </row>
-    <row r="107" spans="1:6">
+    <row r="107" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A107" s="2">
         <v>5</v>
       </c>
       <c r="B107" s="2">
         <v>12</v>
       </c>
-      <c r="C107" s="3">
+      <c r="C107" s="7">
         <v>-933.75359042045704</v>
       </c>
-      <c r="D107" s="3">
+      <c r="D107" s="7">
         <v>-645.54</v>
       </c>
-      <c r="E107" s="3">
+      <c r="E107" s="7">
         <v>-357.326409579543</v>
       </c>
-      <c r="F107" s="3">
-        <v>1.8645879999999998E-6</v>
-      </c>
-    </row>
-    <row r="108" spans="1:6">
+      <c r="F107" s="7">
+        <v>1.8645879999999998E-6</v>
+      </c>
+    </row>
+    <row r="108" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A108" s="2">
         <v>5</v>
       </c>
       <c r="B108" s="2">
         <v>13</v>
       </c>
-      <c r="C108" s="3">
+      <c r="C108" s="7">
         <v>-64.033590420457003</v>
       </c>
-      <c r="D108" s="3">
+      <c r="D108" s="7">
         <v>224.17999999999998</v>
       </c>
-      <c r="E108" s="3">
+      <c r="E108" s="7">
         <v>512.39359042045692</v>
       </c>
-      <c r="F108" s="3">
+      <c r="F108" s="7">
         <v>0.43318884276300001</v>
       </c>
     </row>
-    <row r="109" spans="1:6">
+    <row r="109" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A109" s="2">
         <v>5</v>
       </c>
       <c r="B109" s="2">
         <v>14</v>
       </c>
-      <c r="C109" s="3">
+      <c r="C109" s="7">
         <v>-485.95359042045698</v>
       </c>
-      <c r="D109" s="3">
+      <c r="D109" s="7">
         <v>-197.74</v>
       </c>
-      <c r="E109" s="3">
+      <c r="E109" s="7">
         <v>90.473590420457001</v>
       </c>
-      <c r="F109" s="3">
+      <c r="F109" s="7">
         <v>0.7062735060369999</v>
       </c>
     </row>
-    <row r="110" spans="1:6">
+    <row r="110" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A110" s="2">
         <v>5</v>
       </c>
       <c r="B110" s="2">
         <v>15</v>
       </c>
-      <c r="C110" s="3">
+      <c r="C110" s="7">
         <v>-935.60359042045707</v>
       </c>
-      <c r="D110" s="3">
+      <c r="D110" s="7">
         <v>-647.39</v>
       </c>
-      <c r="E110" s="3">
+      <c r="E110" s="7">
         <v>-359.17640957954302</v>
       </c>
-      <c r="F110" s="3">
-        <v>1.8645879999999998E-6</v>
-      </c>
-    </row>
-    <row r="111" spans="1:6">
+      <c r="F110" s="7">
+        <v>1.8645879999999998E-6</v>
+      </c>
+    </row>
+    <row r="111" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A111" s="2">
         <v>5</v>
       </c>
       <c r="B111" s="2">
         <v>16</v>
       </c>
-      <c r="C111" s="3">
+      <c r="C111" s="7">
         <v>-139.553590420457</v>
       </c>
-      <c r="D111" s="3">
+      <c r="D111" s="7">
         <v>148.66</v>
       </c>
-      <c r="E111" s="3">
+      <c r="E111" s="7">
         <v>436.87359042045699</v>
       </c>
-      <c r="F111" s="3">
+      <c r="F111" s="7">
         <v>0.981368131491</v>
       </c>
     </row>
-    <row r="112" spans="1:6">
+    <row r="112" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A112" s="2">
         <v>5</v>
       </c>
       <c r="B112" s="2">
         <v>17</v>
       </c>
-      <c r="C112" s="3">
+      <c r="C112" s="7">
         <v>-540.66359042045701</v>
       </c>
-      <c r="D112" s="3">
+      <c r="D112" s="7">
         <v>-252.45000000000002</v>
       </c>
-      <c r="E112" s="3">
+      <c r="E112" s="7">
         <v>35.763590420457</v>
       </c>
-      <c r="F112" s="3">
+      <c r="F112" s="7">
         <v>0.19572121502600001</v>
       </c>
     </row>
-    <row r="113" spans="1:6">
+    <row r="113" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A113" s="2">
         <v>5</v>
       </c>
       <c r="B113" s="2">
         <v>18</v>
       </c>
-      <c r="C113" s="3">
+      <c r="C113" s="7">
         <v>-1064.9535904204499</v>
       </c>
-      <c r="D113" s="3">
+      <c r="D113" s="7">
         <v>-776.74</v>
       </c>
-      <c r="E113" s="3">
+      <c r="E113" s="7">
         <v>-488.52640957954304</v>
       </c>
-      <c r="F113" s="3">
-        <v>1.8645879999999998E-6</v>
-      </c>
-    </row>
-    <row r="114" spans="1:6">
+      <c r="F113" s="7">
+        <v>1.8645879999999998E-6</v>
+      </c>
+    </row>
+    <row r="114" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A114" s="2">
         <v>5</v>
       </c>
       <c r="B114" s="2">
         <v>19</v>
       </c>
-      <c r="C114" s="3">
+      <c r="C114" s="7">
         <v>-563.91359042045701</v>
       </c>
-      <c r="D114" s="3">
+      <c r="D114" s="7">
         <v>-275.7</v>
       </c>
-      <c r="E114" s="3">
+      <c r="E114" s="7">
         <v>12.513590420457001</v>
       </c>
-      <c r="F114" s="3">
+      <c r="F114" s="7">
         <v>8.4044705974999995E-2</v>
       </c>
     </row>
-    <row r="115" spans="1:6">
+    <row r="115" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A115" s="2">
         <v>5</v>
       </c>
       <c r="B115" s="2">
         <v>20</v>
       </c>
-      <c r="C115" s="3">
+      <c r="C115" s="7">
         <v>-884.24359042045694</v>
       </c>
-      <c r="D115" s="3">
+      <c r="D115" s="7">
         <v>-596.03</v>
       </c>
-      <c r="E115" s="3">
+      <c r="E115" s="7">
         <v>-307.81640957954301</v>
       </c>
-      <c r="F115" s="3">
+      <c r="F115" s="7">
         <v>1.8645910000000001E-6</v>
       </c>
     </row>
-    <row r="116" spans="1:6">
+    <row r="116" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A116" s="2">
         <v>5</v>
       </c>
       <c r="B116" s="2">
         <v>21</v>
       </c>
-      <c r="C116" s="3">
+      <c r="C116" s="7">
         <v>-1079.7735904204499</v>
       </c>
-      <c r="D116" s="3">
+      <c r="D116" s="7">
         <v>-791.56000000000006</v>
       </c>
-      <c r="E116" s="3">
+      <c r="E116" s="7">
         <v>-503.34640957954304</v>
       </c>
-      <c r="F116" s="3">
-        <v>1.8645879999999998E-6</v>
-      </c>
-    </row>
-    <row r="117" spans="1:6">
+      <c r="F116" s="7">
+        <v>1.8645879999999998E-6</v>
+      </c>
+    </row>
+    <row r="117" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A117" s="2">
         <v>5</v>
       </c>
       <c r="B117" s="2">
         <v>22</v>
       </c>
-      <c r="C117" s="3">
+      <c r="C117" s="7">
         <v>-191.65359042045699</v>
       </c>
-      <c r="D117" s="3">
+      <c r="D117" s="7">
         <v>96.56</v>
       </c>
-      <c r="E117" s="3">
+      <c r="E117" s="7">
         <v>384.77359042045703</v>
       </c>
-      <c r="F117" s="3">
+      <c r="F117" s="7">
         <v>0.99998445172599992</v>
       </c>
     </row>
-    <row r="118" spans="1:6">
+    <row r="118" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A118" s="2">
         <v>5</v>
       </c>
       <c r="B118" s="2">
         <v>23</v>
       </c>
-      <c r="C118" s="3">
+      <c r="C118" s="7">
         <v>-577.74359042045694</v>
       </c>
-      <c r="D118" s="3">
+      <c r="D118" s="7">
         <v>-289.53000000000003</v>
       </c>
-      <c r="E118" s="3">
+      <c r="E118" s="7">
         <v>-1.316409579543</v>
       </c>
-      <c r="F118" s="3">
+      <c r="F118" s="7">
         <v>4.7225687461000004E-2</v>
       </c>
     </row>
-    <row r="119" spans="1:6">
+    <row r="119" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A119" s="2">
         <v>5</v>
       </c>
       <c r="B119" s="2">
         <v>24</v>
       </c>
-      <c r="C119" s="3">
+      <c r="C119" s="7">
         <v>-1040.8535904204498</v>
       </c>
-      <c r="D119" s="3">
+      <c r="D119" s="7">
         <v>-752.64</v>
       </c>
-      <c r="E119" s="3">
+      <c r="E119" s="7">
         <v>-464.42640957954302</v>
       </c>
-      <c r="F119" s="3">
-        <v>1.8645879999999998E-6</v>
-      </c>
-    </row>
-    <row r="120" spans="1:6">
+      <c r="F119" s="7">
+        <v>1.8645879999999998E-6</v>
+      </c>
+    </row>
+    <row r="120" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A120" s="2">
         <v>5</v>
       </c>
       <c r="B120" s="2">
         <v>25</v>
       </c>
-      <c r="C120" s="3">
+      <c r="C120" s="7">
         <v>-243.75359042045699</v>
       </c>
-      <c r="D120" s="3">
+      <c r="D120" s="7">
         <v>44.46</v>
       </c>
-      <c r="E120" s="3">
+      <c r="E120" s="7">
         <v>332.673590420457</v>
       </c>
-      <c r="F120" s="3">
+      <c r="F120" s="7">
         <v>1</v>
       </c>
     </row>
-    <row r="121" spans="1:6">
+    <row r="121" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A121" s="2">
         <v>5</v>
       </c>
       <c r="B121" s="2">
         <v>26</v>
       </c>
-      <c r="C121" s="3">
+      <c r="C121" s="7">
         <v>-645.01359042045704</v>
       </c>
-      <c r="D121" s="3">
+      <c r="D121" s="7">
         <v>-356.8</v>
       </c>
-      <c r="E121" s="3">
+      <c r="E121" s="7">
         <v>-68.586409579543002</v>
       </c>
-      <c r="F121" s="3">
+      <c r="F121" s="7">
         <v>1.4741553409999999E-3</v>
       </c>
     </row>
-    <row r="122" spans="1:6">
+    <row r="122" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A122" s="2">
         <v>5</v>
       </c>
       <c r="B122" s="2">
         <v>27</v>
       </c>
-      <c r="C122" s="3">
+      <c r="C122" s="7">
         <v>-1089.13359042045</v>
       </c>
-      <c r="D122" s="3">
+      <c r="D122" s="7">
         <v>-800.92</v>
       </c>
-      <c r="E122" s="3">
+      <c r="E122" s="7">
         <v>-512.70640957954311</v>
       </c>
-      <c r="F122" s="3">
-        <v>1.8645879999999998E-6</v>
-      </c>
-    </row>
-    <row r="123" spans="1:6">
+      <c r="F122" s="7">
+        <v>1.8645879999999998E-6</v>
+      </c>
+    </row>
+    <row r="123" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A123" s="2">
         <v>6</v>
       </c>
       <c r="B123" s="2">
         <v>7</v>
       </c>
-      <c r="C123" s="3">
+      <c r="C123" s="7">
         <v>571.33640957954299</v>
       </c>
-      <c r="D123" s="3">
+      <c r="D123" s="7">
         <v>859.55000000000007</v>
       </c>
-      <c r="E123" s="3">
+      <c r="E123" s="7">
         <v>1147.7635904204499</v>
       </c>
-      <c r="F123" s="3">
-        <v>1.8645879999999998E-6</v>
-      </c>
-    </row>
-    <row r="124" spans="1:6">
+      <c r="F123" s="7">
+        <v>1.8645879999999998E-6</v>
+      </c>
+    </row>
+    <row r="124" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A124" s="2">
         <v>6</v>
       </c>
       <c r="B124" s="2">
         <v>8</v>
       </c>
-      <c r="C124" s="3">
+      <c r="C124" s="7">
         <v>173.12640957954301</v>
       </c>
-      <c r="D124" s="3">
+      <c r="D124" s="7">
         <v>461.34</v>
       </c>
-      <c r="E124" s="3">
+      <c r="E124" s="7">
         <v>749.553590420457</v>
       </c>
-      <c r="F124" s="3">
+      <c r="F124" s="7">
         <v>2.9063590000000002E-6</v>
       </c>
     </row>
-    <row r="125" spans="1:6">
+    <row r="125" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A125" s="2">
         <v>6</v>
       </c>
       <c r="B125" s="2">
         <v>9</v>
       </c>
-      <c r="C125" s="3">
+      <c r="C125" s="7">
         <v>-405.96359042045697</v>
       </c>
-      <c r="D125" s="3">
+      <c r="D125" s="7">
         <v>-117.75</v>
       </c>
-      <c r="E125" s="3">
+      <c r="E125" s="7">
         <v>170.463590420457</v>
       </c>
-      <c r="F125" s="3">
+      <c r="F125" s="7">
         <v>0.99941745319500008</v>
       </c>
     </row>
-    <row r="126" spans="1:6">
+    <row r="126" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A126" s="2">
         <v>6</v>
       </c>
       <c r="B126" s="2">
         <v>10</v>
       </c>
-      <c r="C126" s="3">
+      <c r="C126" s="7">
         <v>164.25640957954298</v>
       </c>
-      <c r="D126" s="3">
+      <c r="D126" s="7">
         <v>452.46999999999997</v>
       </c>
-      <c r="E126" s="3">
+      <c r="E126" s="7">
         <v>740.68359042045699</v>
       </c>
-      <c r="F126" s="3">
+      <c r="F126" s="7">
         <v>3.9640289999999998E-6</v>
       </c>
     </row>
-    <row r="127" spans="1:6">
+    <row r="127" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A127" s="2">
         <v>6</v>
       </c>
       <c r="B127" s="2">
         <v>11</v>
       </c>
-      <c r="C127" s="3">
+      <c r="C127" s="7">
         <v>-104.98359042045701</v>
       </c>
-      <c r="D127" s="3">
+      <c r="D127" s="7">
         <v>183.23000000000002</v>
       </c>
-      <c r="E127" s="3">
+      <c r="E127" s="7">
         <v>471.44359042045704</v>
       </c>
-      <c r="F127" s="3">
+      <c r="F127" s="7">
         <v>0.83273080767899998</v>
       </c>
     </row>
-    <row r="128" spans="1:6">
+    <row r="128" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A128" s="2">
         <v>6</v>
       </c>
       <c r="B128" s="2">
         <v>12</v>
       </c>
-      <c r="C128" s="3">
+      <c r="C128" s="7">
         <v>-344.48359042045701</v>
       </c>
-      <c r="D128" s="3">
+      <c r="D128" s="7">
         <v>-56.27</v>
       </c>
-      <c r="E128" s="3">
+      <c r="E128" s="7">
         <v>231.94359042045701</v>
       </c>
-      <c r="F128" s="3">
+      <c r="F128" s="7">
         <v>0.99999999988699995</v>
       </c>
     </row>
-    <row r="129" spans="1:6">
+    <row r="129" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A129" s="2">
         <v>6</v>
       </c>
       <c r="B129" s="2">
         <v>13</v>
       </c>
-      <c r="C129" s="3">
+      <c r="C129" s="7">
         <v>525.23640957954296</v>
       </c>
-      <c r="D129" s="3">
+      <c r="D129" s="7">
         <v>813.45</v>
       </c>
-      <c r="E129" s="3">
+      <c r="E129" s="7">
         <v>1101.66359042045</v>
       </c>
-      <c r="F129" s="3">
-        <v>1.8645879999999998E-6</v>
-      </c>
-    </row>
-    <row r="130" spans="1:6">
+      <c r="F129" s="7">
+        <v>1.8645879999999998E-6</v>
+      </c>
+    </row>
+    <row r="130" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A130" s="2">
         <v>6</v>
       </c>
       <c r="B130" s="2">
         <v>14</v>
       </c>
-      <c r="C130" s="3">
+      <c r="C130" s="7">
         <v>103.31640957954299</v>
       </c>
-      <c r="D130" s="3">
+      <c r="D130" s="7">
         <v>391.53</v>
       </c>
-      <c r="E130" s="3">
+      <c r="E130" s="7">
         <v>679.74359042045694</v>
       </c>
-      <c r="F130" s="3">
+      <c r="F130" s="7">
         <v>1.7033125300000001E-4</v>
       </c>
     </row>
-    <row r="131" spans="1:6">
+    <row r="131" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A131" s="2">
         <v>6</v>
       </c>
       <c r="B131" s="2">
         <v>15</v>
       </c>
-      <c r="C131" s="3">
+      <c r="C131" s="7">
         <v>-346.33359042045703</v>
       </c>
-      <c r="D131" s="3">
+      <c r="D131" s="7">
         <v>-58.12</v>
       </c>
-      <c r="E131" s="3">
+      <c r="E131" s="7">
         <v>230.09359042045699</v>
       </c>
-      <c r="F131" s="3">
+      <c r="F131" s="7">
         <v>0.99999999975800002</v>
       </c>
     </row>
-    <row r="132" spans="1:6">
+    <row r="132" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A132" s="2">
         <v>6</v>
       </c>
       <c r="B132" s="2">
         <v>16</v>
       </c>
-      <c r="C132" s="3">
+      <c r="C132" s="7">
         <v>449.71640957954298</v>
       </c>
-      <c r="D132" s="3">
+      <c r="D132" s="7">
         <v>737.93</v>
       </c>
-      <c r="E132" s="3">
+      <c r="E132" s="7">
         <v>1026.14359042045</v>
       </c>
-      <c r="F132" s="3">
-        <v>1.8645879999999998E-6</v>
-      </c>
-    </row>
-    <row r="133" spans="1:6">
+      <c r="F132" s="7">
+        <v>1.8645879999999998E-6</v>
+      </c>
+    </row>
+    <row r="133" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A133" s="2">
         <v>6</v>
       </c>
       <c r="B133" s="2">
         <v>17</v>
       </c>
-      <c r="C133" s="3">
+      <c r="C133" s="7">
         <v>48.606409579542998</v>
       </c>
-      <c r="D133" s="3">
+      <c r="D133" s="7">
         <v>336.82</v>
       </c>
-      <c r="E133" s="3">
+      <c r="E133" s="7">
         <v>625.03359042045702</v>
       </c>
-      <c r="F133" s="3">
+      <c r="F133" s="7">
         <v>4.5856763890000001E-3</v>
       </c>
     </row>
-    <row r="134" spans="1:6">
+    <row r="134" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A134" s="2">
         <v>6</v>
       </c>
       <c r="B134" s="2">
         <v>18</v>
       </c>
-      <c r="C134" s="3">
+      <c r="C134" s="7">
         <v>-475.68359042045699</v>
       </c>
-      <c r="D134" s="3">
+      <c r="D134" s="7">
         <v>-187.47</v>
       </c>
-      <c r="E134" s="3">
+      <c r="E134" s="7">
         <v>100.743590420457</v>
       </c>
-      <c r="F134" s="3">
+      <c r="F134" s="7">
         <v>0.79925646136899997</v>
       </c>
     </row>
-    <row r="135" spans="1:6">
+    <row r="135" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A135" s="2">
         <v>6</v>
       </c>
       <c r="B135" s="2">
         <v>19</v>
       </c>
-      <c r="C135" s="3">
+      <c r="C135" s="7">
         <v>25.356409579543001</v>
       </c>
-      <c r="D135" s="3">
+      <c r="D135" s="7">
         <v>313.57</v>
       </c>
-      <c r="E135" s="3">
+      <c r="E135" s="7">
         <v>601.78359042045702</v>
       </c>
-      <c r="F135" s="3">
+      <c r="F135" s="7">
         <v>1.5414085839999999E-2</v>
       </c>
     </row>
-    <row r="136" spans="1:6">
+    <row r="136" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A136" s="2">
         <v>6</v>
       </c>
       <c r="B136" s="2">
         <v>20</v>
       </c>
-      <c r="C136" s="3">
+      <c r="C136" s="7">
         <v>-294.97359042045701</v>
       </c>
-      <c r="D136" s="3">
+      <c r="D136" s="7">
         <v>-6.7600000000000007</v>
       </c>
-      <c r="E136" s="3">
+      <c r="E136" s="7">
         <v>281.45359042045698</v>
       </c>
-      <c r="F136" s="3">
+      <c r="F136" s="7">
         <v>1</v>
       </c>
     </row>
-    <row r="137" spans="1:6">
+    <row r="137" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A137" s="2">
         <v>6</v>
       </c>
       <c r="B137" s="2">
         <v>21</v>
       </c>
-      <c r="C137" s="3">
+      <c r="C137" s="7">
         <v>-490.50359042045699</v>
       </c>
-      <c r="D137" s="3">
+      <c r="D137" s="7">
         <v>-202.29</v>
       </c>
-      <c r="E137" s="3">
+      <c r="E137" s="7">
         <v>85.923590420457003</v>
       </c>
-      <c r="F137" s="3">
+      <c r="F137" s="7">
         <v>0.66093970598100005</v>
       </c>
     </row>
-    <row r="138" spans="1:6">
+    <row r="138" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A138" s="2">
         <v>6</v>
       </c>
       <c r="B138" s="2">
         <v>22</v>
       </c>
-      <c r="C138" s="3">
+      <c r="C138" s="7">
         <v>397.61640957954296</v>
       </c>
-      <c r="D138" s="3">
+      <c r="D138" s="7">
         <v>685.83</v>
       </c>
-      <c r="E138" s="3">
+      <c r="E138" s="7">
         <v>974.04359042045701</v>
       </c>
-      <c r="F138" s="3">
-        <v>1.8645879999999998E-6</v>
-      </c>
-    </row>
-    <row r="139" spans="1:6">
+      <c r="F138" s="7">
+        <v>1.8645879999999998E-6</v>
+      </c>
+    </row>
+    <row r="139" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A139" s="2">
         <v>6</v>
       </c>
       <c r="B139" s="2">
         <v>23</v>
       </c>
-      <c r="C139" s="3">
+      <c r="C139" s="7">
         <v>11.526409579542999</v>
       </c>
-      <c r="D139" s="3">
+      <c r="D139" s="7">
         <v>299.74</v>
       </c>
-      <c r="E139" s="3">
+      <c r="E139" s="7">
         <v>587.95359042045698</v>
       </c>
-      <c r="F139" s="3">
+      <c r="F139" s="7">
         <v>2.9873176562E-2</v>
       </c>
     </row>
-    <row r="140" spans="1:6">
+    <row r="140" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A140" s="2">
         <v>6</v>
       </c>
       <c r="B140" s="2">
         <v>24</v>
       </c>
-      <c r="C140" s="3">
+      <c r="C140" s="7">
         <v>-451.58359042045697</v>
       </c>
-      <c r="D140" s="3">
+      <c r="D140" s="7">
         <v>-163.36999999999998</v>
       </c>
-      <c r="E140" s="3">
+      <c r="E140" s="7">
         <v>124.84359042045701</v>
       </c>
-      <c r="F140" s="3">
+      <c r="F140" s="7">
         <v>0.94367084084199992</v>
       </c>
     </row>
-    <row r="141" spans="1:6">
+    <row r="141" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A141" s="2">
         <v>6</v>
       </c>
       <c r="B141" s="2">
         <v>25</v>
       </c>
-      <c r="C141" s="3">
+      <c r="C141" s="7">
         <v>345.51640957954299</v>
       </c>
-      <c r="D141" s="3">
+      <c r="D141" s="7">
         <v>633.73</v>
       </c>
-      <c r="E141" s="3">
+      <c r="E141" s="7">
         <v>921.94359042045699</v>
       </c>
-      <c r="F141" s="3">
-        <v>1.8645879999999998E-6</v>
-      </c>
-    </row>
-    <row r="142" spans="1:6">
+      <c r="F141" s="7">
+        <v>1.8645879999999998E-6</v>
+      </c>
+    </row>
+    <row r="142" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A142" s="2">
         <v>6</v>
       </c>
       <c r="B142" s="2">
         <v>26</v>
       </c>
-      <c r="C142" s="3">
+      <c r="C142" s="7">
         <v>-55.743590420456997</v>
       </c>
-      <c r="D142" s="3">
+      <c r="D142" s="7">
         <v>232.47</v>
       </c>
-      <c r="E142" s="3">
+      <c r="E142" s="7">
         <v>520.68359042045699</v>
       </c>
-      <c r="F142" s="3">
+      <c r="F142" s="7">
         <v>0.35301162594999996</v>
       </c>
     </row>
-    <row r="143" spans="1:6">
+    <row r="143" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A143" s="2">
         <v>6</v>
       </c>
       <c r="B143" s="2">
         <v>27</v>
       </c>
-      <c r="C143" s="3">
+      <c r="C143" s="7">
         <v>-499.863590420457</v>
       </c>
-      <c r="D143" s="3">
+      <c r="D143" s="7">
         <v>-211.65</v>
       </c>
-      <c r="E143" s="3">
+      <c r="E143" s="7">
         <v>76.563590420457004</v>
       </c>
-      <c r="F143" s="3">
+      <c r="F143" s="7">
         <v>0.56344932862899999</v>
       </c>
     </row>
-    <row r="144" spans="1:6">
+    <row r="144" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A144" s="2">
         <v>7</v>
       </c>
       <c r="B144" s="2">
         <v>8</v>
       </c>
-      <c r="C144" s="3">
+      <c r="C144" s="7">
         <v>-686.423590420457</v>
       </c>
-      <c r="D144" s="3">
+      <c r="D144" s="7">
         <v>-398.21000000000004</v>
       </c>
-      <c r="E144" s="3">
+      <c r="E144" s="7">
         <v>-109.996409579543</v>
       </c>
-      <c r="F144" s="3">
+      <c r="F144" s="7">
         <v>1.09869527E-4</v>
       </c>
     </row>
-    <row r="145" spans="1:6">
+    <row r="145" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A145" s="2">
         <v>7</v>
       </c>
       <c r="B145" s="2">
         <v>9</v>
       </c>
-      <c r="C145" s="3">
+      <c r="C145" s="7">
         <v>-1265.5135904204499</v>
       </c>
-      <c r="D145" s="3">
+      <c r="D145" s="7">
         <v>-977.3</v>
       </c>
-      <c r="E145" s="3">
+      <c r="E145" s="7">
         <v>-689.08640957954299</v>
       </c>
-      <c r="F145" s="3">
-        <v>1.8645879999999998E-6</v>
-      </c>
-    </row>
-    <row r="146" spans="1:6">
+      <c r="F145" s="7">
+        <v>1.8645879999999998E-6</v>
+      </c>
+    </row>
+    <row r="146" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A146" s="2">
         <v>7</v>
       </c>
       <c r="B146" s="2">
         <v>10</v>
       </c>
-      <c r="C146" s="3">
+      <c r="C146" s="7">
         <v>-695.29359042045701</v>
       </c>
-      <c r="D146" s="3">
+      <c r="D146" s="7">
         <v>-407.08</v>
       </c>
-      <c r="E146" s="3">
+      <c r="E146" s="7">
         <v>-118.866409579543</v>
       </c>
-      <c r="F146" s="3">
+      <c r="F146" s="7">
         <v>6.090218E-5</v>
       </c>
     </row>
-    <row r="147" spans="1:6">
+    <row r="147" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A147" s="2">
         <v>7</v>
       </c>
       <c r="B147" s="2">
         <v>11</v>
       </c>
-      <c r="C147" s="3">
+      <c r="C147" s="7">
         <v>-964.53359042045702</v>
       </c>
-      <c r="D147" s="3">
+      <c r="D147" s="7">
         <v>-676.32</v>
       </c>
-      <c r="E147" s="3">
+      <c r="E147" s="7">
         <v>-388.10640957954303</v>
       </c>
-      <c r="F147" s="3">
-        <v>1.8645879999999998E-6</v>
-      </c>
-    </row>
-    <row r="148" spans="1:6">
+      <c r="F147" s="7">
+        <v>1.8645879999999998E-6</v>
+      </c>
+    </row>
+    <row r="148" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A148" s="2">
         <v>7</v>
       </c>
       <c r="B148" s="2">
         <v>12</v>
       </c>
-      <c r="C148" s="3">
+      <c r="C148" s="7">
         <v>-1204.0335904204501</v>
       </c>
-      <c r="D148" s="3">
+      <c r="D148" s="7">
         <v>-915.81999999999994</v>
       </c>
-      <c r="E148" s="3">
+      <c r="E148" s="7">
         <v>-627.60640957954297</v>
       </c>
-      <c r="F148" s="3">
-        <v>1.8645879999999998E-6</v>
-      </c>
-    </row>
-    <row r="149" spans="1:6">
+      <c r="F148" s="7">
+        <v>1.8645879999999998E-6</v>
+      </c>
+    </row>
+    <row r="149" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A149" s="2">
         <v>7</v>
       </c>
       <c r="B149" s="2">
         <v>13</v>
       </c>
-      <c r="C149" s="3">
+      <c r="C149" s="7">
         <v>-334.31359042045699</v>
       </c>
-      <c r="D149" s="3">
+      <c r="D149" s="7">
         <v>-46.1</v>
       </c>
-      <c r="E149" s="3">
+      <c r="E149" s="7">
         <v>242.113590420457</v>
       </c>
-      <c r="F149" s="3">
+      <c r="F149" s="7">
         <v>0.99999999999899991</v>
       </c>
     </row>
-    <row r="150" spans="1:6">
+    <row r="150" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A150" s="2">
         <v>7</v>
       </c>
       <c r="B150" s="2">
         <v>14</v>
       </c>
-      <c r="C150" s="3">
+      <c r="C150" s="7">
         <v>-756.23359042045706</v>
       </c>
-      <c r="D150" s="3">
+      <c r="D150" s="7">
         <v>-468.02</v>
       </c>
-      <c r="E150" s="3">
+      <c r="E150" s="7">
         <v>-179.80640957954299</v>
       </c>
-      <c r="F150" s="3">
+      <c r="F150" s="7">
         <v>2.4725659999999997E-6</v>
       </c>
     </row>
-    <row r="151" spans="1:6">
+    <row r="151" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A151" s="2">
         <v>7</v>
       </c>
       <c r="B151" s="2">
         <v>15</v>
       </c>
-      <c r="C151" s="3">
+      <c r="C151" s="7">
         <v>-1205.88359042045</v>
       </c>
-      <c r="D151" s="3">
+      <c r="D151" s="7">
         <v>-917.67</v>
       </c>
-      <c r="E151" s="3">
+      <c r="E151" s="7">
         <v>-629.45640957954299</v>
       </c>
-      <c r="F151" s="3">
-        <v>1.8645879999999998E-6</v>
-      </c>
-    </row>
-    <row r="152" spans="1:6">
+      <c r="F151" s="7">
+        <v>1.8645879999999998E-6</v>
+      </c>
+    </row>
+    <row r="152" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A152" s="2">
         <v>7</v>
       </c>
       <c r="B152" s="2">
         <v>16</v>
       </c>
-      <c r="C152" s="3">
+      <c r="C152" s="7">
         <v>-409.83359042045697</v>
       </c>
-      <c r="D152" s="3">
+      <c r="D152" s="7">
         <v>-121.62</v>
       </c>
-      <c r="E152" s="3">
+      <c r="E152" s="7">
         <v>166.59359042045699</v>
       </c>
-      <c r="F152" s="3">
+      <c r="F152" s="7">
         <v>0.99900341887699995</v>
       </c>
     </row>
-    <row r="153" spans="1:6">
+    <row r="153" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A153" s="2">
         <v>7</v>
       </c>
       <c r="B153" s="2">
         <v>17</v>
       </c>
-      <c r="C153" s="3">
+      <c r="C153" s="7">
         <v>-810.9435904204571</v>
       </c>
-      <c r="D153" s="3">
+      <c r="D153" s="7">
         <v>-522.73</v>
       </c>
-      <c r="E153" s="3">
+      <c r="E153" s="7">
         <v>-234.51640957954299</v>
       </c>
-      <c r="F153" s="3">
+      <c r="F153" s="7">
         <v>1.8697020000000001E-6</v>
       </c>
     </row>
-    <row r="154" spans="1:6">
+    <row r="154" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A154" s="2">
         <v>7</v>
       </c>
       <c r="B154" s="2">
         <v>18</v>
       </c>
-      <c r="C154" s="3">
+      <c r="C154" s="7">
         <v>-1335.2335904204499</v>
       </c>
-      <c r="D154" s="3">
+      <c r="D154" s="7">
         <v>-1047.02</v>
       </c>
-      <c r="E154" s="3">
+      <c r="E154" s="7">
         <v>-758.80640957954301</v>
       </c>
-      <c r="F154" s="3">
-        <v>1.8645879999999998E-6</v>
-      </c>
-    </row>
-    <row r="155" spans="1:6">
+      <c r="F154" s="7">
+        <v>1.8645879999999998E-6</v>
+      </c>
+    </row>
+    <row r="155" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A155" s="2">
         <v>7</v>
       </c>
       <c r="B155" s="2">
         <v>19</v>
       </c>
-      <c r="C155" s="3">
+      <c r="C155" s="7">
         <v>-834.1935904204571</v>
       </c>
-      <c r="D155" s="3">
+      <c r="D155" s="7">
         <v>-545.98</v>
       </c>
-      <c r="E155" s="3">
+      <c r="E155" s="7">
         <v>-257.76640957954299</v>
       </c>
-      <c r="F155" s="3">
+      <c r="F155" s="7">
         <v>1.8651310000000002E-6</v>
       </c>
     </row>
-    <row r="156" spans="1:6">
+    <row r="156" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A156" s="2">
         <v>7</v>
       </c>
       <c r="B156" s="2">
         <v>20</v>
       </c>
-      <c r="C156" s="3">
+      <c r="C156" s="7">
         <v>-1154.5235904204501</v>
       </c>
-      <c r="D156" s="3">
+      <c r="D156" s="7">
         <v>-866.31000000000006</v>
       </c>
-      <c r="E156" s="3">
+      <c r="E156" s="7">
         <v>-578.09640957954298</v>
       </c>
-      <c r="F156" s="3">
-        <v>1.8645879999999998E-6</v>
-      </c>
-    </row>
-    <row r="157" spans="1:6">
+      <c r="F156" s="7">
+        <v>1.8645879999999998E-6</v>
+      </c>
+    </row>
+    <row r="157" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A157" s="2">
         <v>7</v>
       </c>
       <c r="B157" s="2">
         <v>21</v>
       </c>
-      <c r="C157" s="3">
+      <c r="C157" s="7">
         <v>-1350.0535904204501</v>
       </c>
-      <c r="D157" s="3">
+      <c r="D157" s="7">
         <v>-1061.8399999999999</v>
       </c>
-      <c r="E157" s="3">
+      <c r="E157" s="7">
         <v>-773.62640957954295</v>
       </c>
-      <c r="F157" s="3">
-        <v>1.8645879999999998E-6</v>
-      </c>
-    </row>
-    <row r="158" spans="1:6">
+      <c r="F157" s="7">
+        <v>1.8645879999999998E-6</v>
+      </c>
+    </row>
+    <row r="158" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A158" s="2">
         <v>7</v>
       </c>
       <c r="B158" s="2">
         <v>22</v>
       </c>
-      <c r="C158" s="3">
+      <c r="C158" s="7">
         <v>-461.93359042045699</v>
       </c>
-      <c r="D158" s="3">
+      <c r="D158" s="7">
         <v>-173.72000000000003</v>
       </c>
-      <c r="E158" s="3">
+      <c r="E158" s="7">
         <v>114.493590420457</v>
       </c>
-      <c r="F158" s="3">
+      <c r="F158" s="7">
         <v>0.89543517116600002</v>
       </c>
     </row>
-    <row r="159" spans="1:6">
+    <row r="159" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A159" s="2">
         <v>7</v>
       </c>
       <c r="B159" s="2">
         <v>23</v>
       </c>
-      <c r="C159" s="3">
+      <c r="C159" s="7">
         <v>-848.02359042045703</v>
       </c>
-      <c r="D159" s="3">
+      <c r="D159" s="7">
         <v>-559.81000000000006</v>
       </c>
-      <c r="E159" s="3">
+      <c r="E159" s="7">
         <v>-271.59640957954304</v>
       </c>
-      <c r="F159" s="3">
+      <c r="F159" s="7">
         <v>1.8647219999999999E-6</v>
       </c>
     </row>
-    <row r="160" spans="1:6">
+    <row r="160" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A160" s="2">
         <v>7</v>
       </c>
       <c r="B160" s="2">
         <v>24</v>
       </c>
-      <c r="C160" s="3">
+      <c r="C160" s="7">
         <v>-1311.13359042045</v>
       </c>
-      <c r="D160" s="3">
+      <c r="D160" s="7">
         <v>-1022.9200000000001</v>
       </c>
-      <c r="E160" s="3">
+      <c r="E160" s="7">
         <v>-734.70640957954299</v>
       </c>
-      <c r="F160" s="3">
-        <v>1.8645879999999998E-6</v>
-      </c>
-    </row>
-    <row r="161" spans="1:6">
+      <c r="F160" s="7">
+        <v>1.8645879999999998E-6</v>
+      </c>
+    </row>
+    <row r="161" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A161" s="2">
         <v>7</v>
       </c>
       <c r="B161" s="2">
         <v>25</v>
       </c>
-      <c r="C161" s="3">
+      <c r="C161" s="7">
         <v>-514.03359042045702</v>
       </c>
-      <c r="D161" s="3">
+      <c r="D161" s="7">
         <v>-225.82</v>
       </c>
-      <c r="E161" s="3">
+      <c r="E161" s="7">
         <v>62.393590420457002</v>
       </c>
-      <c r="F161" s="3">
+      <c r="F161" s="7">
         <v>0.41679991478699996</v>
       </c>
     </row>
-    <row r="162" spans="1:6">
+    <row r="162" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A162" s="2">
         <v>7</v>
       </c>
       <c r="B162" s="2">
         <v>26</v>
       </c>
-      <c r="C162" s="3">
+      <c r="C162" s="7">
         <v>-915.29359042045701</v>
       </c>
-      <c r="D162" s="3">
+      <c r="D162" s="7">
         <v>-627.07999999999993</v>
       </c>
-      <c r="E162" s="3">
+      <c r="E162" s="7">
         <v>-338.86640957954302</v>
       </c>
-      <c r="F162" s="3">
-        <v>1.8645879999999998E-6</v>
-      </c>
-    </row>
-    <row r="163" spans="1:6">
+      <c r="F162" s="7">
+        <v>1.8645879999999998E-6</v>
+      </c>
+    </row>
+    <row r="163" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A163" s="2">
         <v>7</v>
       </c>
       <c r="B163" s="2">
         <v>27</v>
       </c>
-      <c r="C163" s="3">
+      <c r="C163" s="7">
         <v>-1359.41359042045</v>
       </c>
-      <c r="D163" s="3">
+      <c r="D163" s="7">
         <v>-1071.1999999999998</v>
       </c>
-      <c r="E163" s="3">
+      <c r="E163" s="7">
         <v>-782.98640957954296</v>
       </c>
-      <c r="F163" s="3">
-        <v>1.8645879999999998E-6</v>
-      </c>
-    </row>
-    <row r="164" spans="1:6">
+      <c r="F163" s="7">
+        <v>1.8645879999999998E-6</v>
+      </c>
+    </row>
+    <row r="164" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A164" s="2">
         <v>8</v>
       </c>
       <c r="B164" s="2">
         <v>9</v>
       </c>
-      <c r="C164" s="3">
+      <c r="C164" s="7">
         <v>-867.303590420457</v>
       </c>
-      <c r="D164" s="3">
+      <c r="D164" s="7">
         <v>-579.09</v>
       </c>
-      <c r="E164" s="3">
+      <c r="E164" s="7">
         <v>-290.87640957954301</v>
       </c>
-      <c r="F164" s="3">
+      <c r="F164" s="7">
         <v>1.8646059999999999E-6</v>
       </c>
     </row>
-    <row r="165" spans="1:6">
+    <row r="165" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A165" s="2">
         <v>8</v>
       </c>
       <c r="B165" s="2">
         <v>10</v>
       </c>
-      <c r="C165" s="3">
+      <c r="C165" s="7">
         <v>-297.08359042045703</v>
       </c>
-      <c r="D165" s="3">
+      <c r="D165" s="7">
         <v>-8.8699999999999992</v>
       </c>
-      <c r="E165" s="3">
+      <c r="E165" s="7">
         <v>279.34359042045696</v>
       </c>
-      <c r="F165" s="3">
+      <c r="F165" s="7">
         <v>1</v>
       </c>
     </row>
-    <row r="166" spans="1:6">
+    <row r="166" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A166" s="2">
         <v>8</v>
       </c>
       <c r="B166" s="2">
         <v>11</v>
       </c>
-      <c r="C166" s="3">
+      <c r="C166" s="7">
         <v>-566.32359042045698</v>
       </c>
-      <c r="D166" s="3">
+      <c r="D166" s="7">
         <v>-278.11</v>
       </c>
-      <c r="E166" s="3">
+      <c r="E166" s="7">
         <v>10.103590420457</v>
       </c>
-      <c r="F166" s="3">
+      <c r="F166" s="7">
         <v>7.6300303803999991E-2</v>
       </c>
     </row>
-    <row r="167" spans="1:6">
+    <row r="167" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A167" s="2">
         <v>8</v>
       </c>
       <c r="B167" s="2">
         <v>12</v>
       </c>
-      <c r="C167" s="3">
+      <c r="C167" s="7">
         <v>-805.82359042045698</v>
       </c>
-      <c r="D167" s="3">
+      <c r="D167" s="7">
         <v>-517.61</v>
       </c>
-      <c r="E167" s="3">
+      <c r="E167" s="7">
         <v>-229.39640957954299</v>
       </c>
-      <c r="F167" s="3">
+      <c r="F167" s="7">
         <v>1.872821E-6</v>
       </c>
     </row>
-    <row r="168" spans="1:6">
+    <row r="168" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A168" s="2">
         <v>8</v>
       </c>
       <c r="B168" s="2">
         <v>13</v>
       </c>
-      <c r="C168" s="3">
+      <c r="C168" s="7">
         <v>63.896409579542997</v>
       </c>
-      <c r="D168" s="3">
+      <c r="D168" s="7">
         <v>352.10999999999996</v>
       </c>
-      <c r="E168" s="3">
+      <c r="E168" s="7">
         <v>640.32359042045698</v>
       </c>
-      <c r="F168" s="3">
+      <c r="F168" s="7">
         <v>1.9383777629999998E-3</v>
       </c>
     </row>
-    <row r="169" spans="1:6">
+    <row r="169" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A169" s="2">
         <v>8</v>
       </c>
       <c r="B169" s="2">
         <v>14</v>
       </c>
-      <c r="C169" s="3">
+      <c r="C169" s="7">
         <v>-358.02359042045703</v>
       </c>
-      <c r="D169" s="3">
+      <c r="D169" s="7">
         <v>-69.81</v>
       </c>
-      <c r="E169" s="3">
+      <c r="E169" s="7">
         <v>218.40359042045702</v>
       </c>
-      <c r="F169" s="3">
+      <c r="F169" s="7">
         <v>0.999999983604</v>
       </c>
     </row>
-    <row r="170" spans="1:6">
+    <row r="170" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A170" s="2">
         <v>8</v>
       </c>
       <c r="B170" s="2">
         <v>15</v>
       </c>
-      <c r="C170" s="3">
+      <c r="C170" s="7">
         <v>-807.673590420457</v>
       </c>
-      <c r="D170" s="3">
+      <c r="D170" s="7">
         <v>-519.46</v>
       </c>
-      <c r="E170" s="3">
+      <c r="E170" s="7">
         <v>-231.24640957954301</v>
       </c>
-      <c r="F170" s="3">
+      <c r="F170" s="7">
         <v>1.8715250000000001E-6</v>
       </c>
     </row>
-    <row r="171" spans="1:6">
+    <row r="171" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A171" s="2">
         <v>8</v>
       </c>
       <c r="B171" s="2">
         <v>16</v>
       </c>
-      <c r="C171" s="3">
+      <c r="C171" s="7">
         <v>-11.623590420457001</v>
       </c>
-      <c r="D171" s="3">
+      <c r="D171" s="7">
         <v>276.58999999999997</v>
       </c>
-      <c r="E171" s="3">
+      <c r="E171" s="7">
         <v>564.803590420457</v>
       </c>
-      <c r="F171" s="3">
+      <c r="F171" s="7">
         <v>8.1112579614000008E-2</v>
       </c>
     </row>
-    <row r="172" spans="1:6">
+    <row r="172" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A172" s="2">
         <v>8</v>
       </c>
       <c r="B172" s="2">
         <v>17</v>
       </c>
-      <c r="C172" s="3">
+      <c r="C172" s="7">
         <v>-412.73359042045701</v>
       </c>
-      <c r="D172" s="3">
+      <c r="D172" s="7">
         <v>-124.52000000000001</v>
       </c>
-      <c r="E172" s="3">
+      <c r="E172" s="7">
         <v>163.69359042045701</v>
       </c>
-      <c r="F172" s="3">
+      <c r="F172" s="7">
         <v>0.9985417688249999</v>
       </c>
     </row>
-    <row r="173" spans="1:6">
+    <row r="173" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A173" s="2">
         <v>8</v>
       </c>
       <c r="B173" s="2">
         <v>18</v>
       </c>
-      <c r="C173" s="3">
+      <c r="C173" s="7">
         <v>-937.02359042045703</v>
       </c>
-      <c r="D173" s="3">
+      <c r="D173" s="7">
         <v>-648.80999999999995</v>
       </c>
-      <c r="E173" s="3">
+      <c r="E173" s="7">
         <v>-360.59640957954298</v>
       </c>
-      <c r="F173" s="3">
-        <v>1.8645879999999998E-6</v>
-      </c>
-    </row>
-    <row r="174" spans="1:6">
+      <c r="F173" s="7">
+        <v>1.8645879999999998E-6</v>
+      </c>
+    </row>
+    <row r="174" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A174" s="2">
         <v>8</v>
       </c>
       <c r="B174" s="2">
         <v>19</v>
       </c>
-      <c r="C174" s="3">
+      <c r="C174" s="7">
         <v>-435.98359042045701</v>
       </c>
-      <c r="D174" s="3">
+      <c r="D174" s="7">
         <v>-147.77000000000001</v>
       </c>
-      <c r="E174" s="3">
+      <c r="E174" s="7">
         <v>140.44359042045701</v>
       </c>
-      <c r="F174" s="3">
+      <c r="F174" s="7">
         <v>0.98274191522299992</v>
       </c>
     </row>
-    <row r="175" spans="1:6">
+    <row r="175" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A175" s="2">
         <v>8</v>
       </c>
       <c r="B175" s="2">
         <v>20</v>
       </c>
-      <c r="C175" s="3">
+      <c r="C175" s="7">
         <v>-756.31359042045699</v>
       </c>
-      <c r="D175" s="3">
+      <c r="D175" s="7">
         <v>-468.1</v>
       </c>
-      <c r="E175" s="3">
+      <c r="E175" s="7">
         <v>-179.886409579543</v>
       </c>
-      <c r="F175" s="3">
+      <c r="F175" s="7">
         <v>2.468623E-6</v>
       </c>
     </row>
-    <row r="176" spans="1:6">
+    <row r="176" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A176" s="2">
         <v>8</v>
       </c>
       <c r="B176" s="2">
         <v>21</v>
       </c>
-      <c r="C176" s="3">
+      <c r="C176" s="7">
         <v>-951.84359042045696</v>
       </c>
-      <c r="D176" s="3">
+      <c r="D176" s="7">
         <v>-663.63000000000011</v>
       </c>
-      <c r="E176" s="3">
+      <c r="E176" s="7">
         <v>-375.41640957954297</v>
       </c>
-      <c r="F176" s="3">
-        <v>1.8645879999999998E-6</v>
-      </c>
-    </row>
-    <row r="177" spans="1:6">
+      <c r="F176" s="7">
+        <v>1.8645879999999998E-6</v>
+      </c>
+    </row>
+    <row r="177" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A177" s="2">
         <v>8</v>
       </c>
       <c r="B177" s="2">
         <v>22</v>
       </c>
-      <c r="C177" s="3">
+      <c r="C177" s="7">
         <v>-63.723590420457001</v>
       </c>
-      <c r="D177" s="3">
+      <c r="D177" s="7">
         <v>224.49</v>
       </c>
-      <c r="E177" s="3">
+      <c r="E177" s="7">
         <v>512.70359042045698</v>
       </c>
-      <c r="F177" s="3">
+      <c r="F177" s="7">
         <v>0.43007377708400002</v>
       </c>
     </row>
-    <row r="178" spans="1:6">
+    <row r="178" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A178" s="2">
         <v>8</v>
       </c>
       <c r="B178" s="2">
         <v>23</v>
       </c>
-      <c r="C178" s="3">
+      <c r="C178" s="7">
         <v>-449.81359042045699</v>
       </c>
-      <c r="D178" s="3">
+      <c r="D178" s="7">
         <v>-161.6</v>
       </c>
-      <c r="E178" s="3">
+      <c r="E178" s="7">
         <v>126.613590420457</v>
       </c>
-      <c r="F178" s="3">
+      <c r="F178" s="7">
         <v>0.94995047392800003</v>
       </c>
     </row>
-    <row r="179" spans="1:6">
+    <row r="179" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A179" s="2">
         <v>8</v>
       </c>
       <c r="B179" s="2">
         <v>24</v>
       </c>
-      <c r="C179" s="3">
+      <c r="C179" s="7">
         <v>-912.923590420457</v>
       </c>
-      <c r="D179" s="3">
+      <c r="D179" s="7">
         <v>-624.71</v>
       </c>
-      <c r="E179" s="3">
+      <c r="E179" s="7">
         <v>-336.49640957954301</v>
       </c>
-      <c r="F179" s="3">
-        <v>1.8645879999999998E-6</v>
-      </c>
-    </row>
-    <row r="180" spans="1:6">
+      <c r="F179" s="7">
+        <v>1.8645879999999998E-6</v>
+      </c>
+    </row>
+    <row r="180" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A180" s="2">
         <v>8</v>
       </c>
       <c r="B180" s="2">
         <v>25</v>
       </c>
-      <c r="C180" s="3">
+      <c r="C180" s="7">
         <v>-115.82359042045701</v>
       </c>
-      <c r="D180" s="3">
+      <c r="D180" s="7">
         <v>172.39</v>
       </c>
-      <c r="E180" s="3">
+      <c r="E180" s="7">
         <v>460.60359042045701</v>
       </c>
-      <c r="F180" s="3">
+      <c r="F180" s="7">
         <v>0.90278671239499997</v>
       </c>
     </row>
-    <row r="181" spans="1:6">
+    <row r="181" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A181" s="2">
         <v>8</v>
       </c>
       <c r="B181" s="2">
         <v>26</v>
       </c>
-      <c r="C181" s="3">
+      <c r="C181" s="7">
         <v>-517.08359042045709</v>
       </c>
-      <c r="D181" s="3">
+      <c r="D181" s="7">
         <v>-228.86999999999998</v>
       </c>
-      <c r="E181" s="3">
+      <c r="E181" s="7">
         <v>59.343590420456998</v>
       </c>
-      <c r="F181" s="3">
+      <c r="F181" s="7">
         <v>0.38697102716999998</v>
       </c>
     </row>
-    <row r="182" spans="1:6">
+    <row r="182" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A182" s="2">
         <v>8</v>
       </c>
       <c r="B182" s="2">
         <v>27</v>
       </c>
-      <c r="C182" s="3">
+      <c r="C182" s="7">
         <v>-961.20359042045698</v>
       </c>
-      <c r="D182" s="3">
+      <c r="D182" s="7">
         <v>-672.99</v>
       </c>
-      <c r="E182" s="3">
+      <c r="E182" s="7">
         <v>-384.77640957954299</v>
       </c>
-      <c r="F182" s="3">
-        <v>1.8645879999999998E-6</v>
-      </c>
-    </row>
-    <row r="183" spans="1:6">
+      <c r="F182" s="7">
+        <v>1.8645879999999998E-6</v>
+      </c>
+    </row>
+    <row r="183" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A183" s="2">
         <v>9</v>
       </c>
       <c r="B183" s="2">
         <v>10</v>
       </c>
-      <c r="C183" s="3">
+      <c r="C183" s="7">
         <v>282.006409579543</v>
       </c>
-      <c r="D183" s="3">
+      <c r="D183" s="7">
         <v>570.21999999999991</v>
       </c>
-      <c r="E183" s="3">
+      <c r="E183" s="7">
         <v>858.43359042045699</v>
       </c>
-      <c r="F183" s="3">
+      <c r="F183" s="7">
         <v>1.8646330000000002E-6</v>
       </c>
     </row>
-    <row r="184" spans="1:6">
+    <row r="184" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A184" s="2">
         <v>9</v>
       </c>
       <c r="B184" s="2">
         <v>11</v>
       </c>
-      <c r="C184" s="3">
+      <c r="C184" s="7">
         <v>12.766409579543</v>
       </c>
-      <c r="D184" s="3">
+      <c r="D184" s="7">
         <v>300.98</v>
       </c>
-      <c r="E184" s="3">
+      <c r="E184" s="7">
         <v>589.1935904204571</v>
       </c>
-      <c r="F184" s="3">
+      <c r="F184" s="7">
         <v>2.8206159593000001E-2</v>
       </c>
     </row>
-    <row r="185" spans="1:6">
+    <row r="185" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A185" s="2">
         <v>9</v>
       </c>
       <c r="B185" s="2">
         <v>12</v>
       </c>
-      <c r="C185" s="3">
+      <c r="C185" s="7">
         <v>-226.73359042045698</v>
       </c>
-      <c r="D185" s="3">
+      <c r="D185" s="7">
         <v>61.48</v>
       </c>
-      <c r="E185" s="3">
+      <c r="E185" s="7">
         <v>349.69359042045699</v>
       </c>
-      <c r="F185" s="3">
+      <c r="F185" s="7">
         <v>0.99999999910100001</v>
       </c>
     </row>
-    <row r="186" spans="1:6">
+    <row r="186" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A186" s="2">
         <v>9</v>
       </c>
       <c r="B186" s="2">
         <v>13</v>
       </c>
-      <c r="C186" s="3">
+      <c r="C186" s="7">
         <v>642.98640957954296</v>
       </c>
-      <c r="D186" s="3">
+      <c r="D186" s="7">
         <v>931.2</v>
       </c>
-      <c r="E186" s="3">
+      <c r="E186" s="7">
         <v>1219.41359042045</v>
       </c>
-      <c r="F186" s="3">
-        <v>1.8645879999999998E-6</v>
-      </c>
-    </row>
-    <row r="187" spans="1:6">
+      <c r="F186" s="7">
+        <v>1.8645879999999998E-6</v>
+      </c>
+    </row>
+    <row r="187" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A187" s="2">
         <v>9</v>
       </c>
       <c r="B187" s="2">
         <v>14</v>
       </c>
-      <c r="C187" s="3">
+      <c r="C187" s="7">
         <v>221.06640957954298</v>
       </c>
-      <c r="D187" s="3">
+      <c r="D187" s="7">
         <v>509.28</v>
       </c>
-      <c r="E187" s="3">
+      <c r="E187" s="7">
         <v>797.49359042045694</v>
       </c>
-      <c r="F187" s="3">
+      <c r="F187" s="7">
         <v>1.8822189999999998E-6</v>
       </c>
     </row>
-    <row r="188" spans="1:6">
+    <row r="188" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A188" s="2">
         <v>9</v>
       </c>
       <c r="B188" s="2">
         <v>15</v>
       </c>
-      <c r="C188" s="3">
+      <c r="C188" s="7">
         <v>-228.583590420457</v>
       </c>
-      <c r="D188" s="3">
+      <c r="D188" s="7">
         <v>59.63</v>
       </c>
-      <c r="E188" s="3">
+      <c r="E188" s="7">
         <v>347.84359042045696</v>
       </c>
-      <c r="F188" s="3">
+      <c r="F188" s="7">
         <v>0.99999999955899987</v>
       </c>
     </row>
-    <row r="189" spans="1:6">
+    <row r="189" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A189" s="2">
         <v>9</v>
       </c>
       <c r="B189" s="2">
         <v>16</v>
       </c>
-      <c r="C189" s="3">
+      <c r="C189" s="7">
         <v>567.46640957954298</v>
       </c>
-      <c r="D189" s="3">
+      <c r="D189" s="7">
         <v>855.68</v>
       </c>
-      <c r="E189" s="3">
+      <c r="E189" s="7">
         <v>1143.89359042045</v>
       </c>
-      <c r="F189" s="3">
-        <v>1.8645879999999998E-6</v>
-      </c>
-    </row>
-    <row r="190" spans="1:6">
+      <c r="F189" s="7">
+        <v>1.8645879999999998E-6</v>
+      </c>
+    </row>
+    <row r="190" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A190" s="2">
         <v>9</v>
       </c>
       <c r="B190" s="2">
         <v>17</v>
       </c>
-      <c r="C190" s="3">
+      <c r="C190" s="7">
         <v>166.356409579543</v>
       </c>
-      <c r="D190" s="3">
+      <c r="D190" s="7">
         <v>454.57</v>
       </c>
-      <c r="E190" s="3">
+      <c r="E190" s="7">
         <v>742.78359042045702</v>
       </c>
-      <c r="F190" s="3">
+      <c r="F190" s="7">
         <v>3.6456930000000001E-6</v>
       </c>
     </row>
-    <row r="191" spans="1:6">
+    <row r="191" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A191" s="2">
         <v>9</v>
       </c>
       <c r="B191" s="2">
         <v>18</v>
       </c>
-      <c r="C191" s="3">
+      <c r="C191" s="7">
         <v>-357.93359042045705</v>
       </c>
-      <c r="D191" s="3">
+      <c r="D191" s="7">
         <v>-69.72</v>
       </c>
-      <c r="E191" s="3">
+      <c r="E191" s="7">
         <v>218.493590420457</v>
       </c>
-      <c r="F191" s="3">
+      <c r="F191" s="7">
         <v>0.99999998407300006</v>
       </c>
     </row>
-    <row r="192" spans="1:6">
+    <row r="192" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A192" s="2">
         <v>9</v>
       </c>
       <c r="B192" s="2">
         <v>19</v>
       </c>
-      <c r="C192" s="3">
+      <c r="C192" s="7">
         <v>143.106409579543</v>
       </c>
-      <c r="D192" s="3">
+      <c r="D192" s="7">
         <v>431.32</v>
       </c>
-      <c r="E192" s="3">
+      <c r="E192" s="7">
         <v>719.5335904204569</v>
       </c>
-      <c r="F192" s="3">
+      <c r="F192" s="7">
         <v>1.2326658E-5</v>
       </c>
     </row>
-    <row r="193" spans="1:6">
+    <row r="193" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A193" s="2">
         <v>9</v>
       </c>
       <c r="B193" s="2">
         <v>20</v>
       </c>
-      <c r="C193" s="3">
+      <c r="C193" s="7">
         <v>-177.22359042045699</v>
       </c>
-      <c r="D193" s="3">
+      <c r="D193" s="7">
         <v>110.99000000000001</v>
       </c>
-      <c r="E193" s="3">
+      <c r="E193" s="7">
         <v>399.20359042045698</v>
       </c>
-      <c r="F193" s="3">
+      <c r="F193" s="7">
         <v>0.99979058528700004</v>
       </c>
     </row>
-    <row r="194" spans="1:6">
+    <row r="194" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A194" s="2">
         <v>9</v>
       </c>
       <c r="B194" s="2">
         <v>21</v>
       </c>
-      <c r="C194" s="3">
+      <c r="C194" s="7">
         <v>-372.75359042045704</v>
       </c>
-      <c r="D194" s="3">
+      <c r="D194" s="7">
         <v>-84.54</v>
       </c>
-      <c r="E194" s="3">
+      <c r="E194" s="7">
         <v>203.673590420457</v>
       </c>
-      <c r="F194" s="3">
+      <c r="F194" s="7">
         <v>0.99999894813500001</v>
       </c>
     </row>
-    <row r="195" spans="1:6">
+    <row r="195" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A195" s="2">
         <v>9</v>
       </c>
       <c r="B195" s="2">
         <v>22</v>
       </c>
-      <c r="C195" s="3">
+      <c r="C195" s="7">
         <v>515.36640957954307</v>
       </c>
-      <c r="D195" s="3">
+      <c r="D195" s="7">
         <v>803.57999999999993</v>
       </c>
-      <c r="E195" s="3">
+      <c r="E195" s="7">
         <v>1091.7935904204501</v>
       </c>
-      <c r="F195" s="3">
-        <v>1.8645879999999998E-6</v>
-      </c>
-    </row>
-    <row r="196" spans="1:6">
+      <c r="F195" s="7">
+        <v>1.8645879999999998E-6</v>
+      </c>
+    </row>
+    <row r="196" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A196" s="2">
         <v>9</v>
       </c>
       <c r="B196" s="2">
         <v>23</v>
       </c>
-      <c r="C196" s="3">
+      <c r="C196" s="7">
         <v>129.27640957954301</v>
       </c>
-      <c r="D196" s="3">
+      <c r="D196" s="7">
         <v>417.49</v>
       </c>
-      <c r="E196" s="3">
+      <c r="E196" s="7">
         <v>705.70359042045709</v>
       </c>
-      <c r="F196" s="3">
+      <c r="F196" s="7">
         <v>3.0349406000000001E-5</v>
       </c>
     </row>
-    <row r="197" spans="1:6">
+    <row r="197" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A197" s="2">
         <v>9</v>
       </c>
       <c r="B197" s="2">
         <v>24</v>
       </c>
-      <c r="C197" s="3">
+      <c r="C197" s="7">
         <v>-333.83359042045703</v>
       </c>
-      <c r="D197" s="3">
+      <c r="D197" s="7">
         <v>-45.62</v>
       </c>
-      <c r="E197" s="3">
+      <c r="E197" s="7">
         <v>242.59359042045699</v>
       </c>
-      <c r="F197" s="3">
+      <c r="F197" s="7">
         <v>0.99999999999899991</v>
       </c>
     </row>
-    <row r="198" spans="1:6">
+    <row r="198" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A198" s="2">
         <v>9</v>
       </c>
       <c r="B198" s="2">
         <v>25</v>
       </c>
-      <c r="C198" s="3">
+      <c r="C198" s="7">
         <v>463.26640957954299</v>
       </c>
-      <c r="D198" s="3">
+      <c r="D198" s="7">
         <v>751.48</v>
       </c>
-      <c r="E198" s="3">
+      <c r="E198" s="7">
         <v>1039.6935904204502</v>
       </c>
-      <c r="F198" s="3">
-        <v>1.8645879999999998E-6</v>
-      </c>
-    </row>
-    <row r="199" spans="1:6">
+      <c r="F198" s="7">
+        <v>1.8645879999999998E-6</v>
+      </c>
+    </row>
+    <row r="199" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A199" s="2">
         <v>9</v>
       </c>
       <c r="B199" s="2">
         <v>26</v>
       </c>
-      <c r="C199" s="3">
+      <c r="C199" s="7">
         <v>62.006409579543003</v>
       </c>
-      <c r="D199" s="3">
+      <c r="D199" s="7">
         <v>350.21999999999997</v>
       </c>
-      <c r="E199" s="3">
+      <c r="E199" s="7">
         <v>638.43359042045699</v>
       </c>
-      <c r="F199" s="3">
+      <c r="F199" s="7">
         <v>2.1617433750000001E-3</v>
       </c>
     </row>
-    <row r="200" spans="1:6">
+    <row r="200" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A200" s="2">
         <v>9</v>
       </c>
       <c r="B200" s="2">
         <v>27</v>
       </c>
-      <c r="C200" s="3">
+      <c r="C200" s="7">
         <v>-382.113590420457</v>
       </c>
-      <c r="D200" s="3">
+      <c r="D200" s="7">
         <v>-93.899999999999991</v>
       </c>
-      <c r="E200" s="3">
+      <c r="E200" s="7">
         <v>194.31359042045702</v>
       </c>
-      <c r="F200" s="3">
+      <c r="F200" s="7">
         <v>0.99999103213400009</v>
       </c>
     </row>
-    <row r="201" spans="1:6">
+    <row r="201" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A201" s="2">
         <v>10</v>
       </c>
       <c r="B201" s="2">
         <v>11</v>
       </c>
-      <c r="C201" s="3">
+      <c r="C201" s="7">
         <v>-557.45359042045698</v>
       </c>
-      <c r="D201" s="3">
+      <c r="D201" s="7">
         <v>-269.23999999999995</v>
       </c>
-      <c r="E201" s="3">
+      <c r="E201" s="7">
         <v>18.973590420457001</v>
       </c>
-      <c r="F201" s="3">
+      <c r="F201" s="7">
         <v>0.10802273068700001</v>
       </c>
     </row>
-    <row r="202" spans="1:6">
+    <row r="202" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A202" s="2">
         <v>10</v>
       </c>
       <c r="B202" s="2">
         <v>12</v>
       </c>
-      <c r="C202" s="3">
+      <c r="C202" s="7">
         <v>-796.95359042045698</v>
       </c>
-      <c r="D202" s="3">
+      <c r="D202" s="7">
         <v>-508.73999999999995</v>
       </c>
-      <c r="E202" s="3">
+      <c r="E202" s="7">
         <v>-220.52640957954301</v>
       </c>
-      <c r="F202" s="3">
+      <c r="F202" s="7">
         <v>1.883101E-6</v>
       </c>
     </row>
-    <row r="203" spans="1:6">
+    <row r="203" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A203" s="2">
         <v>10</v>
       </c>
       <c r="B203" s="2">
         <v>13</v>
       </c>
-      <c r="C203" s="3">
+      <c r="C203" s="7">
         <v>72.766409579542994</v>
       </c>
-      <c r="D203" s="3">
+      <c r="D203" s="7">
         <v>360.98</v>
       </c>
-      <c r="E203" s="3">
+      <c r="E203" s="7">
         <v>649.19359042045699</v>
       </c>
-      <c r="F203" s="3">
+      <c r="F203" s="7">
         <v>1.1507083190000001E-3</v>
       </c>
     </row>
-    <row r="204" spans="1:6">
+    <row r="204" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A204" s="2">
         <v>10</v>
       </c>
       <c r="B204" s="2">
         <v>14</v>
       </c>
-      <c r="C204" s="3">
+      <c r="C204" s="7">
         <v>-349.15359042045702</v>
       </c>
-      <c r="D204" s="3">
+      <c r="D204" s="7">
         <v>-60.94</v>
       </c>
-      <c r="E204" s="3">
+      <c r="E204" s="7">
         <v>227.273590420457</v>
       </c>
-      <c r="F204" s="3">
+      <c r="F204" s="7">
         <v>0.99999999926800009</v>
       </c>
     </row>
-    <row r="205" spans="1:6">
+    <row r="205" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A205" s="2">
         <v>10</v>
       </c>
       <c r="B205" s="2">
         <v>15</v>
       </c>
-      <c r="C205" s="3">
+      <c r="C205" s="7">
         <v>-798.803590420457</v>
       </c>
-      <c r="D205" s="3">
+      <c r="D205" s="7">
         <v>-510.59</v>
       </c>
-      <c r="E205" s="3">
+      <c r="E205" s="7">
         <v>-222.37640957954301</v>
       </c>
-      <c r="F205" s="3">
+      <c r="F205" s="7">
         <v>1.880246E-6</v>
       </c>
     </row>
-    <row r="206" spans="1:6">
+    <row r="206" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A206" s="2">
         <v>10</v>
       </c>
       <c r="B206" s="2">
         <v>16</v>
       </c>
-      <c r="C206" s="3">
+      <c r="C206" s="7">
         <v>-2.7535904204570003</v>
       </c>
-      <c r="D206" s="3">
+      <c r="D206" s="7">
         <v>285.45999999999998</v>
       </c>
-      <c r="E206" s="3">
+      <c r="E206" s="7">
         <v>573.673590420457</v>
       </c>
-      <c r="F206" s="3">
+      <c r="F206" s="7">
         <v>5.6257846076999997E-2</v>
       </c>
     </row>
-    <row r="207" spans="1:6">
+    <row r="207" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A207" s="2">
         <v>10</v>
       </c>
       <c r="B207" s="2">
         <v>17</v>
       </c>
-      <c r="C207" s="3">
+      <c r="C207" s="7">
         <v>-403.863590420457</v>
       </c>
-      <c r="D207" s="3">
+      <c r="D207" s="7">
         <v>-115.65</v>
       </c>
-      <c r="E207" s="3">
+      <c r="E207" s="7">
         <v>172.56359042045699</v>
       </c>
-      <c r="F207" s="3">
+      <c r="F207" s="7">
         <v>0.99957095760500003</v>
       </c>
     </row>
-    <row r="208" spans="1:6">
+    <row r="208" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A208" s="2">
         <v>10</v>
       </c>
       <c r="B208" s="2">
         <v>18</v>
       </c>
-      <c r="C208" s="3">
+      <c r="C208" s="7">
         <v>-928.15359042045702</v>
       </c>
-      <c r="D208" s="3">
+      <c r="D208" s="7">
         <v>-639.93999999999994</v>
       </c>
-      <c r="E208" s="3">
+      <c r="E208" s="7">
         <v>-351.72640957954297</v>
       </c>
-      <c r="F208" s="3">
-        <v>1.8645879999999998E-6</v>
-      </c>
-    </row>
-    <row r="209" spans="1:6">
+      <c r="F208" s="7">
+        <v>1.8645879999999998E-6</v>
+      </c>
+    </row>
+    <row r="209" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A209" s="2">
         <v>10</v>
       </c>
       <c r="B209" s="2">
         <v>19</v>
       </c>
-      <c r="C209" s="3">
+      <c r="C209" s="7">
         <v>-427.113590420457</v>
       </c>
-      <c r="D209" s="3">
+      <c r="D209" s="7">
         <v>-138.9</v>
       </c>
-      <c r="E209" s="3">
+      <c r="E209" s="7">
         <v>149.31359042045699</v>
       </c>
-      <c r="F209" s="3">
+      <c r="F209" s="7">
         <v>0.992481115247</v>
       </c>
     </row>
-    <row r="210" spans="1:6">
+    <row r="210" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A210" s="2">
         <v>10</v>
       </c>
       <c r="B210" s="2">
         <v>20</v>
       </c>
-      <c r="C210" s="3">
+      <c r="C210" s="7">
         <v>-747.4435904204571</v>
       </c>
-      <c r="D210" s="3">
+      <c r="D210" s="7">
         <v>-459.23</v>
       </c>
-      <c r="E210" s="3">
+      <c r="E210" s="7">
         <v>-171.01640957954299</v>
       </c>
-      <c r="F210" s="3">
+      <c r="F210" s="7">
         <v>3.097148E-6</v>
       </c>
     </row>
-    <row r="211" spans="1:6">
+    <row r="211" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A211" s="2">
         <v>10</v>
       </c>
       <c r="B211" s="2">
         <v>21</v>
       </c>
-      <c r="C211" s="3">
+      <c r="C211" s="7">
         <v>-942.97359042045707</v>
       </c>
-      <c r="D211" s="3">
+      <c r="D211" s="7">
         <v>-654.76</v>
       </c>
-      <c r="E211" s="3">
+      <c r="E211" s="7">
         <v>-366.54640957954297</v>
       </c>
-      <c r="F211" s="3">
-        <v>1.8645879999999998E-6</v>
-      </c>
-    </row>
-    <row r="212" spans="1:6">
+      <c r="F211" s="7">
+        <v>1.8645879999999998E-6</v>
+      </c>
+    </row>
+    <row r="212" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A212" s="2">
         <v>10</v>
       </c>
       <c r="B212" s="2">
         <v>22</v>
       </c>
-      <c r="C212" s="3">
+      <c r="C212" s="7">
         <v>-54.853590420457003</v>
       </c>
-      <c r="D212" s="3">
+      <c r="D212" s="7">
         <v>233.36</v>
       </c>
-      <c r="E212" s="3">
+      <c r="E212" s="7">
         <v>521.57359042045698</v>
       </c>
-      <c r="F212" s="3">
+      <c r="F212" s="7">
         <v>0.34484604645299999</v>
       </c>
     </row>
-    <row r="213" spans="1:6">
+    <row r="213" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A213" s="2">
         <v>10</v>
       </c>
       <c r="B213" s="2">
         <v>23</v>
       </c>
-      <c r="C213" s="3">
+      <c r="C213" s="7">
         <v>-440.94359042045699</v>
       </c>
-      <c r="D213" s="3">
+      <c r="D213" s="7">
         <v>-152.73000000000002</v>
       </c>
-      <c r="E213" s="3">
+      <c r="E213" s="7">
         <v>135.48359042045698</v>
       </c>
-      <c r="F213" s="3">
+      <c r="F213" s="7">
         <v>0.973940265862</v>
       </c>
     </row>
-    <row r="214" spans="1:6">
+    <row r="214" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A214" s="2">
         <v>10</v>
       </c>
       <c r="B214" s="2">
         <v>24</v>
       </c>
-      <c r="C214" s="3">
+      <c r="C214" s="7">
         <v>-904.053590420457</v>
       </c>
-      <c r="D214" s="3">
+      <c r="D214" s="7">
         <v>-615.84</v>
       </c>
-      <c r="E214" s="3">
+      <c r="E214" s="7">
         <v>-327.62640957954295</v>
       </c>
-      <c r="F214" s="3">
-        <v>1.8645879999999998E-6</v>
-      </c>
-    </row>
-    <row r="215" spans="1:6">
+      <c r="F214" s="7">
+        <v>1.8645879999999998E-6</v>
+      </c>
+    </row>
+    <row r="215" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A215" s="2">
         <v>10</v>
       </c>
       <c r="B215" s="2">
         <v>25</v>
       </c>
-      <c r="C215" s="3">
+      <c r="C215" s="7">
         <v>-106.953590420457</v>
       </c>
-      <c r="D215" s="3">
+      <c r="D215" s="7">
         <v>181.26</v>
       </c>
-      <c r="E215" s="3">
+      <c r="E215" s="7">
         <v>469.47359042045701</v>
       </c>
-      <c r="F215" s="3">
+      <c r="F215" s="7">
         <v>0.84716096195000001</v>
       </c>
     </row>
-    <row r="216" spans="1:6">
+    <row r="216" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A216" s="2">
         <v>10</v>
       </c>
       <c r="B216" s="2">
         <v>26</v>
       </c>
-      <c r="C216" s="3">
+      <c r="C216" s="7">
         <v>-508.21359042045697</v>
       </c>
-      <c r="D216" s="3">
+      <c r="D216" s="7">
         <v>-220</v>
       </c>
-      <c r="E216" s="3">
+      <c r="E216" s="7">
         <v>68.213590420456995</v>
       </c>
-      <c r="F216" s="3">
+      <c r="F216" s="7">
         <v>0.47586801879600005</v>
       </c>
     </row>
-    <row r="217" spans="1:6">
+    <row r="217" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A217" s="2">
         <v>10</v>
       </c>
       <c r="B217" s="2">
         <v>27</v>
       </c>
-      <c r="C217" s="3">
+      <c r="C217" s="7">
         <v>-952.33359042045697</v>
       </c>
-      <c r="D217" s="3">
+      <c r="D217" s="7">
         <v>-664.12</v>
       </c>
-      <c r="E217" s="3">
+      <c r="E217" s="7">
         <v>-375.90640957954304</v>
       </c>
-      <c r="F217" s="3">
-        <v>1.8645879999999998E-6</v>
-      </c>
-    </row>
-    <row r="218" spans="1:6">
+      <c r="F217" s="7">
+        <v>1.8645879999999998E-6</v>
+      </c>
+    </row>
+    <row r="218" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A218" s="2">
         <v>11</v>
       </c>
       <c r="B218" s="2">
         <v>12</v>
       </c>
-      <c r="C218" s="3">
+      <c r="C218" s="7">
         <v>-527.71359042045697</v>
       </c>
-      <c r="D218" s="3">
+      <c r="D218" s="7">
         <v>-239.5</v>
       </c>
-      <c r="E218" s="3">
+      <c r="E218" s="7">
         <v>48.713590420456995</v>
       </c>
-      <c r="F218" s="3">
+      <c r="F218" s="7">
         <v>0.291261825295</v>
       </c>
     </row>
-    <row r="219" spans="1:6">
+    <row r="219" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A219" s="2">
         <v>11</v>
       </c>
       <c r="B219" s="2">
         <v>13</v>
       </c>
-      <c r="C219" s="3">
+      <c r="C219" s="7">
         <v>342.006409579543</v>
       </c>
-      <c r="D219" s="3">
+      <c r="D219" s="7">
         <v>630.22</v>
       </c>
-      <c r="E219" s="3">
+      <c r="E219" s="7">
         <v>918.43359042045699</v>
       </c>
-      <c r="F219" s="3">
-        <v>1.8645879999999998E-6</v>
-      </c>
-    </row>
-    <row r="220" spans="1:6">
+      <c r="F219" s="7">
+        <v>1.8645879999999998E-6</v>
+      </c>
+    </row>
+    <row r="220" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A220" s="2">
         <v>11</v>
       </c>
       <c r="B220" s="2">
         <v>14</v>
       </c>
-      <c r="C220" s="3">
+      <c r="C220" s="7">
         <v>-79.913590420456998</v>
       </c>
-      <c r="D220" s="3">
+      <c r="D220" s="7">
         <v>208.3</v>
       </c>
-      <c r="E220" s="3">
+      <c r="E220" s="7">
         <v>496.51359042045704</v>
       </c>
-      <c r="F220" s="3">
+      <c r="F220" s="7">
         <v>0.598723656336</v>
       </c>
     </row>
-    <row r="221" spans="1:6">
+    <row r="221" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A221" s="2">
         <v>11</v>
       </c>
       <c r="B221" s="2">
         <v>15</v>
       </c>
-      <c r="C221" s="3">
+      <c r="C221" s="7">
         <v>-529.56359042045699</v>
       </c>
-      <c r="D221" s="3">
+      <c r="D221" s="7">
         <v>-241.35000000000002</v>
       </c>
-      <c r="E221" s="3">
+      <c r="E221" s="7">
         <v>46.863590420457001</v>
       </c>
-      <c r="F221" s="3">
+      <c r="F221" s="7">
         <v>0.276117818603</v>
       </c>
     </row>
-    <row r="222" spans="1:6">
+    <row r="222" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A222" s="2">
         <v>11</v>
       </c>
       <c r="B222" s="2">
         <v>16</v>
       </c>
-      <c r="C222" s="3">
+      <c r="C222" s="7">
         <v>266.48640957954302</v>
       </c>
-      <c r="D222" s="3">
+      <c r="D222" s="7">
         <v>554.69999999999993</v>
       </c>
-      <c r="E222" s="3">
+      <c r="E222" s="7">
         <v>842.91359042045701</v>
       </c>
-      <c r="F222" s="3">
+      <c r="F222" s="7">
         <v>1.8648139999999999E-6</v>
       </c>
     </row>
-    <row r="223" spans="1:6">
+    <row r="223" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A223" s="2">
         <v>11</v>
       </c>
       <c r="B223" s="2">
         <v>17</v>
       </c>
-      <c r="C223" s="3">
+      <c r="C223" s="7">
         <v>-134.62359042045699</v>
       </c>
-      <c r="D223" s="3">
+      <c r="D223" s="7">
         <v>153.59</v>
       </c>
-      <c r="E223" s="3">
+      <c r="E223" s="7">
         <v>441.803590420457</v>
       </c>
-      <c r="F223" s="3">
+      <c r="F223" s="7">
         <v>0.97210983146499996</v>
       </c>
     </row>
-    <row r="224" spans="1:6">
+    <row r="224" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A224" s="2">
         <v>11</v>
       </c>
       <c r="B224" s="2">
         <v>18</v>
       </c>
-      <c r="C224" s="3">
+      <c r="C224" s="7">
         <v>-658.91359042045701</v>
       </c>
-      <c r="D224" s="3">
+      <c r="D224" s="7">
         <v>-370.7</v>
       </c>
-      <c r="E224" s="3">
+      <c r="E224" s="7">
         <v>-82.486409579542993</v>
       </c>
-      <c r="F224" s="3">
+      <c r="F224" s="7">
         <v>6.3836200100000006E-4</v>
       </c>
     </row>
-    <row r="225" spans="1:6">
+    <row r="225" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A225" s="2">
         <v>11</v>
       </c>
       <c r="B225" s="2">
         <v>19</v>
       </c>
-      <c r="C225" s="3">
+      <c r="C225" s="7">
         <v>-157.87359042045702</v>
       </c>
-      <c r="D225" s="3">
+      <c r="D225" s="7">
         <v>130.34</v>
       </c>
-      <c r="E225" s="3">
+      <c r="E225" s="7">
         <v>418.553590420457</v>
       </c>
-      <c r="F225" s="3">
+      <c r="F225" s="7">
         <v>0.9970301281920001</v>
       </c>
     </row>
-    <row r="226" spans="1:6">
+    <row r="226" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A226" s="2">
         <v>11</v>
       </c>
       <c r="B226" s="2">
         <v>20</v>
       </c>
-      <c r="C226" s="3">
+      <c r="C226" s="7">
         <v>-478.20359042045703</v>
       </c>
-      <c r="D226" s="3">
+      <c r="D226" s="7">
         <v>-189.98999999999998</v>
       </c>
-      <c r="E226" s="3">
+      <c r="E226" s="7">
         <v>98.223590420457001</v>
       </c>
-      <c r="F226" s="3">
+      <c r="F226" s="7">
         <v>0.77789018091999995</v>
       </c>
     </row>
-    <row r="227" spans="1:6">
+    <row r="227" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A227" s="2">
         <v>11</v>
       </c>
       <c r="B227" s="2">
         <v>21</v>
       </c>
-      <c r="C227" s="3">
+      <c r="C227" s="7">
         <v>-673.73359042045695</v>
       </c>
-      <c r="D227" s="3">
+      <c r="D227" s="7">
         <v>-385.52</v>
       </c>
-      <c r="E227" s="3">
+      <c r="E227" s="7">
         <v>-97.306409579542986</v>
       </c>
-      <c r="F227" s="3">
+      <c r="F227" s="7">
         <v>2.5128310699999999E-4</v>
       </c>
     </row>
-    <row r="228" spans="1:6">
+    <row r="228" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A228" s="2">
         <v>11</v>
       </c>
       <c r="B228" s="2">
         <v>22</v>
       </c>
-      <c r="C228" s="3">
+      <c r="C228" s="7">
         <v>214.386409579543</v>
       </c>
-      <c r="D228" s="3">
+      <c r="D228" s="7">
         <v>502.6</v>
       </c>
-      <c r="E228" s="3">
+      <c r="E228" s="7">
         <v>790.81359042045699</v>
       </c>
-      <c r="F228" s="3">
+      <c r="F228" s="7">
         <v>1.8966819999999999E-6</v>
       </c>
     </row>
-    <row r="229" spans="1:6">
+    <row r="229" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A229" s="2">
         <v>11</v>
       </c>
       <c r="B229" s="2">
         <v>23</v>
       </c>
-      <c r="C229" s="3">
+      <c r="C229" s="7">
         <v>-171.703590420457</v>
       </c>
-      <c r="D229" s="3">
+      <c r="D229" s="7">
         <v>116.51</v>
       </c>
-      <c r="E229" s="3">
+      <c r="E229" s="7">
         <v>404.72359042045701</v>
       </c>
-      <c r="F229" s="3">
+      <c r="F229" s="7">
         <v>0.9995130912489999</v>
       </c>
     </row>
-    <row r="230" spans="1:6">
+    <row r="230" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A230" s="2">
         <v>11</v>
       </c>
       <c r="B230" s="2">
         <v>24</v>
       </c>
-      <c r="C230" s="3">
+      <c r="C230" s="7">
         <v>-634.81359042045699</v>
       </c>
-      <c r="D230" s="3">
+      <c r="D230" s="7">
         <v>-346.6</v>
       </c>
-      <c r="E230" s="3">
+      <c r="E230" s="7">
         <v>-58.386409579542999</v>
       </c>
-      <c r="F230" s="3">
+      <c r="F230" s="7">
         <v>2.6585079510000002E-3</v>
       </c>
     </row>
-    <row r="231" spans="1:6">
+    <row r="231" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A231" s="2">
         <v>11</v>
       </c>
       <c r="B231" s="2">
         <v>25</v>
       </c>
-      <c r="C231" s="3">
+      <c r="C231" s="7">
         <v>162.28640957954298</v>
       </c>
-      <c r="D231" s="3">
+      <c r="D231" s="7">
         <v>450.5</v>
       </c>
-      <c r="E231" s="3">
+      <c r="E231" s="7">
         <v>738.71359042045708</v>
       </c>
-      <c r="F231" s="3">
+      <c r="F231" s="7">
         <v>4.3121829999999993E-6</v>
       </c>
     </row>
-    <row r="232" spans="1:6">
+    <row r="232" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A232" s="2">
         <v>11</v>
       </c>
       <c r="B232" s="2">
         <v>26</v>
       </c>
-      <c r="C232" s="3">
+      <c r="C232" s="7">
         <v>-238.97359042045699</v>
       </c>
-      <c r="D232" s="3">
+      <c r="D232" s="7">
         <v>49.24</v>
       </c>
-      <c r="E232" s="3">
+      <c r="E232" s="7">
         <v>337.45359042045698</v>
       </c>
-      <c r="F232" s="3">
+      <c r="F232" s="7">
         <v>0.99999999999499989</v>
       </c>
     </row>
-    <row r="233" spans="1:6">
+    <row r="233" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A233" s="2">
         <v>11</v>
       </c>
       <c r="B233" s="2">
         <v>27</v>
       </c>
-      <c r="C233" s="3">
+      <c r="C233" s="7">
         <v>-683.09359042045708</v>
       </c>
-      <c r="D233" s="3">
+      <c r="D233" s="7">
         <v>-394.88</v>
       </c>
-      <c r="E233" s="3">
+      <c r="E233" s="7">
         <v>-106.666409579543</v>
       </c>
-      <c r="F233" s="3">
+      <c r="F233" s="7">
         <v>1.3681397000000001E-4</v>
       </c>
     </row>
-    <row r="234" spans="1:6">
+    <row r="234" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A234" s="2">
         <v>12</v>
       </c>
       <c r="B234" s="2">
         <v>13</v>
       </c>
-      <c r="C234" s="3">
+      <c r="C234" s="7">
         <v>581.50640957954306</v>
       </c>
-      <c r="D234" s="3">
+      <c r="D234" s="7">
         <v>869.72</v>
       </c>
-      <c r="E234" s="3">
+      <c r="E234" s="7">
         <v>1157.9335904204499</v>
       </c>
-      <c r="F234" s="3">
-        <v>1.8645879999999998E-6</v>
-      </c>
-    </row>
-    <row r="235" spans="1:6">
+      <c r="F234" s="7">
+        <v>1.8645879999999998E-6</v>
+      </c>
+    </row>
+    <row r="235" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A235" s="2">
         <v>12</v>
       </c>
       <c r="B235" s="2">
         <v>14</v>
       </c>
-      <c r="C235" s="3">
+      <c r="C235" s="7">
         <v>159.58640957954302</v>
       </c>
-      <c r="D235" s="3">
+      <c r="D235" s="7">
         <v>447.79999999999995</v>
       </c>
-      <c r="E235" s="3">
+      <c r="E235" s="7">
         <v>736.01359042045704</v>
       </c>
-      <c r="F235" s="3">
+      <c r="F235" s="7">
         <v>4.8811200000000003E-6</v>
       </c>
     </row>
-    <row r="236" spans="1:6">
+    <row r="236" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A236" s="2">
         <v>12</v>
       </c>
       <c r="B236" s="2">
         <v>15</v>
       </c>
-      <c r="C236" s="3">
+      <c r="C236" s="7">
         <v>-290.06359042045699</v>
       </c>
-      <c r="D236" s="3">
+      <c r="D236" s="7">
         <v>-1.85</v>
       </c>
-      <c r="E236" s="3">
+      <c r="E236" s="7">
         <v>286.363590420457</v>
       </c>
-      <c r="F236" s="3">
+      <c r="F236" s="7">
         <v>1</v>
       </c>
     </row>
-    <row r="237" spans="1:6">
+    <row r="237" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A237" s="2">
         <v>12</v>
       </c>
       <c r="B237" s="2">
         <v>16</v>
       </c>
-      <c r="C237" s="3">
+      <c r="C237" s="7">
         <v>505.98640957954302</v>
       </c>
-      <c r="D237" s="3">
+      <c r="D237" s="7">
         <v>794.2</v>
       </c>
-      <c r="E237" s="3">
+      <c r="E237" s="7">
         <v>1082.41359042045</v>
       </c>
-      <c r="F237" s="3">
-        <v>1.8645879999999998E-6</v>
-      </c>
-    </row>
-    <row r="238" spans="1:6">
+      <c r="F237" s="7">
+        <v>1.8645879999999998E-6</v>
+      </c>
+    </row>
+    <row r="238" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A238" s="2">
         <v>12</v>
       </c>
       <c r="B238" s="2">
         <v>17</v>
       </c>
-      <c r="C238" s="3">
+      <c r="C238" s="7">
         <v>104.87640957954299</v>
       </c>
-      <c r="D238" s="3">
+      <c r="D238" s="7">
         <v>393.09</v>
       </c>
-      <c r="E238" s="3">
+      <c r="E238" s="7">
         <v>681.303590420457</v>
       </c>
-      <c r="F238" s="3">
+      <c r="F238" s="7">
         <v>1.53838903E-4</v>
       </c>
     </row>
-    <row r="239" spans="1:6">
+    <row r="239" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A239" s="2">
         <v>12</v>
       </c>
       <c r="B239" s="2">
         <v>18</v>
       </c>
-      <c r="C239" s="3">
+      <c r="C239" s="7">
         <v>-419.41359042045701</v>
       </c>
-      <c r="D239" s="3">
+      <c r="D239" s="7">
         <v>-131.20000000000002</v>
       </c>
-      <c r="E239" s="3">
+      <c r="E239" s="7">
         <v>157.01359042045701</v>
       </c>
-      <c r="F239" s="3">
+      <c r="F239" s="7">
         <v>0.99671966678899993</v>
       </c>
     </row>
-    <row r="240" spans="1:6">
+    <row r="240" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A240" s="2">
         <v>12</v>
       </c>
       <c r="B240" s="2">
         <v>19</v>
       </c>
-      <c r="C240" s="3">
+      <c r="C240" s="7">
         <v>81.626409579542994</v>
       </c>
-      <c r="D240" s="3">
+      <c r="D240" s="7">
         <v>369.84</v>
       </c>
-      <c r="E240" s="3">
+      <c r="E240" s="7">
         <v>658.053590420457</v>
       </c>
-      <c r="F240" s="3">
+      <c r="F240" s="7">
         <v>6.7301732099999995E-4</v>
       </c>
     </row>
-    <row r="241" spans="1:6">
+    <row r="241" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A241" s="2">
         <v>12</v>
       </c>
       <c r="B241" s="2">
         <v>20</v>
       </c>
-      <c r="C241" s="3">
+      <c r="C241" s="7">
         <v>-238.703590420457</v>
       </c>
-      <c r="D241" s="3">
+      <c r="D241" s="7">
         <v>49.51</v>
       </c>
-      <c r="E241" s="3">
+      <c r="E241" s="7">
         <v>337.72359042045701</v>
       </c>
-      <c r="F241" s="3">
+      <c r="F241" s="7">
         <v>0.99999999999499989</v>
       </c>
     </row>
-    <row r="242" spans="1:6">
+    <row r="242" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A242" s="2">
         <v>12</v>
       </c>
       <c r="B242" s="2">
         <v>21</v>
       </c>
-      <c r="C242" s="3">
+      <c r="C242" s="7">
         <v>-434.23359042045701</v>
       </c>
-      <c r="D242" s="3">
+      <c r="D242" s="7">
         <v>-146.02000000000001</v>
       </c>
-      <c r="E242" s="3">
+      <c r="E242" s="7">
         <v>142.19359042045701</v>
       </c>
-      <c r="F242" s="3">
+      <c r="F242" s="7">
         <v>0.98520639855799996</v>
       </c>
     </row>
-    <row r="243" spans="1:6">
+    <row r="243" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A243" s="2">
         <v>12</v>
       </c>
       <c r="B243" s="2">
         <v>22</v>
       </c>
-      <c r="C243" s="3">
+      <c r="C243" s="7">
         <v>453.886409579543</v>
       </c>
-      <c r="D243" s="3">
+      <c r="D243" s="7">
         <v>742.1</v>
       </c>
-      <c r="E243" s="3">
+      <c r="E243" s="7">
         <v>1030.3135904204498</v>
       </c>
-      <c r="F243" s="3">
-        <v>1.8645879999999998E-6</v>
-      </c>
-    </row>
-    <row r="244" spans="1:6">
+      <c r="F243" s="7">
+        <v>1.8645879999999998E-6</v>
+      </c>
+    </row>
+    <row r="244" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A244" s="2">
         <v>12</v>
       </c>
       <c r="B244" s="2">
         <v>23</v>
       </c>
-      <c r="C244" s="3">
+      <c r="C244" s="7">
         <v>67.796409579542996</v>
       </c>
-      <c r="D244" s="3">
+      <c r="D244" s="7">
         <v>356.01</v>
       </c>
-      <c r="E244" s="3">
+      <c r="E244" s="7">
         <v>644.22359042045696</v>
       </c>
-      <c r="F244" s="3">
+      <c r="F244" s="7">
         <v>1.5442054E-3</v>
       </c>
     </row>
-    <row r="245" spans="1:6">
+    <row r="245" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A245" s="2">
         <v>12</v>
       </c>
       <c r="B245" s="2">
         <v>24</v>
       </c>
-      <c r="C245" s="3">
+      <c r="C245" s="7">
         <v>-395.31359042045699</v>
       </c>
-      <c r="D245" s="3">
+      <c r="D245" s="7">
         <v>-107.1</v>
       </c>
-      <c r="E245" s="3">
+      <c r="E245" s="7">
         <v>181.113590420457</v>
       </c>
-      <c r="F245" s="3">
+      <c r="F245" s="7">
         <v>0.99988977790099998</v>
       </c>
     </row>
-    <row r="246" spans="1:6">
+    <row r="246" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A246" s="2">
         <v>12</v>
       </c>
       <c r="B246" s="2">
         <v>25</v>
       </c>
-      <c r="C246" s="3">
+      <c r="C246" s="7">
         <v>401.78640957954298</v>
       </c>
-      <c r="D246" s="3">
+      <c r="D246" s="7">
         <v>690</v>
       </c>
-      <c r="E246" s="3">
+      <c r="E246" s="7">
         <v>978.21359042045697</v>
       </c>
-      <c r="F246" s="3">
-        <v>1.8645879999999998E-6</v>
-      </c>
-    </row>
-    <row r="247" spans="1:6">
+      <c r="F246" s="7">
+        <v>1.8645879999999998E-6</v>
+      </c>
+    </row>
+    <row r="247" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A247" s="2">
         <v>12</v>
       </c>
       <c r="B247" s="2">
         <v>26</v>
       </c>
-      <c r="C247" s="3">
+      <c r="C247" s="7">
         <v>0.52640957954300005</v>
       </c>
-      <c r="D247" s="3">
+      <c r="D247" s="7">
         <v>288.74</v>
       </c>
-      <c r="E247" s="3">
+      <c r="E247" s="7">
         <v>576.95359042045698</v>
       </c>
-      <c r="F247" s="3">
+      <c r="F247" s="7">
         <v>4.8874241563E-2</v>
       </c>
     </row>
-    <row r="248" spans="1:6">
+    <row r="248" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A248" s="2">
         <v>12</v>
       </c>
       <c r="B248" s="2">
         <v>27</v>
       </c>
-      <c r="C248" s="3">
+      <c r="C248" s="7">
         <v>-443.59359042045696</v>
       </c>
-      <c r="D248" s="3">
+      <c r="D248" s="7">
         <v>-155.38</v>
       </c>
-      <c r="E248" s="3">
+      <c r="E248" s="7">
         <v>132.833590420457</v>
       </c>
-      <c r="F248" s="3">
+      <c r="F248" s="7">
         <v>0.96798195133300002</v>
       </c>
     </row>
-    <row r="249" spans="1:6">
+    <row r="249" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A249" s="2">
         <v>13</v>
       </c>
       <c r="B249" s="2">
         <v>14</v>
       </c>
-      <c r="C249" s="3">
+      <c r="C249" s="7">
         <v>-710.13359042045704</v>
       </c>
-      <c r="D249" s="3">
+      <c r="D249" s="7">
         <v>-421.92</v>
       </c>
-      <c r="E249" s="3">
+      <c r="E249" s="7">
         <v>-133.70640957954299</v>
       </c>
-      <c r="F249" s="3">
+      <c r="F249" s="7">
         <v>2.2617554000000003E-5</v>
       </c>
     </row>
-    <row r="250" spans="1:6">
+    <row r="250" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A250" s="2">
         <v>13</v>
       </c>
       <c r="B250" s="2">
         <v>15</v>
       </c>
-      <c r="C250" s="3">
+      <c r="C250" s="7">
         <v>-1159.7835904204501</v>
       </c>
-      <c r="D250" s="3">
+      <c r="D250" s="7">
         <v>-871.56999999999994</v>
       </c>
-      <c r="E250" s="3">
+      <c r="E250" s="7">
         <v>-583.35640957954308</v>
       </c>
-      <c r="F250" s="3">
-        <v>1.8645879999999998E-6</v>
-      </c>
-    </row>
-    <row r="251" spans="1:6">
+      <c r="F250" s="7">
+        <v>1.8645879999999998E-6</v>
+      </c>
+    </row>
+    <row r="251" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A251" s="2">
         <v>13</v>
       </c>
       <c r="B251" s="2">
         <v>16</v>
       </c>
-      <c r="C251" s="3">
+      <c r="C251" s="7">
         <v>-363.73359042045701</v>
       </c>
-      <c r="D251" s="3">
+      <c r="D251" s="7">
         <v>-75.52000000000001</v>
       </c>
-      <c r="E251" s="3">
+      <c r="E251" s="7">
         <v>212.69359042045699</v>
       </c>
-      <c r="F251" s="3">
+      <c r="F251" s="7">
         <v>0.99999990622800006</v>
       </c>
     </row>
-    <row r="252" spans="1:6">
+    <row r="252" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A252" s="2">
         <v>13</v>
       </c>
       <c r="B252" s="2">
         <v>17</v>
       </c>
-      <c r="C252" s="3">
+      <c r="C252" s="7">
         <v>-764.84359042045708</v>
       </c>
-      <c r="D252" s="3">
+      <c r="D252" s="7">
         <v>-476.63</v>
       </c>
-      <c r="E252" s="3">
+      <c r="E252" s="7">
         <v>-188.416409579543</v>
       </c>
-      <c r="F252" s="3">
+      <c r="F252" s="7">
         <v>2.1640829999999999E-6</v>
       </c>
     </row>
-    <row r="253" spans="1:6">
+    <row r="253" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A253" s="2">
         <v>13</v>
       </c>
       <c r="B253" s="2">
         <v>18</v>
       </c>
-      <c r="C253" s="3">
+      <c r="C253" s="7">
         <v>-1289.13359042045</v>
       </c>
-      <c r="D253" s="3">
+      <c r="D253" s="7">
         <v>-1000.9200000000001</v>
       </c>
-      <c r="E253" s="3">
+      <c r="E253" s="7">
         <v>-712.70640957954299</v>
       </c>
-      <c r="F253" s="3">
-        <v>1.8645879999999998E-6</v>
-      </c>
-    </row>
-    <row r="254" spans="1:6">
+      <c r="F253" s="7">
+        <v>1.8645879999999998E-6</v>
+      </c>
+    </row>
+    <row r="254" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A254" s="2">
         <v>13</v>
       </c>
       <c r="B254" s="2">
         <v>19</v>
       </c>
-      <c r="C254" s="3">
+      <c r="C254" s="7">
         <v>-788.09359042045696</v>
       </c>
-      <c r="D254" s="3">
+      <c r="D254" s="7">
         <v>-499.88</v>
       </c>
-      <c r="E254" s="3">
+      <c r="E254" s="7">
         <v>-211.666409579543</v>
       </c>
-      <c r="F254" s="3">
+      <c r="F254" s="7">
         <v>1.9054269999999999E-6</v>
       </c>
     </row>
-    <row r="255" spans="1:6">
+    <row r="255" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A255" s="2">
         <v>13</v>
       </c>
       <c r="B255" s="2">
         <v>20</v>
       </c>
-      <c r="C255" s="3">
+      <c r="C255" s="7">
         <v>-1108.42359042045</v>
       </c>
-      <c r="D255" s="3">
+      <c r="D255" s="7">
         <v>-820.21</v>
       </c>
-      <c r="E255" s="3">
+      <c r="E255" s="7">
         <v>-531.99640957954296</v>
       </c>
-      <c r="F255" s="3">
-        <v>1.8645879999999998E-6</v>
-      </c>
-    </row>
-    <row r="256" spans="1:6">
+      <c r="F255" s="7">
+        <v>1.8645879999999998E-6</v>
+      </c>
+    </row>
+    <row r="256" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A256" s="2">
         <v>13</v>
       </c>
       <c r="B256" s="2">
         <v>21</v>
       </c>
-      <c r="C256" s="3">
+      <c r="C256" s="7">
         <v>-1303.9535904204499</v>
       </c>
-      <c r="D256" s="3">
+      <c r="D256" s="7">
         <v>-1015.7400000000001</v>
       </c>
-      <c r="E256" s="3">
+      <c r="E256" s="7">
         <v>-727.52640957954293</v>
       </c>
-      <c r="F256" s="3">
-        <v>1.8645879999999998E-6</v>
-      </c>
-    </row>
-    <row r="257" spans="1:6">
+      <c r="F256" s="7">
+        <v>1.8645879999999998E-6</v>
+      </c>
+    </row>
+    <row r="257" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A257" s="2">
         <v>13</v>
       </c>
       <c r="B257" s="2">
         <v>22</v>
       </c>
-      <c r="C257" s="3">
+      <c r="C257" s="7">
         <v>-415.83359042045697</v>
       </c>
-      <c r="D257" s="3">
+      <c r="D257" s="7">
         <v>-127.62</v>
       </c>
-      <c r="E257" s="3">
+      <c r="E257" s="7">
         <v>160.59359042045702</v>
       </c>
-      <c r="F257" s="3">
+      <c r="F257" s="7">
         <v>0.997851915915</v>
       </c>
     </row>
-    <row r="258" spans="1:6">
+    <row r="258" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A258" s="2">
         <v>13</v>
       </c>
       <c r="B258" s="2">
         <v>23</v>
       </c>
-      <c r="C258" s="3">
+      <c r="C258" s="7">
         <v>-801.923590420457</v>
       </c>
-      <c r="D258" s="3">
+      <c r="D258" s="7">
         <v>-513.71</v>
       </c>
-      <c r="E258" s="3">
+      <c r="E258" s="7">
         <v>-225.49640957954301</v>
       </c>
-      <c r="F258" s="3">
+      <c r="F258" s="7">
         <v>1.876372E-6</v>
       </c>
     </row>
-    <row r="259" spans="1:6">
+    <row r="259" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A259" s="2">
         <v>13</v>
       </c>
       <c r="B259" s="2">
         <v>24</v>
       </c>
-      <c r="C259" s="3">
+      <c r="C259" s="7">
         <v>-1265.0335904204499</v>
       </c>
-      <c r="D259" s="3">
+      <c r="D259" s="7">
         <v>-976.82</v>
       </c>
-      <c r="E259" s="3">
+      <c r="E259" s="7">
         <v>-688.60640957954297</v>
       </c>
-      <c r="F259" s="3">
-        <v>1.8645879999999998E-6</v>
-      </c>
-    </row>
-    <row r="260" spans="1:6">
+      <c r="F259" s="7">
+        <v>1.8645879999999998E-6</v>
+      </c>
+    </row>
+    <row r="260" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A260" s="2">
         <v>13</v>
       </c>
       <c r="B260" s="2">
         <v>25</v>
       </c>
-      <c r="C260" s="3">
+      <c r="C260" s="7">
         <v>-467.93359042045699</v>
       </c>
-      <c r="D260" s="3">
+      <c r="D260" s="7">
         <v>-179.72</v>
       </c>
-      <c r="E260" s="3">
+      <c r="E260" s="7">
         <v>108.493590420457</v>
       </c>
-      <c r="F260" s="3">
+      <c r="F260" s="7">
         <v>0.85792554503600005</v>
       </c>
     </row>
-    <row r="261" spans="1:6">
+    <row r="261" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A261" s="2">
         <v>13</v>
       </c>
       <c r="B261" s="2">
         <v>26</v>
       </c>
-      <c r="C261" s="3">
+      <c r="C261" s="7">
         <v>-869.19359042045699</v>
       </c>
-      <c r="D261" s="3">
+      <c r="D261" s="7">
         <v>-580.98</v>
       </c>
-      <c r="E261" s="3">
+      <c r="E261" s="7">
         <v>-292.76640957954299</v>
       </c>
-      <c r="F261" s="3">
+      <c r="F261" s="7">
         <v>1.8646020000000002E-6</v>
       </c>
     </row>
-    <row r="262" spans="1:6">
+    <row r="262" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A262" s="2">
         <v>13</v>
       </c>
       <c r="B262" s="2">
         <v>27</v>
       </c>
-      <c r="C262" s="3">
+      <c r="C262" s="7">
         <v>-1313.3135904204501</v>
       </c>
-      <c r="D262" s="3">
+      <c r="D262" s="7">
         <v>-1025.0999999999999</v>
       </c>
-      <c r="E262" s="3">
+      <c r="E262" s="7">
         <v>-736.88640957954294</v>
       </c>
-      <c r="F262" s="3">
-        <v>1.8645879999999998E-6</v>
-      </c>
-    </row>
-    <row r="263" spans="1:6">
+      <c r="F262" s="7">
+        <v>1.8645879999999998E-6</v>
+      </c>
+    </row>
+    <row r="263" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A263" s="2">
         <v>14</v>
       </c>
       <c r="B263" s="2">
         <v>15</v>
       </c>
-      <c r="C263" s="3">
+      <c r="C263" s="7">
         <v>-737.86359042045706</v>
       </c>
-      <c r="D263" s="3">
+      <c r="D263" s="7">
         <v>-449.65</v>
       </c>
-      <c r="E263" s="3">
+      <c r="E263" s="7">
         <v>-161.43640957954301</v>
       </c>
-      <c r="F263" s="3">
+      <c r="F263" s="7">
         <v>4.4790630000000005E-6</v>
       </c>
     </row>
-    <row r="264" spans="1:6">
+    <row r="264" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A264" s="2">
         <v>14</v>
       </c>
       <c r="B264" s="2">
         <v>16</v>
       </c>
-      <c r="C264" s="3">
+      <c r="C264" s="7">
         <v>58.186409579542996</v>
       </c>
-      <c r="D264" s="3">
+      <c r="D264" s="7">
         <v>346.4</v>
       </c>
-      <c r="E264" s="3">
+      <c r="E264" s="7">
         <v>634.61359042045694</v>
       </c>
-      <c r="F264" s="3">
+      <c r="F264" s="7">
         <v>2.6888522259999998E-3</v>
       </c>
     </row>
-    <row r="265" spans="1:6">
+    <row r="265" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A265" s="2">
         <v>14</v>
       </c>
       <c r="B265" s="2">
         <v>17</v>
       </c>
-      <c r="C265" s="3">
+      <c r="C265" s="7">
         <v>-342.923590420457</v>
       </c>
-      <c r="D265" s="3">
+      <c r="D265" s="7">
         <v>-54.71</v>
       </c>
-      <c r="E265" s="3">
+      <c r="E265" s="7">
         <v>233.50359042045702</v>
       </c>
-      <c r="F265" s="3">
+      <c r="F265" s="7">
         <v>0.99999999994199995</v>
       </c>
     </row>
-    <row r="266" spans="1:6">
+    <row r="266" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A266" s="2">
         <v>14</v>
       </c>
       <c r="B266" s="2">
         <v>18</v>
       </c>
-      <c r="C266" s="3">
+      <c r="C266" s="7">
         <v>-867.21359042045697</v>
       </c>
-      <c r="D266" s="3">
+      <c r="D266" s="7">
         <v>-579</v>
       </c>
-      <c r="E266" s="3">
+      <c r="E266" s="7">
         <v>-290.78640957954298</v>
       </c>
-      <c r="F266" s="3">
+      <c r="F266" s="7">
         <v>1.8646059999999999E-6</v>
       </c>
     </row>
-    <row r="267" spans="1:6">
+    <row r="267" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A267" s="2">
         <v>14</v>
       </c>
       <c r="B267" s="2">
         <v>19</v>
       </c>
-      <c r="C267" s="3">
+      <c r="C267" s="7">
         <v>-366.173590420457</v>
       </c>
-      <c r="D267" s="3">
+      <c r="D267" s="7">
         <v>-77.960000000000008</v>
       </c>
-      <c r="E267" s="3">
+      <c r="E267" s="7">
         <v>210.25359042045699</v>
       </c>
-      <c r="F267" s="3">
+      <c r="F267" s="7">
         <v>0.99999981264699989</v>
       </c>
     </row>
-    <row r="268" spans="1:6">
+    <row r="268" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A268" s="2">
         <v>14</v>
       </c>
       <c r="B268" s="2">
         <v>20</v>
       </c>
-      <c r="C268" s="3">
+      <c r="C268" s="7">
         <v>-686.50359042045704</v>
       </c>
-      <c r="D268" s="3">
+      <c r="D268" s="7">
         <v>-398.28999999999996</v>
       </c>
-      <c r="E268" s="3">
+      <c r="E268" s="7">
         <v>-110.076409579543</v>
       </c>
-      <c r="F268" s="3">
+      <c r="F268" s="7">
         <v>1.09290259E-4</v>
       </c>
     </row>
-    <row r="269" spans="1:6">
+    <row r="269" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A269" s="2">
         <v>14</v>
       </c>
       <c r="B269" s="2">
         <v>21</v>
       </c>
-      <c r="C269" s="3">
+      <c r="C269" s="7">
         <v>-882.03359042045702</v>
       </c>
-      <c r="D269" s="3">
+      <c r="D269" s="7">
         <v>-593.82000000000005</v>
       </c>
-      <c r="E269" s="3">
+      <c r="E269" s="7">
         <v>-305.60640957954297</v>
       </c>
-      <c r="F269" s="3">
+      <c r="F269" s="7">
         <v>1.8645919999999999E-6</v>
       </c>
     </row>
-    <row r="270" spans="1:6">
+    <row r="270" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A270" s="2">
         <v>14</v>
       </c>
       <c r="B270" s="2">
         <v>22</v>
       </c>
-      <c r="C270" s="3">
+      <c r="C270" s="7">
         <v>6.086409579543</v>
       </c>
-      <c r="D270" s="3">
+      <c r="D270" s="7">
         <v>294.3</v>
       </c>
-      <c r="E270" s="3">
+      <c r="E270" s="7">
         <v>582.51359042045704</v>
       </c>
-      <c r="F270" s="3">
+      <c r="F270" s="7">
         <v>3.8256001725000002E-2</v>
       </c>
     </row>
-    <row r="271" spans="1:6">
+    <row r="271" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A271" s="2">
         <v>14</v>
       </c>
       <c r="B271" s="2">
         <v>23</v>
       </c>
-      <c r="C271" s="3">
+      <c r="C271" s="7">
         <v>-380.00359042045699</v>
       </c>
-      <c r="D271" s="3">
+      <c r="D271" s="7">
         <v>-91.789999999999992</v>
       </c>
-      <c r="E271" s="3">
+      <c r="E271" s="7">
         <v>196.423590420457</v>
       </c>
-      <c r="F271" s="3">
+      <c r="F271" s="7">
         <v>0.99999430543899992</v>
       </c>
     </row>
-    <row r="272" spans="1:6">
+    <row r="272" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A272" s="2">
         <v>14</v>
       </c>
       <c r="B272" s="2">
         <v>24</v>
       </c>
-      <c r="C272" s="3">
+      <c r="C272" s="7">
         <v>-843.11359042045694</v>
       </c>
-      <c r="D272" s="3">
+      <c r="D272" s="7">
         <v>-554.9</v>
       </c>
-      <c r="E272" s="3">
+      <c r="E272" s="7">
         <v>-266.68640957954301</v>
       </c>
-      <c r="F272" s="3">
+      <c r="F272" s="7">
         <v>1.86481E-6</v>
       </c>
     </row>
-    <row r="273" spans="1:6">
+    <row r="273" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A273" s="2">
         <v>14</v>
       </c>
       <c r="B273" s="2">
         <v>25</v>
       </c>
-      <c r="C273" s="3">
+      <c r="C273" s="7">
         <v>-46.013590420457</v>
       </c>
-      <c r="D273" s="3">
+      <c r="D273" s="7">
         <v>242.2</v>
       </c>
-      <c r="E273" s="3">
+      <c r="E273" s="7">
         <v>530.41359042045701</v>
       </c>
-      <c r="F273" s="3">
+      <c r="F273" s="7">
         <v>0.26932249259300001</v>
       </c>
     </row>
-    <row r="274" spans="1:6">
+    <row r="274" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A274" s="2">
         <v>14</v>
       </c>
       <c r="B274" s="2">
         <v>26</v>
       </c>
-      <c r="C274" s="3">
+      <c r="C274" s="7">
         <v>-447.27359042045703</v>
       </c>
-      <c r="D274" s="3">
+      <c r="D274" s="7">
         <v>-159.06</v>
       </c>
-      <c r="E274" s="3">
+      <c r="E274" s="7">
         <v>129.15359042045699</v>
       </c>
-      <c r="F274" s="3">
+      <c r="F274" s="7">
         <v>0.95804452206699997</v>
       </c>
     </row>
-    <row r="275" spans="1:6">
+    <row r="275" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A275" s="2">
         <v>14</v>
       </c>
       <c r="B275" s="2">
         <v>27</v>
       </c>
-      <c r="C275" s="3">
+      <c r="C275" s="7">
         <v>-891.39359042045692</v>
       </c>
-      <c r="D275" s="3">
+      <c r="D275" s="7">
         <v>-603.18000000000006</v>
       </c>
-      <c r="E275" s="3">
+      <c r="E275" s="7">
         <v>-314.96640957954304</v>
       </c>
-      <c r="F275" s="3">
+      <c r="F275" s="7">
         <v>1.8645890000000002E-6</v>
       </c>
     </row>
-    <row r="276" spans="1:6">
+    <row r="276" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A276" s="2">
         <v>15</v>
       </c>
       <c r="B276" s="2">
         <v>16</v>
       </c>
-      <c r="C276" s="3">
+      <c r="C276" s="7">
         <v>507.83640957954299</v>
       </c>
-      <c r="D276" s="3">
+      <c r="D276" s="7">
         <v>796.05000000000007</v>
       </c>
-      <c r="E276" s="3">
+      <c r="E276" s="7">
         <v>1084.2635904204501</v>
       </c>
-      <c r="F276" s="3">
-        <v>1.8645879999999998E-6</v>
-      </c>
-    </row>
-    <row r="277" spans="1:6">
+      <c r="F276" s="7">
+        <v>1.8645879999999998E-6</v>
+      </c>
+    </row>
+    <row r="277" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A277" s="2">
         <v>15</v>
       </c>
       <c r="B277" s="2">
         <v>17</v>
       </c>
-      <c r="C277" s="3">
+      <c r="C277" s="7">
         <v>106.726409579543</v>
       </c>
-      <c r="D277" s="3">
+      <c r="D277" s="7">
         <v>394.94</v>
       </c>
-      <c r="E277" s="3">
+      <c r="E277" s="7">
         <v>683.15359042045702</v>
       </c>
-      <c r="F277" s="3">
+      <c r="F277" s="7">
         <v>1.3627611899999999E-4</v>
       </c>
     </row>
-    <row r="278" spans="1:6">
+    <row r="278" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A278" s="2">
         <v>15</v>
       </c>
       <c r="B278" s="2">
         <v>18</v>
       </c>
-      <c r="C278" s="3">
+      <c r="C278" s="7">
         <v>-417.56359042045699</v>
       </c>
-      <c r="D278" s="3">
+      <c r="D278" s="7">
         <v>-129.35</v>
       </c>
-      <c r="E278" s="3">
+      <c r="E278" s="7">
         <v>158.863590420457</v>
       </c>
-      <c r="F278" s="3">
+      <c r="F278" s="7">
         <v>0.99735599310599987</v>
       </c>
     </row>
-    <row r="279" spans="1:6">
+    <row r="279" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A279" s="2">
         <v>15</v>
       </c>
       <c r="B279" s="2">
         <v>19</v>
       </c>
-      <c r="C279" s="3">
+      <c r="C279" s="7">
         <v>83.476409579543002</v>
       </c>
-      <c r="D279" s="3">
+      <c r="D279" s="7">
         <v>371.69</v>
       </c>
-      <c r="E279" s="3">
+      <c r="E279" s="7">
         <v>659.90359042045702</v>
       </c>
-      <c r="F279" s="3">
+      <c r="F279" s="7">
         <v>6.0056783300000002E-4</v>
       </c>
     </row>
-    <row r="280" spans="1:6">
+    <row r="280" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A280" s="2">
         <v>15</v>
       </c>
       <c r="B280" s="2">
         <v>20</v>
       </c>
-      <c r="C280" s="3">
+      <c r="C280" s="7">
         <v>-236.85359042045701</v>
       </c>
-      <c r="D280" s="3">
+      <c r="D280" s="7">
         <v>51.36</v>
       </c>
-      <c r="E280" s="3">
+      <c r="E280" s="7">
         <v>339.57359042045698</v>
       </c>
-      <c r="F280" s="3">
+      <c r="F280" s="7">
         <v>0.99999999998699995</v>
       </c>
     </row>
-    <row r="281" spans="1:6">
+    <row r="281" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A281" s="2">
         <v>15</v>
       </c>
       <c r="B281" s="2">
         <v>21</v>
       </c>
-      <c r="C281" s="3">
+      <c r="C281" s="7">
         <v>-432.38359042045698</v>
       </c>
-      <c r="D281" s="3">
+      <c r="D281" s="7">
         <v>-144.16999999999999</v>
       </c>
-      <c r="E281" s="3">
+      <c r="E281" s="7">
         <v>144.04359042045701</v>
       </c>
-      <c r="F281" s="3">
+      <c r="F281" s="7">
         <v>0.98749440212000006</v>
       </c>
     </row>
-    <row r="282" spans="1:6">
+    <row r="282" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A282" s="2">
         <v>15</v>
       </c>
       <c r="B282" s="2">
         <v>22</v>
       </c>
-      <c r="C282" s="3">
+      <c r="C282" s="7">
         <v>455.73640957954296</v>
       </c>
-      <c r="D282" s="3">
+      <c r="D282" s="7">
         <v>743.95</v>
       </c>
-      <c r="E282" s="3">
+      <c r="E282" s="7">
         <v>1032.16359042045</v>
       </c>
-      <c r="F282" s="3">
-        <v>1.8645879999999998E-6</v>
-      </c>
-    </row>
-    <row r="283" spans="1:6">
+      <c r="F282" s="7">
+        <v>1.8645879999999998E-6</v>
+      </c>
+    </row>
+    <row r="283" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A283" s="2">
         <v>15</v>
       </c>
       <c r="B283" s="2">
         <v>23</v>
       </c>
-      <c r="C283" s="3">
+      <c r="C283" s="7">
         <v>69.646409579543004</v>
       </c>
-      <c r="D283" s="3">
+      <c r="D283" s="7">
         <v>357.86</v>
       </c>
-      <c r="E283" s="3">
+      <c r="E283" s="7">
         <v>646.07359042045698</v>
       </c>
-      <c r="F283" s="3">
+      <c r="F283" s="7">
         <v>1.3848588630000001E-3</v>
       </c>
     </row>
-    <row r="284" spans="1:6">
+    <row r="284" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A284" s="2">
         <v>15</v>
       </c>
       <c r="B284" s="2">
         <v>24</v>
       </c>
-      <c r="C284" s="3">
+      <c r="C284" s="7">
         <v>-393.46359042045697</v>
       </c>
-      <c r="D284" s="3">
+      <c r="D284" s="7">
         <v>-105.25</v>
       </c>
-      <c r="E284" s="3">
+      <c r="E284" s="7">
         <v>182.96359042045702</v>
       </c>
-      <c r="F284" s="3">
+      <c r="F284" s="7">
         <v>0.99991994649400007</v>
       </c>
     </row>
-    <row r="285" spans="1:6">
+    <row r="285" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A285" s="2">
         <v>15</v>
       </c>
       <c r="B285" s="2">
         <v>25</v>
       </c>
-      <c r="C285" s="3">
+      <c r="C285" s="7">
         <v>403.636409579543</v>
       </c>
-      <c r="D285" s="3">
+      <c r="D285" s="7">
         <v>691.84999999999991</v>
       </c>
-      <c r="E285" s="3">
+      <c r="E285" s="7">
         <v>980.06359042045699</v>
       </c>
-      <c r="F285" s="3">
-        <v>1.8645879999999998E-6</v>
-      </c>
-    </row>
-    <row r="286" spans="1:6">
+      <c r="F285" s="7">
+        <v>1.8645879999999998E-6</v>
+      </c>
+    </row>
+    <row r="286" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A286" s="2">
         <v>15</v>
       </c>
       <c r="B286" s="2">
         <v>26</v>
       </c>
-      <c r="C286" s="3">
+      <c r="C286" s="7">
         <v>2.376409579543</v>
       </c>
-      <c r="D286" s="3">
+      <c r="D286" s="7">
         <v>290.59000000000003</v>
       </c>
-      <c r="E286" s="3">
+      <c r="E286" s="7">
         <v>578.803590420457</v>
       </c>
-      <c r="F286" s="3">
+      <c r="F286" s="7">
         <v>4.5089121704E-2</v>
       </c>
     </row>
-    <row r="287" spans="1:6">
+    <row r="287" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A287" s="2">
         <v>15</v>
       </c>
       <c r="B287" s="2">
         <v>27</v>
       </c>
-      <c r="C287" s="3">
+      <c r="C287" s="7">
         <v>-441.743590420457</v>
       </c>
-      <c r="D287" s="3">
+      <c r="D287" s="7">
         <v>-153.53</v>
       </c>
-      <c r="E287" s="3">
+      <c r="E287" s="7">
         <v>134.68359042045699</v>
       </c>
-      <c r="F287" s="3">
+      <c r="F287" s="7">
         <v>0.97224068214100001</v>
       </c>
     </row>
-    <row r="288" spans="1:6">
+    <row r="288" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A288" s="2">
         <v>16</v>
       </c>
       <c r="B288" s="2">
         <v>17</v>
       </c>
-      <c r="C288" s="3">
+      <c r="C288" s="7">
         <v>-689.32359042045698</v>
       </c>
-      <c r="D288" s="3">
+      <c r="D288" s="7">
         <v>-401.11</v>
       </c>
-      <c r="E288" s="3">
+      <c r="E288" s="7">
         <v>-112.896409579543</v>
       </c>
-      <c r="F288" s="3">
+      <c r="F288" s="7">
         <v>9.0667580000000004E-5</v>
       </c>
     </row>
-    <row r="289" spans="1:6">
+    <row r="289" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A289" s="2">
         <v>16</v>
       </c>
       <c r="B289" s="2">
         <v>18</v>
       </c>
-      <c r="C289" s="3">
+      <c r="C289" s="7">
         <v>-1213.61359042045</v>
       </c>
-      <c r="D289" s="3">
+      <c r="D289" s="7">
         <v>-925.4</v>
       </c>
-      <c r="E289" s="3">
+      <c r="E289" s="7">
         <v>-637.18640957954301</v>
       </c>
-      <c r="F289" s="3">
-        <v>1.8645879999999998E-6</v>
-      </c>
-    </row>
-    <row r="290" spans="1:6">
+      <c r="F289" s="7">
+        <v>1.8645879999999998E-6</v>
+      </c>
+    </row>
+    <row r="290" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A290" s="2">
         <v>16</v>
       </c>
       <c r="B290" s="2">
         <v>19</v>
       </c>
-      <c r="C290" s="3">
+      <c r="C290" s="7">
         <v>-712.57359042045698</v>
       </c>
-      <c r="D290" s="3">
+      <c r="D290" s="7">
         <v>-424.36</v>
       </c>
-      <c r="E290" s="3">
+      <c r="E290" s="7">
         <v>-136.14640957954299</v>
       </c>
-      <c r="F290" s="3">
+      <c r="F290" s="7">
         <v>1.9266738E-5</v>
       </c>
     </row>
-    <row r="291" spans="1:6">
+    <row r="291" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A291" s="2">
         <v>16</v>
       </c>
       <c r="B291" s="2">
         <v>20</v>
       </c>
-      <c r="C291" s="3">
+      <c r="C291" s="7">
         <v>-1032.90359042045</v>
       </c>
-      <c r="D291" s="3">
+      <c r="D291" s="7">
         <v>-744.68999999999994</v>
       </c>
-      <c r="E291" s="3">
+      <c r="E291" s="7">
         <v>-456.47640957954297</v>
       </c>
-      <c r="F291" s="3">
-        <v>1.8645879999999998E-6</v>
-      </c>
-    </row>
-    <row r="292" spans="1:6">
+      <c r="F291" s="7">
+        <v>1.8645879999999998E-6</v>
+      </c>
+    </row>
+    <row r="292" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A292" s="2">
         <v>16</v>
       </c>
       <c r="B292" s="2">
         <v>21</v>
       </c>
-      <c r="C292" s="3">
+      <c r="C292" s="7">
         <v>-1228.4335904204499</v>
       </c>
-      <c r="D292" s="3">
+      <c r="D292" s="7">
         <v>-940.21999999999991</v>
       </c>
-      <c r="E292" s="3">
+      <c r="E292" s="7">
         <v>-652.00640957954306</v>
       </c>
-      <c r="F292" s="3">
-        <v>1.8645879999999998E-6</v>
-      </c>
-    </row>
-    <row r="293" spans="1:6">
+      <c r="F292" s="7">
+        <v>1.8645879999999998E-6</v>
+      </c>
+    </row>
+    <row r="293" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A293" s="2">
         <v>16</v>
       </c>
       <c r="B293" s="2">
         <v>22</v>
       </c>
-      <c r="C293" s="3">
+      <c r="C293" s="7">
         <v>-340.31359042045699</v>
       </c>
-      <c r="D293" s="3">
+      <c r="D293" s="7">
         <v>-52.1</v>
       </c>
-      <c r="E293" s="3">
+      <c r="E293" s="7">
         <v>236.113590420457</v>
       </c>
-      <c r="F293" s="3">
+      <c r="F293" s="7">
         <v>0.99999999998200007</v>
       </c>
     </row>
-    <row r="294" spans="1:6">
+    <row r="294" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A294" s="2">
         <v>16</v>
       </c>
       <c r="B294" s="2">
         <v>23</v>
       </c>
-      <c r="C294" s="3">
+      <c r="C294" s="7">
         <v>-726.40359042045702</v>
       </c>
-      <c r="D294" s="3">
+      <c r="D294" s="7">
         <v>-438.19</v>
       </c>
-      <c r="E294" s="3">
+      <c r="E294" s="7">
         <v>-149.976409579543</v>
       </c>
-      <c r="F294" s="3">
+      <c r="F294" s="7">
         <v>8.1358570000000002E-6</v>
       </c>
     </row>
-    <row r="295" spans="1:6">
+    <row r="295" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A295" s="2">
         <v>16</v>
       </c>
       <c r="B295" s="2">
         <v>24</v>
       </c>
-      <c r="C295" s="3">
+      <c r="C295" s="7">
         <v>-1189.5135904204499</v>
       </c>
-      <c r="D295" s="3">
+      <c r="D295" s="7">
         <v>-901.3</v>
       </c>
-      <c r="E295" s="3">
+      <c r="E295" s="7">
         <v>-613.08640957954299</v>
       </c>
-      <c r="F295" s="3">
-        <v>1.8645879999999998E-6</v>
-      </c>
-    </row>
-    <row r="296" spans="1:6">
+      <c r="F295" s="7">
+        <v>1.8645879999999998E-6</v>
+      </c>
+    </row>
+    <row r="296" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A296" s="2">
         <v>16</v>
       </c>
       <c r="B296" s="2">
         <v>25</v>
       </c>
-      <c r="C296" s="3">
+      <c r="C296" s="7">
         <v>-392.41359042045696</v>
       </c>
-      <c r="D296" s="3">
+      <c r="D296" s="7">
         <v>-104.2</v>
       </c>
-      <c r="E296" s="3">
+      <c r="E296" s="7">
         <v>184.01359042045701</v>
       </c>
-      <c r="F296" s="3">
+      <c r="F296" s="7">
         <v>0.99993352361599985</v>
       </c>
     </row>
-    <row r="297" spans="1:6">
+    <row r="297" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A297" s="2">
         <v>16</v>
       </c>
       <c r="B297" s="2">
         <v>26</v>
       </c>
-      <c r="C297" s="3">
+      <c r="C297" s="7">
         <v>-793.673590420457</v>
       </c>
-      <c r="D297" s="3">
+      <c r="D297" s="7">
         <v>-505.46000000000004</v>
       </c>
-      <c r="E297" s="3">
+      <c r="E297" s="7">
         <v>-217.24640957954301</v>
       </c>
-      <c r="F297" s="3">
+      <c r="F297" s="7">
         <v>1.8894530000000001E-6</v>
       </c>
     </row>
-    <row r="298" spans="1:6">
+    <row r="298" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A298" s="2">
         <v>16</v>
       </c>
       <c r="B298" s="2">
         <v>27</v>
       </c>
-      <c r="C298" s="3">
+      <c r="C298" s="7">
         <v>-1237.7935904204501</v>
       </c>
-      <c r="D298" s="3">
+      <c r="D298" s="7">
         <v>-949.57999999999993</v>
       </c>
-      <c r="E298" s="3">
+      <c r="E298" s="7">
         <v>-661.36640957954296</v>
       </c>
-      <c r="F298" s="3">
-        <v>1.8645879999999998E-6</v>
-      </c>
-    </row>
-    <row r="299" spans="1:6">
+      <c r="F298" s="7">
+        <v>1.8645879999999998E-6</v>
+      </c>
+    </row>
+    <row r="299" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A299" s="2">
         <v>17</v>
       </c>
       <c r="B299" s="2">
         <v>18</v>
       </c>
-      <c r="C299" s="3">
+      <c r="C299" s="7">
         <v>-812.50359042045693</v>
       </c>
-      <c r="D299" s="3">
+      <c r="D299" s="7">
         <v>-524.29000000000008</v>
       </c>
-      <c r="E299" s="3">
+      <c r="E299" s="7">
         <v>-236.07640957954303</v>
       </c>
-      <c r="F299" s="3">
+      <c r="F299" s="7">
         <v>1.869006E-6</v>
       </c>
     </row>
-    <row r="300" spans="1:6">
+    <row r="300" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A300" s="2">
         <v>17</v>
       </c>
       <c r="B300" s="2">
         <v>19</v>
       </c>
-      <c r="C300" s="3">
+      <c r="C300" s="7">
         <v>-311.46359042045702</v>
       </c>
-      <c r="D300" s="3">
+      <c r="D300" s="7">
         <v>-23.25</v>
       </c>
-      <c r="E300" s="3">
+      <c r="E300" s="7">
         <v>264.96359042045697</v>
       </c>
-      <c r="F300" s="3">
+      <c r="F300" s="7">
         <v>1</v>
       </c>
     </row>
-    <row r="301" spans="1:6">
+    <row r="301" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A301" s="2">
         <v>17</v>
       </c>
       <c r="B301" s="2">
         <v>20</v>
       </c>
-      <c r="C301" s="3">
+      <c r="C301" s="7">
         <v>-631.79359042045701</v>
       </c>
-      <c r="D301" s="3">
+      <c r="D301" s="7">
         <v>-343.58</v>
       </c>
-      <c r="E301" s="3">
+      <c r="E301" s="7">
         <v>-55.366409579543003</v>
       </c>
-      <c r="F301" s="3">
+      <c r="F301" s="7">
         <v>3.1526886379999999E-3</v>
       </c>
     </row>
-    <row r="302" spans="1:6">
+    <row r="302" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A302" s="2">
         <v>17</v>
       </c>
       <c r="B302" s="2">
         <v>21</v>
       </c>
-      <c r="C302" s="3">
+      <c r="C302" s="7">
         <v>-827.32359042045698</v>
       </c>
-      <c r="D302" s="3">
+      <c r="D302" s="7">
         <v>-539.11</v>
       </c>
-      <c r="E302" s="3">
+      <c r="E302" s="7">
         <v>-250.89640957954302</v>
       </c>
-      <c r="F302" s="3">
+      <c r="F302" s="7">
         <v>1.8656559999999998E-6</v>
       </c>
     </row>
-    <row r="303" spans="1:6">
+    <row r="303" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A303" s="2">
         <v>17</v>
       </c>
       <c r="B303" s="2">
         <v>22</v>
       </c>
-      <c r="C303" s="3">
+      <c r="C303" s="7">
         <v>60.796409579543003</v>
       </c>
-      <c r="D303" s="3">
+      <c r="D303" s="7">
         <v>349.01</v>
       </c>
-      <c r="E303" s="3">
+      <c r="E303" s="7">
         <v>637.22359042045696</v>
       </c>
-      <c r="F303" s="3">
+      <c r="F303" s="7">
         <v>2.3171903520000001E-3</v>
       </c>
     </row>
-    <row r="304" spans="1:6">
+    <row r="304" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A304" s="2">
         <v>17</v>
       </c>
       <c r="B304" s="2">
         <v>23</v>
       </c>
-      <c r="C304" s="3">
+      <c r="C304" s="7">
         <v>-325.29359042045701</v>
       </c>
-      <c r="D304" s="3">
+      <c r="D304" s="7">
         <v>-37.08</v>
       </c>
-      <c r="E304" s="3">
+      <c r="E304" s="7">
         <v>251.13359042045701</v>
       </c>
-      <c r="F304" s="3">
+      <c r="F304" s="7">
         <v>1</v>
       </c>
     </row>
-    <row r="305" spans="1:6">
+    <row r="305" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A305" s="2">
         <v>17</v>
       </c>
       <c r="B305" s="2">
         <v>24</v>
       </c>
-      <c r="C305" s="3">
+      <c r="C305" s="7">
         <v>-788.40359042045702</v>
       </c>
-      <c r="D305" s="3">
+      <c r="D305" s="7">
         <v>-500.19</v>
       </c>
-      <c r="E305" s="3">
+      <c r="E305" s="7">
         <v>-211.976409579543</v>
       </c>
-      <c r="F305" s="3">
+      <c r="F305" s="7">
         <v>1.9043239999999999E-6</v>
       </c>
     </row>
-    <row r="306" spans="1:6">
+    <row r="306" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A306" s="2">
         <v>17</v>
       </c>
       <c r="B306" s="2">
         <v>25</v>
       </c>
-      <c r="C306" s="3">
+      <c r="C306" s="7">
         <v>8.6964095795430012</v>
       </c>
-      <c r="D306" s="3">
+      <c r="D306" s="7">
         <v>296.91000000000003</v>
       </c>
-      <c r="E306" s="3">
+      <c r="E306" s="7">
         <v>585.12359042045705</v>
       </c>
-      <c r="F306" s="3">
+      <c r="F306" s="7">
         <v>3.4007022337000002E-2</v>
       </c>
     </row>
-    <row r="307" spans="1:6">
+    <row r="307" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A307" s="2">
         <v>17</v>
       </c>
       <c r="B307" s="2">
         <v>26</v>
       </c>
-      <c r="C307" s="3">
+      <c r="C307" s="7">
         <v>-392.56359042045705</v>
       </c>
-      <c r="D307" s="3">
+      <c r="D307" s="7">
         <v>-104.35</v>
       </c>
-      <c r="E307" s="3">
+      <c r="E307" s="7">
         <v>183.863590420457</v>
       </c>
-      <c r="F307" s="3">
+      <c r="F307" s="7">
         <v>0.99993172170300004</v>
       </c>
     </row>
-    <row r="308" spans="1:6">
+    <row r="308" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A308" s="2">
         <v>17</v>
       </c>
       <c r="B308" s="2">
         <v>27</v>
       </c>
-      <c r="C308" s="3">
+      <c r="C308" s="7">
         <v>-836.68359042045699</v>
       </c>
-      <c r="D308" s="3">
+      <c r="D308" s="7">
         <v>-548.47</v>
       </c>
-      <c r="E308" s="3">
+      <c r="E308" s="7">
         <v>-260.256409579543</v>
       </c>
-      <c r="F308" s="3">
+      <c r="F308" s="7">
         <v>1.8650120000000003E-6</v>
       </c>
     </row>
-    <row r="309" spans="1:6">
+    <row r="309" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A309" s="2">
         <v>18</v>
       </c>
       <c r="B309" s="2">
         <v>19</v>
       </c>
-      <c r="C309" s="3">
+      <c r="C309" s="7">
         <v>212.826409579543</v>
       </c>
-      <c r="D309" s="3">
+      <c r="D309" s="7">
         <v>501.04</v>
       </c>
-      <c r="E309" s="3">
+      <c r="E309" s="7">
         <v>789.25359042045693</v>
       </c>
-      <c r="F309" s="3">
+      <c r="F309" s="7">
         <v>1.9014459999999999E-6</v>
       </c>
     </row>
-    <row r="310" spans="1:6">
+    <row r="310" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A310" s="2">
         <v>18</v>
       </c>
       <c r="B310" s="2">
         <v>20</v>
       </c>
-      <c r="C310" s="3">
+      <c r="C310" s="7">
         <v>-107.503590420457</v>
       </c>
-      <c r="D310" s="3">
+      <c r="D310" s="7">
         <v>180.71</v>
       </c>
-      <c r="E310" s="3">
+      <c r="E310" s="7">
         <v>468.923590420457</v>
       </c>
-      <c r="F310" s="3">
+      <c r="F310" s="7">
         <v>0.85105792545199999</v>
       </c>
     </row>
-    <row r="311" spans="1:6">
+    <row r="311" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A311" s="2">
         <v>18</v>
       </c>
       <c r="B311" s="2">
         <v>21</v>
       </c>
-      <c r="C311" s="3">
+      <c r="C311" s="7">
         <v>-303.03359042045702</v>
       </c>
-      <c r="D311" s="3">
+      <c r="D311" s="7">
         <v>-14.82</v>
       </c>
-      <c r="E311" s="3">
+      <c r="E311" s="7">
         <v>273.39359042045703</v>
       </c>
-      <c r="F311" s="3">
+      <c r="F311" s="7">
         <v>1</v>
       </c>
     </row>
-    <row r="312" spans="1:6">
+    <row r="312" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A312" s="2">
         <v>18</v>
       </c>
       <c r="B312" s="2">
         <v>22</v>
       </c>
-      <c r="C312" s="3">
+      <c r="C312" s="7">
         <v>585.0864095795431</v>
       </c>
-      <c r="D312" s="3">
+      <c r="D312" s="7">
         <v>873.3</v>
       </c>
-      <c r="E312" s="3">
+      <c r="E312" s="7">
         <v>1161.5135904204501</v>
       </c>
-      <c r="F312" s="3">
-        <v>1.8645879999999998E-6</v>
-      </c>
-    </row>
-    <row r="313" spans="1:6">
+      <c r="F312" s="7">
+        <v>1.8645879999999998E-6</v>
+      </c>
+    </row>
+    <row r="313" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A313" s="2">
         <v>18</v>
       </c>
       <c r="B313" s="2">
         <v>23</v>
       </c>
-      <c r="C313" s="3">
+      <c r="C313" s="7">
         <v>198.99640957954301</v>
       </c>
-      <c r="D313" s="3">
+      <c r="D313" s="7">
         <v>487.21</v>
       </c>
-      <c r="E313" s="3">
+      <c r="E313" s="7">
         <v>775.423590420457</v>
       </c>
-      <c r="F313" s="3">
+      <c r="F313" s="7">
         <v>1.9873449999999998E-6</v>
       </c>
     </row>
-    <row r="314" spans="1:6">
+    <row r="314" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A314" s="2">
         <v>18</v>
       </c>
       <c r="B314" s="2">
         <v>24</v>
       </c>
-      <c r="C314" s="3">
+      <c r="C314" s="7">
         <v>-264.113590420457</v>
       </c>
-      <c r="D314" s="3">
+      <c r="D314" s="7">
         <v>24.1</v>
       </c>
-      <c r="E314" s="3">
+      <c r="E314" s="7">
         <v>312.31359042045699</v>
       </c>
-      <c r="F314" s="3">
+      <c r="F314" s="7">
         <v>1</v>
       </c>
     </row>
-    <row r="315" spans="1:6">
+    <row r="315" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A315" s="2">
         <v>18</v>
       </c>
       <c r="B315" s="2">
         <v>25</v>
       </c>
-      <c r="C315" s="3">
+      <c r="C315" s="7">
         <v>532.98640957954296</v>
       </c>
-      <c r="D315" s="3">
+      <c r="D315" s="7">
         <v>821.2</v>
       </c>
-      <c r="E315" s="3">
+      <c r="E315" s="7">
         <v>1109.41359042045</v>
       </c>
-      <c r="F315" s="3">
-        <v>1.8645879999999998E-6</v>
-      </c>
-    </row>
-    <row r="316" spans="1:6">
+      <c r="F315" s="7">
+        <v>1.8645879999999998E-6</v>
+      </c>
+    </row>
+    <row r="316" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A316" s="2">
         <v>18</v>
       </c>
       <c r="B316" s="2">
         <v>26</v>
       </c>
-      <c r="C316" s="3">
+      <c r="C316" s="7">
         <v>131.726409579543</v>
       </c>
-      <c r="D316" s="3">
+      <c r="D316" s="7">
         <v>419.94</v>
       </c>
-      <c r="E316" s="3">
+      <c r="E316" s="7">
         <v>708.15359042045702</v>
       </c>
-      <c r="F316" s="3">
+      <c r="F316" s="7">
         <v>2.5784567E-5</v>
       </c>
     </row>
-    <row r="317" spans="1:6">
+    <row r="317" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A317" s="2">
         <v>18</v>
       </c>
       <c r="B317" s="2">
         <v>27</v>
       </c>
-      <c r="C317" s="3">
+      <c r="C317" s="7">
         <v>-312.39359042045697</v>
       </c>
-      <c r="D317" s="3">
+      <c r="D317" s="7">
         <v>-24.18</v>
       </c>
-      <c r="E317" s="3">
+      <c r="E317" s="7">
         <v>264.03359042045696</v>
       </c>
-      <c r="F317" s="3">
+      <c r="F317" s="7">
         <v>1</v>
       </c>
     </row>
-    <row r="318" spans="1:6">
+    <row r="318" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A318" s="2">
         <v>19</v>
       </c>
       <c r="B318" s="2">
         <v>20</v>
       </c>
-      <c r="C318" s="3">
+      <c r="C318" s="7">
         <v>-608.54359042045701</v>
       </c>
-      <c r="D318" s="3">
+      <c r="D318" s="7">
         <v>-320.33</v>
       </c>
-      <c r="E318" s="3">
+      <c r="E318" s="7">
         <v>-32.116409579543003</v>
       </c>
-      <c r="F318" s="3">
+      <c r="F318" s="7">
         <v>1.0972012834000001E-2</v>
       </c>
     </row>
-    <row r="319" spans="1:6">
+    <row r="319" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A319" s="2">
         <v>19</v>
       </c>
       <c r="B319" s="2">
         <v>21</v>
       </c>
-      <c r="C319" s="3">
+      <c r="C319" s="7">
         <v>-804.07359042045698</v>
       </c>
-      <c r="D319" s="3">
+      <c r="D319" s="7">
         <v>-515.86</v>
       </c>
-      <c r="E319" s="3">
+      <c r="E319" s="7">
         <v>-227.64640957954299</v>
       </c>
-      <c r="F319" s="3">
+      <c r="F319" s="7">
         <v>1.874262E-6</v>
       </c>
     </row>
-    <row r="320" spans="1:6">
+    <row r="320" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A320" s="2">
         <v>19</v>
       </c>
       <c r="B320" s="2">
         <v>22</v>
       </c>
-      <c r="C320" s="3">
+      <c r="C320" s="7">
         <v>84.046409579542996</v>
       </c>
-      <c r="D320" s="3">
+      <c r="D320" s="7">
         <v>372.26</v>
       </c>
-      <c r="E320" s="3">
+      <c r="E320" s="7">
         <v>660.47359042045696</v>
       </c>
-      <c r="F320" s="3">
+      <c r="F320" s="7">
         <v>5.7978276200000003E-4</v>
       </c>
     </row>
-    <row r="321" spans="1:6">
+    <row r="321" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A321" s="2">
         <v>19</v>
       </c>
       <c r="B321" s="2">
         <v>23</v>
       </c>
-      <c r="C321" s="3">
+      <c r="C321" s="7">
         <v>-302.04359042045695</v>
       </c>
-      <c r="D321" s="3">
+      <c r="D321" s="7">
         <v>-13.83</v>
       </c>
-      <c r="E321" s="3">
+      <c r="E321" s="7">
         <v>274.38359042045704</v>
       </c>
-      <c r="F321" s="3">
+      <c r="F321" s="7">
         <v>1</v>
       </c>
     </row>
-    <row r="322" spans="1:6">
+    <row r="322" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A322" s="2">
         <v>19</v>
       </c>
       <c r="B322" s="2">
         <v>24</v>
       </c>
-      <c r="C322" s="3">
+      <c r="C322" s="7">
         <v>-765.15359042045702</v>
       </c>
-      <c r="D322" s="3">
+      <c r="D322" s="7">
         <v>-476.94</v>
       </c>
-      <c r="E322" s="3">
+      <c r="E322" s="7">
         <v>-188.726409579543</v>
       </c>
-      <c r="F322" s="3">
+      <c r="F322" s="7">
         <v>2.1564580000000001E-6</v>
       </c>
     </row>
-    <row r="323" spans="1:6">
+    <row r="323" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A323" s="2">
         <v>19</v>
       </c>
       <c r="B323" s="2">
         <v>25</v>
       </c>
-      <c r="C323" s="3">
+      <c r="C323" s="7">
         <v>31.946409579542998</v>
       </c>
-      <c r="D323" s="3">
+      <c r="D323" s="7">
         <v>320.16000000000003</v>
       </c>
-      <c r="E323" s="3">
+      <c r="E323" s="7">
         <v>608.37359042045705</v>
       </c>
-      <c r="F323" s="3">
+      <c r="F323" s="7">
         <v>1.1067638607E-2</v>
       </c>
     </row>
-    <row r="324" spans="1:6">
+    <row r="324" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A324" s="2">
         <v>19</v>
       </c>
       <c r="B324" s="2">
         <v>26</v>
       </c>
-      <c r="C324" s="3">
+      <c r="C324" s="7">
         <v>-369.31359042045705</v>
       </c>
-      <c r="D324" s="3">
+      <c r="D324" s="7">
         <v>-81.100000000000009</v>
       </c>
-      <c r="E324" s="3">
+      <c r="E324" s="7">
         <v>207.113590420457</v>
       </c>
-      <c r="F324" s="3">
+      <c r="F324" s="7">
         <v>0.99999956255599998</v>
       </c>
     </row>
-    <row r="325" spans="1:6">
+    <row r="325" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A325" s="2">
         <v>19</v>
       </c>
       <c r="B325" s="2">
         <v>27</v>
       </c>
-      <c r="C325" s="3">
+      <c r="C325" s="7">
         <v>-813.43359042045699</v>
       </c>
-      <c r="D325" s="3">
+      <c r="D325" s="7">
         <v>-525.22</v>
       </c>
-      <c r="E325" s="3">
+      <c r="E325" s="7">
         <v>-237.006409579543</v>
       </c>
-      <c r="F325" s="3">
+      <c r="F325" s="7">
         <v>1.8686359999999999E-6</v>
       </c>
     </row>
-    <row r="326" spans="1:6">
+    <row r="326" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A326" s="2">
         <v>20</v>
       </c>
       <c r="B326" s="2">
         <v>21</v>
       </c>
-      <c r="C326" s="3">
+      <c r="C326" s="7">
         <v>-483.743590420457</v>
       </c>
-      <c r="D326" s="3">
+      <c r="D326" s="7">
         <v>-195.53</v>
       </c>
-      <c r="E326" s="3">
+      <c r="E326" s="7">
         <v>92.683590420456994</v>
       </c>
-      <c r="F326" s="3">
+      <c r="F326" s="7">
         <v>0.72750766223600005</v>
       </c>
     </row>
-    <row r="327" spans="1:6">
+    <row r="327" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A327" s="2">
         <v>20</v>
       </c>
       <c r="B327" s="2">
         <v>22</v>
       </c>
-      <c r="C327" s="3">
+      <c r="C327" s="7">
         <v>404.37640957954301</v>
       </c>
-      <c r="D327" s="3">
+      <c r="D327" s="7">
         <v>692.59</v>
       </c>
-      <c r="E327" s="3">
+      <c r="E327" s="7">
         <v>980.803590420457</v>
       </c>
-      <c r="F327" s="3">
-        <v>1.8645879999999998E-6</v>
-      </c>
-    </row>
-    <row r="328" spans="1:6">
+      <c r="F327" s="7">
+        <v>1.8645879999999998E-6</v>
+      </c>
+    </row>
+    <row r="328" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A328" s="2">
         <v>20</v>
       </c>
       <c r="B328" s="2">
         <v>23</v>
       </c>
-      <c r="C328" s="3">
+      <c r="C328" s="7">
         <v>18.286409579543001</v>
       </c>
-      <c r="D328" s="3">
+      <c r="D328" s="7">
         <v>306.5</v>
       </c>
-      <c r="E328" s="3">
+      <c r="E328" s="7">
         <v>594.71359042045697</v>
       </c>
-      <c r="F328" s="3">
+      <c r="F328" s="7">
         <v>2.1743660206999998E-2</v>
       </c>
     </row>
-    <row r="329" spans="1:6">
+    <row r="329" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A329" s="2">
         <v>20</v>
       </c>
       <c r="B329" s="2">
         <v>24</v>
       </c>
-      <c r="C329" s="3">
+      <c r="C329" s="7">
         <v>-444.82359042045698</v>
       </c>
-      <c r="D329" s="3">
+      <c r="D329" s="7">
         <v>-156.60999999999999</v>
       </c>
-      <c r="E329" s="3">
+      <c r="E329" s="7">
         <v>131.60359042045698</v>
       </c>
-      <c r="F329" s="3">
+      <c r="F329" s="7">
         <v>0.96488483527800006</v>
       </c>
     </row>
-    <row r="330" spans="1:6">
+    <row r="330" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A330" s="2">
         <v>20</v>
       </c>
       <c r="B330" s="2">
         <v>25</v>
       </c>
-      <c r="C330" s="3">
+      <c r="C330" s="7">
         <v>352.27640957954299</v>
       </c>
-      <c r="D330" s="3">
+      <c r="D330" s="7">
         <v>640.49</v>
       </c>
-      <c r="E330" s="3">
+      <c r="E330" s="7">
         <v>928.70359042045698</v>
       </c>
-      <c r="F330" s="3">
-        <v>1.8645879999999998E-6</v>
-      </c>
-    </row>
-    <row r="331" spans="1:6">
+      <c r="F330" s="7">
+        <v>1.8645879999999998E-6</v>
+      </c>
+    </row>
+    <row r="331" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A331" s="2">
         <v>20</v>
       </c>
       <c r="B331" s="2">
         <v>26</v>
       </c>
-      <c r="C331" s="3">
+      <c r="C331" s="7">
         <v>-48.983590420457006</v>
       </c>
-      <c r="D331" s="3">
+      <c r="D331" s="7">
         <v>239.23</v>
       </c>
-      <c r="E331" s="3">
+      <c r="E331" s="7">
         <v>527.44359042045699</v>
       </c>
-      <c r="F331" s="3">
+      <c r="F331" s="7">
         <v>0.29351210214000001</v>
       </c>
     </row>
-    <row r="332" spans="1:6">
+    <row r="332" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A332" s="2">
         <v>20</v>
       </c>
       <c r="B332" s="2">
         <v>27</v>
       </c>
-      <c r="C332" s="3">
+      <c r="C332" s="7">
         <v>-493.10359042045701</v>
       </c>
-      <c r="D332" s="3">
+      <c r="D332" s="7">
         <v>-204.89</v>
       </c>
-      <c r="E332" s="3">
+      <c r="E332" s="7">
         <v>83.323590420457009</v>
       </c>
-      <c r="F332" s="3">
+      <c r="F332" s="7">
         <v>0.63426996612700004</v>
       </c>
     </row>
-    <row r="333" spans="1:6">
+    <row r="333" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A333" s="2">
         <v>21</v>
       </c>
       <c r="B333" s="2">
         <v>22</v>
       </c>
-      <c r="C333" s="3">
+      <c r="C333" s="7">
         <v>599.90640957954304</v>
       </c>
-      <c r="D333" s="3">
+      <c r="D333" s="7">
         <v>888.12</v>
       </c>
-      <c r="E333" s="3">
+      <c r="E333" s="7">
         <v>1176.33359042045</v>
       </c>
-      <c r="F333" s="3">
-        <v>1.8645879999999998E-6</v>
-      </c>
-    </row>
-    <row r="334" spans="1:6">
+      <c r="F333" s="7">
+        <v>1.8645879999999998E-6</v>
+      </c>
+    </row>
+    <row r="334" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A334" s="2">
         <v>21</v>
       </c>
       <c r="B334" s="2">
         <v>23</v>
       </c>
-      <c r="C334" s="3">
+      <c r="C334" s="7">
         <v>213.81640957954301</v>
       </c>
-      <c r="D334" s="3">
+      <c r="D334" s="7">
         <v>502.03</v>
       </c>
-      <c r="E334" s="3">
+      <c r="E334" s="7">
         <v>790.24359042045705</v>
       </c>
-      <c r="F334" s="3">
+      <c r="F334" s="7">
         <v>1.8983489999999998E-6</v>
       </c>
     </row>
-    <row r="335" spans="1:6">
+    <row r="335" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A335" s="2">
         <v>21</v>
       </c>
       <c r="B335" s="2">
         <v>24</v>
       </c>
-      <c r="C335" s="3">
+      <c r="C335" s="7">
         <v>-249.29359042045701</v>
       </c>
-      <c r="D335" s="3">
+      <c r="D335" s="7">
         <v>38.92</v>
       </c>
-      <c r="E335" s="3">
+      <c r="E335" s="7">
         <v>327.13359042045698</v>
       </c>
-      <c r="F335" s="3">
+      <c r="F335" s="7">
         <v>1</v>
       </c>
     </row>
-    <row r="336" spans="1:6">
+    <row r="336" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A336" s="2">
         <v>21</v>
       </c>
       <c r="B336" s="2">
         <v>25</v>
       </c>
-      <c r="C336" s="3">
+      <c r="C336" s="7">
         <v>547.80640957954301</v>
       </c>
-      <c r="D336" s="3">
+      <c r="D336" s="7">
         <v>836.02</v>
       </c>
-      <c r="E336" s="3">
+      <c r="E336" s="7">
         <v>1124.2335904204499</v>
       </c>
-      <c r="F336" s="3">
-        <v>1.8645879999999998E-6</v>
-      </c>
-    </row>
-    <row r="337" spans="1:6">
+      <c r="F336" s="7">
+        <v>1.8645879999999998E-6</v>
+      </c>
+    </row>
+    <row r="337" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A337" s="2">
         <v>21</v>
       </c>
       <c r="B337" s="2">
         <v>26</v>
       </c>
-      <c r="C337" s="3">
+      <c r="C337" s="7">
         <v>146.54640957954302</v>
       </c>
-      <c r="D337" s="3">
+      <c r="D337" s="7">
         <v>434.76</v>
       </c>
-      <c r="E337" s="3">
+      <c r="E337" s="7">
         <v>722.97359042045696</v>
       </c>
-      <c r="F337" s="3">
+      <c r="F337" s="7">
         <v>9.9712030000000002E-6</v>
       </c>
     </row>
-    <row r="338" spans="1:6">
+    <row r="338" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A338" s="2">
         <v>21</v>
       </c>
       <c r="B338" s="2">
         <v>27</v>
       </c>
-      <c r="C338" s="3">
+      <c r="C338" s="7">
         <v>-297.57359042045698</v>
       </c>
-      <c r="D338" s="3">
+      <c r="D338" s="7">
         <v>-9.36</v>
       </c>
-      <c r="E338" s="3">
+      <c r="E338" s="7">
         <v>278.85359042045701</v>
       </c>
-      <c r="F338" s="3">
+      <c r="F338" s="7">
         <v>1</v>
       </c>
     </row>
-    <row r="339" spans="1:6">
+    <row r="339" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A339" s="2">
         <v>22</v>
       </c>
       <c r="B339" s="2">
         <v>23</v>
       </c>
-      <c r="C339" s="3">
+      <c r="C339" s="7">
         <v>-674.303590420457</v>
       </c>
-      <c r="D339" s="3">
+      <c r="D339" s="7">
         <v>-386.09</v>
       </c>
-      <c r="E339" s="3">
+      <c r="E339" s="7">
         <v>-97.876409579542994</v>
       </c>
-      <c r="F339" s="3">
+      <c r="F339" s="7">
         <v>2.42245585E-4</v>
       </c>
     </row>
-    <row r="340" spans="1:6">
+    <row r="340" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A340" s="2">
         <v>22</v>
       </c>
       <c r="B340" s="2">
         <v>24</v>
       </c>
-      <c r="C340" s="3">
+      <c r="C340" s="7">
         <v>-1137.4135904204502</v>
       </c>
-      <c r="D340" s="3">
+      <c r="D340" s="7">
         <v>-849.19999999999993</v>
       </c>
-      <c r="E340" s="3">
+      <c r="E340" s="7">
         <v>-560.98640957954308</v>
       </c>
-      <c r="F340" s="3">
-        <v>1.8645879999999998E-6</v>
-      </c>
-    </row>
-    <row r="341" spans="1:6">
+      <c r="F340" s="7">
+        <v>1.8645879999999998E-6</v>
+      </c>
+    </row>
+    <row r="341" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A341" s="2">
         <v>22</v>
       </c>
       <c r="B341" s="2">
         <v>25</v>
       </c>
-      <c r="C341" s="3">
+      <c r="C341" s="7">
         <v>-340.31359042045699</v>
       </c>
-      <c r="D341" s="3">
+      <c r="D341" s="7">
         <v>-52.1</v>
       </c>
-      <c r="E341" s="3">
+      <c r="E341" s="7">
         <v>236.113590420457</v>
       </c>
-      <c r="F341" s="3">
+      <c r="F341" s="7">
         <v>0.99999999998200007</v>
       </c>
     </row>
-    <row r="342" spans="1:6">
+    <row r="342" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A342" s="2">
         <v>22</v>
       </c>
       <c r="B342" s="2">
         <v>26</v>
       </c>
-      <c r="C342" s="3">
+      <c r="C342" s="7">
         <v>-741.57359042045698</v>
       </c>
-      <c r="D342" s="3">
+      <c r="D342" s="7">
         <v>-453.36</v>
       </c>
-      <c r="E342" s="3">
+      <c r="E342" s="7">
         <v>-165.14640957954299</v>
       </c>
-      <c r="F342" s="3">
+      <c r="F342" s="7">
         <v>3.8229170000000001E-6</v>
       </c>
     </row>
-    <row r="343" spans="1:6">
+    <row r="343" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A343" s="2">
         <v>22</v>
       </c>
       <c r="B343" s="2">
         <v>27</v>
       </c>
-      <c r="C343" s="3">
+      <c r="C343" s="7">
         <v>-1185.6935904204499</v>
       </c>
-      <c r="D343" s="3">
+      <c r="D343" s="7">
         <v>-897.48</v>
       </c>
-      <c r="E343" s="3">
+      <c r="E343" s="7">
         <v>-609.26640957954305</v>
       </c>
-      <c r="F343" s="3">
-        <v>1.8645879999999998E-6</v>
-      </c>
-    </row>
-    <row r="344" spans="1:6">
+      <c r="F343" s="7">
+        <v>1.8645879999999998E-6</v>
+      </c>
+    </row>
+    <row r="344" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A344" s="2">
         <v>23</v>
       </c>
       <c r="B344" s="2">
         <v>24</v>
       </c>
-      <c r="C344" s="3">
+      <c r="C344" s="7">
         <v>-751.32359042045709</v>
       </c>
-      <c r="D344" s="3">
+      <c r="D344" s="7">
         <v>-463.11</v>
       </c>
-      <c r="E344" s="3">
+      <c r="E344" s="7">
         <v>-174.89640957954299</v>
       </c>
-      <c r="F344" s="3">
+      <c r="F344" s="7">
         <v>2.768644E-6</v>
       </c>
     </row>
-    <row r="345" spans="1:6">
+    <row r="345" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A345" s="2">
         <v>23</v>
       </c>
       <c r="B345" s="2">
         <v>25</v>
       </c>
-      <c r="C345" s="3">
+      <c r="C345" s="7">
         <v>45.776409579542999</v>
       </c>
-      <c r="D345" s="3">
+      <c r="D345" s="7">
         <v>333.99</v>
       </c>
-      <c r="E345" s="3">
+      <c r="E345" s="7">
         <v>622.20359042045698</v>
       </c>
-      <c r="F345" s="3">
+      <c r="F345" s="7">
         <v>5.348951827E-3</v>
       </c>
     </row>
-    <row r="346" spans="1:6">
+    <row r="346" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A346" s="2">
         <v>23</v>
       </c>
       <c r="B346" s="2">
         <v>26</v>
       </c>
-      <c r="C346" s="3">
+      <c r="C346" s="7">
         <v>-355.48359042045701</v>
       </c>
-      <c r="D346" s="3">
+      <c r="D346" s="7">
         <v>-67.27</v>
       </c>
-      <c r="E346" s="3">
+      <c r="E346" s="7">
         <v>220.94359042045699</v>
       </c>
-      <c r="F346" s="3">
+      <c r="F346" s="7">
         <v>0.99999999289999997</v>
       </c>
     </row>
-    <row r="347" spans="1:6">
+    <row r="347" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A347" s="2">
         <v>23</v>
       </c>
       <c r="B347" s="2">
         <v>27</v>
       </c>
-      <c r="C347" s="3">
+      <c r="C347" s="7">
         <v>-799.60359042045707</v>
       </c>
-      <c r="D347" s="3">
+      <c r="D347" s="7">
         <v>-511.39</v>
       </c>
-      <c r="E347" s="3">
+      <c r="E347" s="7">
         <v>-223.17640957954299</v>
       </c>
-      <c r="F347" s="3">
+      <c r="F347" s="7">
         <v>1.8791479999999998E-6</v>
       </c>
     </row>
-    <row r="348" spans="1:6">
+    <row r="348" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A348" s="2">
         <v>24</v>
       </c>
       <c r="B348" s="2">
         <v>25</v>
       </c>
-      <c r="C348" s="3">
+      <c r="C348" s="7">
         <v>508.886409579543</v>
       </c>
-      <c r="D348" s="3">
+      <c r="D348" s="7">
         <v>797.1</v>
       </c>
-      <c r="E348" s="3">
+      <c r="E348" s="7">
         <v>1085.3135904204501</v>
       </c>
-      <c r="F348" s="3">
-        <v>1.8645879999999998E-6</v>
-      </c>
-    </row>
-    <row r="349" spans="1:6">
+      <c r="F348" s="7">
+        <v>1.8645879999999998E-6</v>
+      </c>
+    </row>
+    <row r="349" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A349" s="2">
         <v>24</v>
       </c>
       <c r="B349" s="2">
         <v>26</v>
       </c>
-      <c r="C349" s="3">
+      <c r="C349" s="7">
         <v>107.62640957954301</v>
       </c>
-      <c r="D349" s="3">
+      <c r="D349" s="7">
         <v>395.84000000000003</v>
       </c>
-      <c r="E349" s="3">
+      <c r="E349" s="7">
         <v>684.053590420457</v>
       </c>
-      <c r="F349" s="3">
+      <c r="F349" s="7">
         <v>1.2845000400000002E-4</v>
       </c>
     </row>
-    <row r="350" spans="1:6">
+    <row r="350" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A350" s="2">
         <v>24</v>
       </c>
       <c r="B350" s="2">
         <v>27</v>
       </c>
-      <c r="C350" s="3">
+      <c r="C350" s="7">
         <v>-336.493590420457</v>
       </c>
-      <c r="D350" s="3">
+      <c r="D350" s="7">
         <v>-48.28</v>
       </c>
-      <c r="E350" s="3">
+      <c r="E350" s="7">
         <v>239.93359042045699</v>
       </c>
-      <c r="F350" s="3">
+      <c r="F350" s="7">
         <v>0.99999999999700007</v>
       </c>
     </row>
-    <row r="351" spans="1:6">
+    <row r="351" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A351" s="2">
         <v>25</v>
       </c>
       <c r="B351" s="2">
         <v>26</v>
       </c>
-      <c r="C351" s="3">
+      <c r="C351" s="7">
         <v>-689.47359042045696</v>
       </c>
-      <c r="D351" s="3">
+      <c r="D351" s="7">
         <v>-401.26</v>
       </c>
-      <c r="E351" s="3">
+      <c r="E351" s="7">
         <v>-113.046409579543</v>
       </c>
-      <c r="F351" s="3">
+      <c r="F351" s="7">
         <v>8.9768962999999999E-5</v>
       </c>
     </row>
-    <row r="352" spans="1:6">
+    <row r="352" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A352" s="2">
         <v>25</v>
       </c>
       <c r="B352" s="2">
         <v>27</v>
       </c>
-      <c r="C352" s="3">
+      <c r="C352" s="7">
         <v>-1133.59359042045</v>
       </c>
-      <c r="D352" s="3">
+      <c r="D352" s="7">
         <v>-845.38</v>
       </c>
-      <c r="E352" s="3">
+      <c r="E352" s="7">
         <v>-557.16640957954303</v>
       </c>
-      <c r="F352" s="3">
-        <v>1.8645879999999998E-6</v>
-      </c>
-    </row>
-    <row r="353" spans="1:6">
+      <c r="F352" s="7">
+        <v>1.8645879999999998E-6</v>
+      </c>
+    </row>
+    <row r="353" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A353" s="2">
         <v>26</v>
       </c>
       <c r="B353" s="2">
         <v>27</v>
       </c>
-      <c r="C353" s="3">
+      <c r="C353" s="7">
         <v>-732.33359042045697</v>
       </c>
-      <c r="D353" s="3">
+      <c r="D353" s="7">
         <v>-444.12</v>
       </c>
-      <c r="E353" s="3">
+      <c r="E353" s="7">
         <v>-155.90640957954298</v>
       </c>
-      <c r="F353" s="3">
+      <c r="F353" s="7">
         <v>5.865723E-6</v>
       </c>
     </row>
